--- a/STUDI KASUS.xlsx
+++ b/STUDI KASUS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNDIPA\Semester 7\Skripsi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNDIPA\Semester 7\Skripsi\Format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA90620-32F8-4147-B1D3-3ACB645050BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DFACD0-E13D-4F26-AADE-849989DC4311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{901D0503-6946-40CA-8D36-37B156763246}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="229">
   <si>
     <t xml:space="preserve">Biaya </t>
   </si>
@@ -239,9 +239,6 @@
   </si>
   <si>
     <t>Ibadah</t>
-  </si>
-  <si>
-    <t>Prabayar</t>
   </si>
   <si>
     <t>Pada Waktu Sewa</t>
@@ -521,9 +518,6 @@
     <t>Token air</t>
   </si>
   <si>
-    <t>Prabayar (pulsa)</t>
-  </si>
-  <si>
     <t>Jalan kaki</t>
   </si>
   <si>
@@ -735,6 +729,12 @@
   </si>
   <si>
     <t>Ranking</t>
+  </si>
+  <si>
+    <t>&lt;=1</t>
+  </si>
+  <si>
+    <t>kursi</t>
   </si>
 </sst>
 </file>
@@ -850,7 +850,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1228,28 +1238,28 @@
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="12" t="s">
         <v>84</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>85</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>42</v>
@@ -1264,13 +1274,13 @@
         <v>4</v>
       </c>
       <c r="M2" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
@@ -1278,43 +1288,43 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>98</v>
-      </c>
       <c r="H3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="K3" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>107</v>
-      </c>
       <c r="M3" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>60</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
@@ -1322,43 +1332,43 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>97</v>
-      </c>
       <c r="G4" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L4" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O4" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
@@ -1366,38 +1376,38 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="O5" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="72" x14ac:dyDescent="0.3">
@@ -1405,46 +1415,46 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="N6" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>126</v>
-      </c>
       <c r="O6" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="72" x14ac:dyDescent="0.3">
@@ -1452,46 +1462,46 @@
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="F7" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="I7" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="G7" s="8" t="s">
+      <c r="J7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>101</v>
-      </c>
       <c r="L7" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="O7" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
@@ -1499,46 +1509,46 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="14" t="s">
+      <c r="F8" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>133</v>
-      </c>
       <c r="L8" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="N8" t="s">
+        <v>117</v>
+      </c>
+      <c r="O8" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="N8" t="s">
-        <v>118</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -2174,7 +2184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB87EEF9-7F2E-4545-9951-0F532151B120}">
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="117" workbookViewId="0">
+    <sheetView zoomScale="117" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -2284,7 +2294,7 @@
         <v>11</v>
       </c>
       <c r="U4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -2350,7 +2360,7 @@
         <v>2</v>
       </c>
       <c r="U6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -2446,7 +2456,7 @@
         <v>5</v>
       </c>
       <c r="U9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -2461,7 +2471,7 @@
         <v>27</v>
       </c>
       <c r="U10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -2500,7 +2510,7 @@
         <v>43</v>
       </c>
       <c r="U11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -2533,12 +2543,12 @@
         <v>11</v>
       </c>
       <c r="U12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="F13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -2550,53 +2560,53 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O13">
         <v>1</v>
       </c>
       <c r="R13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S13">
         <v>1</v>
       </c>
       <c r="U13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="F14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K14">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O14">
         <v>2</v>
       </c>
       <c r="R14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S14">
         <v>2</v>
       </c>
       <c r="U14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="F15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -2608,19 +2618,19 @@
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O15">
         <v>3</v>
       </c>
       <c r="R15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S15">
         <v>3</v>
       </c>
       <c r="U15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
@@ -2631,7 +2641,7 @@
         <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G16">
         <v>4</v>
@@ -2643,13 +2653,13 @@
         <v>4</v>
       </c>
       <c r="R16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S16">
         <v>4</v>
       </c>
       <c r="U16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
@@ -2663,19 +2673,19 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G17">
         <v>5</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K17">
         <v>5</v>
       </c>
       <c r="U17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
@@ -2695,7 +2705,7 @@
         <v>42</v>
       </c>
       <c r="U18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
@@ -2726,7 +2736,7 @@
         <v>44</v>
       </c>
       <c r="N20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -2755,7 +2765,7 @@
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O21">
         <v>2</v>
@@ -2784,7 +2794,7 @@
         <v>11</v>
       </c>
       <c r="N22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22">
         <v>3</v>
@@ -2906,8 +2916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BA1C62-8752-4999-BB16-F79297149C3E}">
   <dimension ref="A1:U112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="88" workbookViewId="0">
-      <selection activeCell="F116" sqref="F116"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="88" workbookViewId="0">
+      <selection activeCell="K117" sqref="K117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2929,16 +2939,22 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="U1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>196</v>
+      </c>
       <c r="U2" t="s">
         <v>64</v>
       </c>
@@ -2998,7 +3014,7 @@
         <v>11</v>
       </c>
       <c r="U4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -3020,8 +3036,8 @@
       <c r="K5">
         <v>1</v>
       </c>
-      <c r="N5">
-        <v>1</v>
+      <c r="N5" t="s">
+        <v>227</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -3038,7 +3054,7 @@
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -3056,7 +3072,7 @@
         <v>2</v>
       </c>
       <c r="U6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -3067,7 +3083,7 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -3093,7 +3109,7 @@
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -3109,9 +3125,6 @@
       </c>
       <c r="O8">
         <v>4</v>
-      </c>
-      <c r="U8" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -3139,9 +3152,6 @@
       <c r="O9">
         <v>5</v>
       </c>
-      <c r="U9" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
@@ -3150,9 +3160,6 @@
       <c r="B10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="U10" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
@@ -3185,9 +3192,6 @@
       <c r="R11" t="s">
         <v>43</v>
       </c>
-      <c r="U11" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
@@ -3220,14 +3224,11 @@
       <c r="S12" t="s">
         <v>11</v>
       </c>
-      <c r="U12" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B13" s="15"/>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -3239,58 +3240,52 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O13">
         <v>1</v>
       </c>
       <c r="R13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S13">
         <v>1</v>
-      </c>
-      <c r="U13" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B14" s="15"/>
       <c r="F14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K14">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O14">
         <v>2</v>
       </c>
       <c r="R14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S14">
         <v>2</v>
       </c>
-      <c r="U14" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B15" s="15"/>
       <c r="F15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -3302,26 +3297,23 @@
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O15">
         <v>3</v>
       </c>
       <c r="R15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S15">
         <v>3</v>
-      </c>
-      <c r="U15" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="15"/>
       <c r="F16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G16">
         <v>4</v>
@@ -3332,40 +3324,28 @@
       <c r="K16">
         <v>4</v>
       </c>
-      <c r="R16" t="s">
-        <v>72</v>
-      </c>
-      <c r="S16">
-        <v>4</v>
-      </c>
-      <c r="U16" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="17" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G17">
         <v>5</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K17">
         <v>5</v>
-      </c>
-      <c r="U17" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
@@ -3373,7 +3353,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C18" s="15">
         <f>Ressponden!B2</f>
@@ -3386,7 +3366,7 @@
         <v>42</v>
       </c>
       <c r="U18" t="s">
-        <v>140</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
@@ -3394,7 +3374,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C19" s="15">
         <f>Ressponden!B3</f>
@@ -3406,23 +3386,29 @@
       <c r="O19" t="s">
         <v>11</v>
       </c>
+      <c r="U19" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C20" s="15">
         <f>Ressponden!B4</f>
         <v>10.6</v>
       </c>
       <c r="N20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O20">
         <v>1</v>
+      </c>
+      <c r="U20" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
@@ -3430,7 +3416,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C21" s="15">
         <f>Ressponden!B5</f>
@@ -3449,10 +3435,13 @@
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O21">
         <v>2</v>
+      </c>
+      <c r="U21" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
@@ -3460,7 +3449,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C22" s="15">
         <f>Ressponden!B6</f>
@@ -3479,10 +3468,13 @@
         <v>11</v>
       </c>
       <c r="N22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22">
         <v>3</v>
+      </c>
+      <c r="U22" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
@@ -3490,7 +3482,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C23" s="15">
         <f>Ressponden!B7</f>
@@ -3508,13 +3500,16 @@
       <c r="K23">
         <v>1</v>
       </c>
+      <c r="U23" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C24" s="15">
         <f>Ressponden!B8</f>
@@ -3532,13 +3527,16 @@
       <c r="K24">
         <v>2</v>
       </c>
+      <c r="U24" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C25" s="15">
         <f>Ressponden!B9</f>
@@ -3556,13 +3554,16 @@
       <c r="K25">
         <v>3</v>
       </c>
+      <c r="U25" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C26" s="15">
         <f>Ressponden!B10</f>
@@ -3580,13 +3581,16 @@
       <c r="K26">
         <v>4</v>
       </c>
+      <c r="U26" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C27" s="15">
         <f>Ressponden!B11</f>
@@ -3603,6 +3607,9 @@
       </c>
       <c r="K27">
         <v>5</v>
+      </c>
+      <c r="U27" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
@@ -3612,18 +3619,21 @@
         <f>Ressponden!B12</f>
         <v>100</v>
       </c>
+      <c r="U28" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -3708,7 +3718,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -3716,22 +3726,22 @@
     </row>
     <row r="48" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B48" s="16" t="s">
-        <v>79</v>
-      </c>
       <c r="C48" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="D48" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E48" s="16" t="s">
+      <c r="F48" s="16" t="s">
         <v>146</v>
-      </c>
-      <c r="F48" s="16" t="s">
-        <v>147</v>
       </c>
       <c r="G48" s="16" t="s">
         <v>4</v>
@@ -3757,37 +3767,37 @@
         <v>1</v>
       </c>
       <c r="B49" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="D49" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F49" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="D49" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="F49" s="12" t="s">
+      <c r="G49" s="12" t="s">
         <v>150</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>151</v>
       </c>
       <c r="H49" s="12" t="s">
         <v>63</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L49" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
@@ -3795,37 +3805,37 @@
         <v>2</v>
       </c>
       <c r="B50" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F50" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="C50" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="F50" s="12" t="s">
+      <c r="G50" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H50" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="G50" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="H50" s="12" t="s">
+      <c r="I50" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="J50" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="I50" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="J50" s="12" t="s">
+      <c r="K50" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="L50" s="12" t="s">
         <v>156</v>
-      </c>
-      <c r="K50" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="L50" s="12" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
@@ -3833,204 +3843,204 @@
         <v>3</v>
       </c>
       <c r="B51" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F51" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="C51" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>161</v>
-      </c>
       <c r="G51" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H51" s="12" t="s">
         <v>63</v>
       </c>
       <c r="I51" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="L51" s="12" t="s">
         <v>169</v>
-      </c>
-      <c r="J51" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="K51" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="L51" s="12" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>172</v>
-      </c>
-      <c r="B56" t="s">
-        <v>198</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="A56" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C56" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I56" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J56" t="s">
+      <c r="J56" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K56" t="s">
+      <c r="K56" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L56" t="s">
+      <c r="L56" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>195</v>
-      </c>
-      <c r="B57" t="s">
-        <v>199</v>
+      <c r="A57" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>197</v>
       </c>
       <c r="C57" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F57" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="D57" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="F57" s="12" t="s">
+      <c r="G57" s="12" t="s">
         <v>150</v>
-      </c>
-      <c r="G57" s="12" t="s">
-        <v>151</v>
       </c>
       <c r="H57" s="12" t="s">
         <v>63</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L57" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>196</v>
-      </c>
-      <c r="B58" t="s">
-        <v>200</v>
+      <c r="A58" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E58" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="I58" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="J58" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="K58" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="L58" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G59" s="12" t="s">
         <v>164</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="G58" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="H58" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="I58" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="J58" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="K58" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="L58" s="12" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>197</v>
-      </c>
-      <c r="B59" t="s">
-        <v>201</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="G59" s="12" t="s">
-        <v>166</v>
       </c>
       <c r="H59" s="12" t="s">
         <v>63</v>
       </c>
       <c r="I59" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="J59" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="K59" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="L59" s="12" t="s">
         <v>169</v>
-      </c>
-      <c r="J59" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="K59" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="L59" s="12" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>19</v>
@@ -4065,7 +4075,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B66" s="9">
         <v>4</v>
@@ -4100,7 +4110,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B67" s="9">
         <v>2</v>
@@ -4135,7 +4145,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B68" s="9">
         <v>2</v>
@@ -4170,37 +4180,37 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="18" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>213</v>
+      </c>
+      <c r="E73" t="s">
+        <v>214</v>
+      </c>
+      <c r="I73" t="s">
         <v>215</v>
-      </c>
-      <c r="E73" t="s">
-        <v>216</v>
-      </c>
-      <c r="I73" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B74">
         <f>2/B66</f>
         <v>0.5</v>
       </c>
       <c r="E74" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F74">
         <f>C66/4</f>
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J74">
         <f>D66/4</f>
@@ -4209,78 +4219,78 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B75">
-        <f t="shared" ref="B75:B76" si="0">2/B67</f>
+        <f>2/B67</f>
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F75">
-        <f t="shared" ref="F75:F76" si="1">C67/4</f>
+        <f>C67/4</f>
         <v>0.75</v>
       </c>
       <c r="I75" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J75">
-        <f t="shared" ref="J75:J76" si="2">D67/4</f>
+        <f>D67/4</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B76">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B76" si="0">2/B68</f>
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F76">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F76" si="1">C68/4</f>
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J76">
-        <f t="shared" si="2"/>
+        <f>D68/4</f>
         <v>0.75</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>216</v>
+      </c>
+      <c r="E79" t="s">
+        <v>217</v>
+      </c>
+      <c r="I79" t="s">
         <v>218</v>
-      </c>
-      <c r="E79" t="s">
-        <v>219</v>
-      </c>
-      <c r="I79" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B80">
         <f>3/E66</f>
         <v>0.75</v>
       </c>
       <c r="E80" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F80">
         <f>F66/5</f>
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J80">
         <f>3/G66</f>
@@ -4289,78 +4299,78 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B81">
-        <f t="shared" ref="B81:B82" si="3">3/E67</f>
+        <f>3/E67</f>
         <v>0.75</v>
       </c>
       <c r="E81" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F81">
-        <f t="shared" ref="F81:F82" si="4">F67/5</f>
+        <f>F67/5</f>
         <v>0.8</v>
       </c>
       <c r="I81" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J81">
-        <f t="shared" ref="J81:J82" si="5">3/G67</f>
+        <f>3/G67</f>
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B82">
-        <f t="shared" si="3"/>
+        <f>3/E68</f>
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F82">
-        <f t="shared" si="4"/>
+        <f>F68/5</f>
         <v>0.6</v>
       </c>
       <c r="I82" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J82">
-        <f t="shared" si="5"/>
+        <f>3/G68</f>
         <v>0.6</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>219</v>
+      </c>
+      <c r="E85" t="s">
+        <v>220</v>
+      </c>
+      <c r="I85" t="s">
         <v>221</v>
-      </c>
-      <c r="E85" t="s">
-        <v>222</v>
-      </c>
-      <c r="I85" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B86">
         <f>H66/4</f>
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F86" s="19">
         <f>I66/3</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="I86" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J86" s="19">
         <f>J66/3</f>
@@ -4369,21 +4379,21 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B87">
-        <f t="shared" ref="B87:B88" si="6">H67/4</f>
+        <f>H67/4</f>
         <v>0.75</v>
       </c>
       <c r="E87" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F87" s="19">
         <f>I67/3</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="I87" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J87" s="19">
         <f>J67/3</f>
@@ -4392,35 +4402,35 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B88">
-        <f t="shared" si="6"/>
+        <f>H68/4</f>
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F88">
-        <f t="shared" ref="F87:F88" si="7">I68/3</f>
+        <f>I68/3</f>
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J88">
-        <f t="shared" ref="J87:J88" si="8">J68/3</f>
+        <f t="shared" ref="J88" si="2">J68/3</f>
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E91" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E92" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F92" s="19">
         <f>K66/3</f>
@@ -4429,7 +4439,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E93" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F93" s="19">
         <f>K67/3</f>
@@ -4438,21 +4448,21 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E94" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F94">
-        <f t="shared" ref="F93:F94" si="9">K68/3</f>
+        <f t="shared" ref="F94" si="3">K68/3</f>
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B100" s="9" t="s">
         <v>19</v>
@@ -4487,7 +4497,7 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B101" s="9">
         <f>B74</f>
@@ -4532,34 +4542,34 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B102" s="9">
-        <f t="shared" ref="B102:B103" si="10">B75</f>
+        <f t="shared" ref="B102:B103" si="4">B75</f>
         <v>1</v>
       </c>
       <c r="C102" s="9">
-        <f t="shared" ref="C102:C103" si="11">F75</f>
+        <f t="shared" ref="C102:C103" si="5">F75</f>
         <v>0.75</v>
       </c>
       <c r="D102" s="9">
-        <f t="shared" ref="D102:D103" si="12">J75</f>
+        <f t="shared" ref="D102:D103" si="6">J75</f>
         <v>0.5</v>
       </c>
       <c r="E102" s="9">
-        <f t="shared" ref="E102:E103" si="13">B81</f>
+        <f t="shared" ref="E102:E103" si="7">B81</f>
         <v>0.75</v>
       </c>
       <c r="F102" s="9">
-        <f t="shared" ref="F102:F103" si="14">F81</f>
+        <f t="shared" ref="F102:F103" si="8">F81</f>
         <v>0.8</v>
       </c>
       <c r="G102" s="9">
-        <f t="shared" ref="G102:G103" si="15">J81</f>
+        <f t="shared" ref="G102:G103" si="9">J81</f>
         <v>1</v>
       </c>
       <c r="H102" s="9">
-        <f t="shared" ref="H102:H103" si="16">B87</f>
+        <f t="shared" ref="H102:H103" si="10">B87</f>
         <v>0.75</v>
       </c>
       <c r="I102" s="20">
@@ -4577,57 +4587,57 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B103" s="9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C103" s="9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D103" s="9">
+        <f t="shared" si="6"/>
+        <v>0.75</v>
+      </c>
+      <c r="E103" s="9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F103" s="9">
+        <f t="shared" si="8"/>
+        <v>0.6</v>
+      </c>
+      <c r="G103" s="9">
+        <f t="shared" si="9"/>
+        <v>0.6</v>
+      </c>
+      <c r="H103" s="9">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="C103" s="9">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D103" s="9">
-        <f t="shared" si="12"/>
-        <v>0.75</v>
-      </c>
-      <c r="E103" s="9">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="F103" s="9">
-        <f t="shared" si="14"/>
-        <v>0.6</v>
-      </c>
-      <c r="G103" s="9">
-        <f t="shared" si="15"/>
-        <v>0.6</v>
-      </c>
-      <c r="H103" s="9">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
       <c r="I103" s="9">
-        <f t="shared" ref="I102:I103" si="17">F88</f>
+        <f t="shared" ref="I103" si="11">F88</f>
         <v>1</v>
       </c>
       <c r="J103" s="9">
-        <f t="shared" ref="J102:J103" si="18">J88</f>
+        <f t="shared" ref="J103" si="12">J88</f>
         <v>1</v>
       </c>
       <c r="K103" s="9">
-        <f t="shared" ref="K102:K103" si="19">F94</f>
+        <f t="shared" ref="K103" si="13">F94</f>
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B109" s="9" t="s">
         <v>19</v>
@@ -4660,15 +4670,15 @@
         <v>28</v>
       </c>
       <c r="L109" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M109" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B110" s="9">
         <f>B101*C18</f>
@@ -4721,7 +4731,7 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B111" s="9">
         <f>B102*C18</f>
@@ -4768,13 +4778,13 @@
         <v>73.543333333333337</v>
       </c>
       <c r="M111" s="9">
-        <f t="shared" ref="M111:M112" si="20">RANK(L111, $L$110:$L$112, 0)</f>
+        <f t="shared" ref="M111:M112" si="14">RANK(L111, $L$110:$L$112, 0)</f>
         <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B112" s="9">
         <f>B103*C18</f>
@@ -4821,17 +4831,20 @@
         <v>88.79</v>
       </c>
       <c r="M112" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="K49:K51">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  <conditionalFormatting sqref="K49">
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K57:K58">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4841,8 +4854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BDD87DC-8644-42C8-A7E5-56F463ADE935}">
   <dimension ref="A1:U112"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" zoomScale="88" workbookViewId="0">
-      <selection activeCell="N71" sqref="N71"/>
+    <sheetView topLeftCell="A93" zoomScale="88" workbookViewId="0">
+      <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4864,10 +4877,10 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="U1" t="s">
         <v>40</v>
@@ -4933,7 +4946,7 @@
         <v>11</v>
       </c>
       <c r="U4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -4973,7 +4986,7 @@
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -4991,7 +5004,7 @@
         <v>2</v>
       </c>
       <c r="U6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -5002,7 +5015,7 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -5028,7 +5041,7 @@
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -5075,7 +5088,7 @@
         <v>5</v>
       </c>
       <c r="U9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -5086,7 +5099,7 @@
         <v>7</v>
       </c>
       <c r="U10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -5121,7 +5134,7 @@
         <v>43</v>
       </c>
       <c r="U11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -5156,13 +5169,13 @@
         <v>11</v>
       </c>
       <c r="U12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B13" s="15"/>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -5174,58 +5187,58 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O13">
         <v>1</v>
       </c>
       <c r="R13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S13">
         <v>1</v>
       </c>
       <c r="U13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B14" s="15"/>
       <c r="F14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K14">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O14">
         <v>2</v>
       </c>
       <c r="R14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S14">
         <v>2</v>
       </c>
       <c r="U14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B15" s="15"/>
       <c r="F15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -5237,26 +5250,26 @@
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O15">
         <v>3</v>
       </c>
       <c r="R15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S15">
         <v>3</v>
       </c>
       <c r="U15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="15"/>
       <c r="F16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G16">
         <v>4</v>
@@ -5268,39 +5281,39 @@
         <v>4</v>
       </c>
       <c r="R16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S16">
         <v>4</v>
       </c>
       <c r="U16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G17">
         <v>5</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K17">
         <v>5</v>
       </c>
       <c r="U17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
@@ -5308,7 +5321,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C18" s="15">
         <f>Ressponden!B2</f>
@@ -5321,7 +5334,7 @@
         <v>42</v>
       </c>
       <c r="U18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
@@ -5329,7 +5342,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C19" s="15">
         <f>Ressponden!B3</f>
@@ -5347,14 +5360,14 @@
         <v>21</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C20" s="15">
         <f>Ressponden!B4</f>
         <v>10.6</v>
       </c>
       <c r="N20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -5365,7 +5378,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C21" s="15">
         <f>Ressponden!B5</f>
@@ -5384,7 +5397,7 @@
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O21">
         <v>2</v>
@@ -5395,7 +5408,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C22" s="15">
         <f>Ressponden!B6</f>
@@ -5414,7 +5427,7 @@
         <v>11</v>
       </c>
       <c r="N22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22">
         <v>3</v>
@@ -5425,7 +5438,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C23" s="15">
         <f>Ressponden!B7</f>
@@ -5449,7 +5462,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C24" s="15">
         <f>Ressponden!B8</f>
@@ -5473,7 +5486,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C25" s="15">
         <f>Ressponden!B9</f>
@@ -5497,7 +5510,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C26" s="15">
         <f>Ressponden!B10</f>
@@ -5521,7 +5534,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C27" s="15">
         <f>Ressponden!B11</f>
@@ -5550,15 +5563,15 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -5643,7 +5656,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -5651,22 +5664,22 @@
     </row>
     <row r="48" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B48" s="16" t="s">
-        <v>79</v>
-      </c>
       <c r="C48" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="D48" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E48" s="16" t="s">
+      <c r="F48" s="16" t="s">
         <v>146</v>
-      </c>
-      <c r="F48" s="16" t="s">
-        <v>147</v>
       </c>
       <c r="G48" s="16" t="s">
         <v>4</v>
@@ -5737,15 +5750,15 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>19</v>
@@ -5780,7 +5793,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="12"/>
@@ -5796,7 +5809,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B58" s="9"/>
       <c r="C58" s="14"/>
@@ -5812,7 +5825,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="12"/>
@@ -5828,12 +5841,12 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>19</v>
@@ -5868,7 +5881,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -5883,7 +5896,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
@@ -5898,7 +5911,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -5913,37 +5926,37 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="18" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>213</v>
+      </c>
+      <c r="E73" t="s">
+        <v>214</v>
+      </c>
+      <c r="I73" t="s">
         <v>215</v>
-      </c>
-      <c r="E73" t="s">
-        <v>216</v>
-      </c>
-      <c r="I73" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B74" t="e">
         <f>2/B66</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E74" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F74">
         <f>C66/4</f>
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J74">
         <f>D66/4</f>
@@ -5952,21 +5965,21 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B75" t="e">
         <f t="shared" ref="B75:B76" si="0">2/B67</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E75" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F75">
         <f t="shared" ref="F75:F76" si="1">C67/4</f>
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J75">
         <f t="shared" ref="J75:J76" si="2">D67/4</f>
@@ -5975,21 +5988,21 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B76" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E76" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J76">
         <f t="shared" si="2"/>
@@ -5998,32 +6011,32 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>216</v>
+      </c>
+      <c r="E79" t="s">
+        <v>217</v>
+      </c>
+      <c r="I79" t="s">
         <v>218</v>
-      </c>
-      <c r="E79" t="s">
-        <v>219</v>
-      </c>
-      <c r="I79" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B80" t="e">
         <f>3/E66</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E80" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F80">
         <f>F66/5</f>
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J80" t="e">
         <f>3/G66</f>
@@ -6032,21 +6045,21 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B81" t="e">
         <f t="shared" ref="B81:B82" si="3">3/E67</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E81" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F81">
         <f t="shared" ref="F81:F82" si="4">F67/5</f>
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J81" t="e">
         <f t="shared" ref="J81:J82" si="5">3/G67</f>
@@ -6055,21 +6068,21 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B82" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E82" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F82">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J82" t="e">
         <f t="shared" si="5"/>
@@ -6078,32 +6091,32 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>219</v>
+      </c>
+      <c r="E85" t="s">
+        <v>220</v>
+      </c>
+      <c r="I85" t="s">
         <v>221</v>
-      </c>
-      <c r="E85" t="s">
-        <v>222</v>
-      </c>
-      <c r="I85" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B86">
         <f>H66/4</f>
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F86" s="19">
         <f>I66/3</f>
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J86" s="19">
         <f>J66/3</f>
@@ -6112,21 +6125,21 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B87">
         <f t="shared" ref="B87:B88" si="6">H67/4</f>
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F87" s="19">
         <f>I67/3</f>
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J87" s="19">
         <f>J67/3</f>
@@ -6135,21 +6148,21 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B88">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F88">
-        <f t="shared" ref="F88:F89" si="7">I68/3</f>
+        <f t="shared" ref="F88" si="7">I68/3</f>
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J88">
         <f t="shared" ref="J88" si="8">J68/3</f>
@@ -6158,12 +6171,12 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E91" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E92" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F92" s="19">
         <f>K66/3</f>
@@ -6172,7 +6185,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E93" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F93" s="19">
         <f>K67/3</f>
@@ -6181,21 +6194,21 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E94" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F94">
-        <f t="shared" ref="F94:F95" si="9">K68/3</f>
+        <f t="shared" ref="F94" si="9">K68/3</f>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B100" s="9" t="s">
         <v>19</v>
@@ -6230,7 +6243,7 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B101" s="9" t="e">
         <f>B74</f>
@@ -6275,7 +6288,7 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B102" s="9" t="e">
         <f t="shared" ref="B102:B103" si="10">B75</f>
@@ -6320,7 +6333,7 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B103" s="9" t="e">
         <f t="shared" si="10"/>
@@ -6365,12 +6378,12 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B109" s="9" t="s">
         <v>19</v>
@@ -6403,15 +6416,15 @@
         <v>28</v>
       </c>
       <c r="L109" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M109" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B110" s="9" t="e">
         <f>B101*C18</f>
@@ -6464,7 +6477,7 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B111" s="9" t="e">
         <f>B102*C18</f>
@@ -6517,7 +6530,7 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B112" s="9" t="e">
         <f>B103*C18</f>

--- a/STUDI KASUS.xlsx
+++ b/STUDI KASUS.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNDIPA\Semester 7\Skripsi\Format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DFACD0-E13D-4F26-AADE-849989DC4311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31286E0C-D07D-459B-8F4D-439C946F721E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{901D0503-6946-40CA-8D36-37B156763246}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="691" activeTab="4" xr2:uid="{901D0503-6946-40CA-8D36-37B156763246}"/>
   </bookViews>
   <sheets>
     <sheet name="Kost" sheetId="3" r:id="rId1"/>
     <sheet name="Ressponden" sheetId="1" r:id="rId2"/>
     <sheet name="Bobot Kriteria" sheetId="2" r:id="rId3"/>
-    <sheet name="Studi Kasus" sheetId="4" r:id="rId4"/>
-    <sheet name="Hasil Bab 4" sheetId="6" r:id="rId5"/>
+    <sheet name="Studi Kasus for me" sheetId="4" r:id="rId4"/>
+    <sheet name="Studi Kasus for jurnal" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
+    <sheet name="Hasil Bab 4" sheetId="6" r:id="rId7"/>
+    <sheet name="tumbal" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="302">
   <si>
     <t xml:space="preserve">Biaya </t>
   </si>
@@ -735,6 +738,225 @@
   </si>
   <si>
     <t>kursi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kebersihan </t>
+  </si>
+  <si>
+    <t>Jenis listrik</t>
+  </si>
+  <si>
+    <t>Kebersihan</t>
+  </si>
+  <si>
+    <t>dibersihkan setiap hari</t>
+  </si>
+  <si>
+    <t>dibersihkan seminggu hari</t>
+  </si>
+  <si>
+    <t>dibersihkan sebulan sekali</t>
+  </si>
+  <si>
+    <t>Ukuran Kamar (m²)</t>
+  </si>
+  <si>
+    <t>Kos Kantin Surabaya</t>
+  </si>
+  <si>
+    <t>&gt;Rp.900.000 – Rp.1.300.000</t>
+  </si>
+  <si>
+    <t>Lengkap (Kasur, Lemari, AC, Kamar Mandi Dalam, WiFi, Parkir Luas)</t>
+  </si>
+  <si>
+    <t>Lengkap (dekat tempat makan, ibadah, hiburan)</t>
+  </si>
+  <si>
+    <t>Tidak ada batas jam malam</t>
+  </si>
+  <si>
+    <t>Dibersihkan setiap hari</t>
+  </si>
+  <si>
+    <t>50 meter</t>
+  </si>
+  <si>
+    <t>Amanah Kos</t>
+  </si>
+  <si>
+    <t>Lengkap (dekat tempat makan, warung, ibadah, hiburan)</t>
+  </si>
+  <si>
+    <t>CCTV &amp; Penjaga</t>
+  </si>
+  <si>
+    <t>21.00–22.00</t>
+  </si>
+  <si>
+    <t>Prabayar</t>
+  </si>
+  <si>
+    <t>D’Orange</t>
+  </si>
+  <si>
+    <t>≤Rp.700.000 – Rp.900.000</t>
+  </si>
+  <si>
+    <t>Cukup Lengkap (dekat makan, ibadah, hiburan)</t>
+  </si>
+  <si>
+    <t>23.00–24.00</t>
+  </si>
+  <si>
+    <t>&gt;250 meter – 1 km</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>Kos Janji</t>
+  </si>
+  <si>
+    <t>Cukup Lengkap (Kasur, Lemari, Kipas, KM Dalam)</t>
+  </si>
+  <si>
+    <t>Lengkap (dekat makan, warung, ibadah, hiburan)</t>
+  </si>
+  <si>
+    <t>Tidak ada keamanan</t>
+  </si>
+  <si>
+    <t>Dibersihkan seminggu sekali</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>Kos Faazana</t>
+  </si>
+  <si>
+    <t>Lengkap (Kasur, Lemari, AC, KM Dalam, WiFi, Parkir)</t>
+  </si>
+  <si>
+    <t>Lengkap (dekat makan, ibadah, hiburan)</t>
+  </si>
+  <si>
+    <t>&gt;50 – 250 meter</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>Graha Green</t>
+  </si>
+  <si>
+    <t>Ukuran ruangan</t>
+  </si>
+  <si>
+    <t>50 m</t>
+  </si>
+  <si>
+    <t>&gt;50 -250 m</t>
+  </si>
+  <si>
+    <t>&gt;250 - 1km</t>
+  </si>
+  <si>
+    <t>&gt;1km -2.5 km</t>
+  </si>
+  <si>
+    <t>&lt;= RP.700.000 - Rp. 900.000</t>
+  </si>
+  <si>
+    <t>&gt; RP.900.000 - Rp. 1.300.000</t>
+  </si>
+  <si>
+    <t>&gt; RP.1.300.000 - Rp. 1.600.00</t>
+  </si>
+  <si>
+    <t>&gt; RP.1.600.000 - Rp. 2.000.00</t>
+  </si>
+  <si>
+    <t>Kasur, lemari, kipas</t>
+  </si>
+  <si>
+    <t>Kasur, lemari, kipas/Ac, kamar mandi dalam</t>
+  </si>
+  <si>
+    <t>Kasur, lemari, kipas/Ac, kamar mandi dalam, wifi dan parkir</t>
+  </si>
+  <si>
+    <t>keterangan</t>
+  </si>
+  <si>
+    <t>Sangat tidak lengkap</t>
+  </si>
+  <si>
+    <t>tidak lengkap</t>
+  </si>
+  <si>
+    <t>cukup lengkap</t>
+  </si>
+  <si>
+    <t>lengkap</t>
+  </si>
+  <si>
+    <t>Dekat dengan tempat hiburan</t>
+  </si>
+  <si>
+    <t>dekat dengan tempat makan sama tempat hiburan</t>
+  </si>
+  <si>
+    <t>dekat dengan tempat makan sama tempat hiburan, ibadah</t>
+  </si>
+  <si>
+    <t>dekat dengan tempat makan sama tempat hiburan, warung</t>
+  </si>
+  <si>
+    <t>satpam</t>
+  </si>
+  <si>
+    <t>3x3 m^2</t>
+  </si>
+  <si>
+    <t>3x4m^2</t>
+  </si>
+  <si>
+    <t>4x5m^2</t>
+  </si>
+  <si>
+    <t>5x6^2</t>
+  </si>
+  <si>
+    <t>21:00 - 22:00</t>
+  </si>
+  <si>
+    <t>23:00 - 24:00</t>
+  </si>
+  <si>
+    <t>bebas</t>
+  </si>
+  <si>
+    <t>01:00-02:00</t>
+  </si>
+  <si>
+    <t>C2= Cost: Nilai minimal / Nilai Alternatif Kriteria</t>
+  </si>
+  <si>
+    <t>C7= Cost: Nilai minimal / Nilai Alternatif Kriteria</t>
+  </si>
+  <si>
+    <t>C9= Cost: Nilai minimal / Nilai Alternatif Kriteria</t>
+  </si>
+  <si>
+    <t>CCTV dan satpam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C4= Benefit: Nilai Alternatif Kriteria/ Nilai Maximal  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C6= Benefit: Nilai Alternatif Kriteria/ Nilai Maximal  </t>
   </si>
 </sst>
 </file>
@@ -790,7 +1012,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -846,11 +1068,38 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1638,7 +1887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7917028-436B-4FE2-9CD4-951DC7160D43}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="118" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2916,7 +3165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BA1C62-8752-4999-BB16-F79297149C3E}">
   <dimension ref="A1:U112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="88" workbookViewId="0">
+    <sheetView topLeftCell="A99" zoomScale="88" workbookViewId="0">
       <selection activeCell="K117" sqref="K117"/>
     </sheetView>
   </sheetViews>
@@ -4838,19 +5087,2589 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="K49">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K50">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K57:K58">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6626FB-65A5-4DCB-9E1D-A2FA0EB2B8E1}">
+  <dimension ref="A1:P119"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="99" zoomScaleNormal="123" workbookViewId="0">
+      <selection activeCell="L125" sqref="L125"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" customWidth="1"/>
+    <col min="11" max="11" width="15.77734375" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" customWidth="1"/>
+    <col min="14" max="14" width="18.44140625" customWidth="1"/>
+    <col min="15" max="15" width="22.21875" customWidth="1"/>
+    <col min="16" max="16" width="33.109375" customWidth="1"/>
+    <col min="20" max="20" width="17.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s">
+        <v>196</v>
+      </c>
+      <c r="L4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>292</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" t="s">
+        <v>268</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="P6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="P7" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="F8" t="s">
+        <v>270</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="P8" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="17"/>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" t="s">
+        <v>11</v>
+      </c>
+      <c r="O12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="15"/>
+      <c r="F13" t="s">
+        <v>271</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>204</v>
+      </c>
+      <c r="P13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="15"/>
+      <c r="F14" t="s">
+        <v>272</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>287</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="O14" t="s">
+        <v>205</v>
+      </c>
+      <c r="P14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="F15" t="s">
+        <v>273</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="K15" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="15"/>
+      <c r="F16" t="s">
+        <v>274</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="K16" t="s">
+        <v>299</v>
+      </c>
+      <c r="L16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="15">
+        <v>15</v>
+      </c>
+      <c r="N18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="15">
+        <v>20</v>
+      </c>
+      <c r="O19" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" s="15">
+        <v>15</v>
+      </c>
+      <c r="O20" t="s">
+        <v>232</v>
+      </c>
+      <c r="P20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" s="15">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" t="s">
+        <v>266</v>
+      </c>
+      <c r="O21" t="s">
+        <v>233</v>
+      </c>
+      <c r="P21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" s="15">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" t="s">
+        <v>278</v>
+      </c>
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" t="s">
+        <v>11</v>
+      </c>
+      <c r="O22" t="s">
+        <v>234</v>
+      </c>
+      <c r="P22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C23" s="15">
+        <v>5</v>
+      </c>
+      <c r="F23" t="s">
+        <v>275</v>
+      </c>
+      <c r="G23" t="s">
+        <v>279</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>288</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C24" s="15">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="K24" t="s">
+        <v>289</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" s="15">
+        <v>5</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="K25" t="s">
+        <v>290</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="C26" s="15">
+        <v>15</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="K26" t="s">
+        <v>291</v>
+      </c>
+      <c r="L26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="9"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15">
+        <f>C18+C19+C20+C21+C22+C23+C24+C25+C26</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="18"/>
+    </row>
+    <row r="48" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J48" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="K48" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+    </row>
+    <row r="49" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="J49" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="K49" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+    </row>
+    <row r="50" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="J50" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="K50" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+    </row>
+    <row r="51" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+    </row>
+    <row r="52" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="K52" s="12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="K53" s="12" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="J54" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="K54" s="12" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+    </row>
+    <row r="57" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="M57" s="9"/>
+      <c r="N57" s="17"/>
+    </row>
+    <row r="58" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="M58" s="9"/>
+      <c r="N58" s="17"/>
+    </row>
+    <row r="59" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="M59" s="9"/>
+      <c r="N59" s="17"/>
+    </row>
+    <row r="60" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="M60" s="9"/>
+      <c r="N60" s="17"/>
+    </row>
+    <row r="61" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="M61" s="9"/>
+      <c r="N61" s="17"/>
+    </row>
+    <row r="62" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="M62" s="9"/>
+      <c r="N62" s="17"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M63" s="9"/>
+      <c r="N63" s="17"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>207</v>
+      </c>
+      <c r="M64" s="9"/>
+      <c r="N64" s="17"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M65" s="9"/>
+      <c r="N65" s="17"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K66" s="9"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B67" s="9">
+        <v>1</v>
+      </c>
+      <c r="C67" s="9">
+        <v>2</v>
+      </c>
+      <c r="D67" s="9">
+        <v>4</v>
+      </c>
+      <c r="E67" s="9">
+        <v>4</v>
+      </c>
+      <c r="F67" s="9">
+        <v>3</v>
+      </c>
+      <c r="G67" s="9">
+        <v>2</v>
+      </c>
+      <c r="H67" s="9">
+        <v>4</v>
+      </c>
+      <c r="I67" s="9">
+        <v>3</v>
+      </c>
+      <c r="J67" s="9">
+        <v>2</v>
+      </c>
+      <c r="K67" s="9"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B68" s="9">
+        <v>1</v>
+      </c>
+      <c r="C68" s="9">
+        <v>2</v>
+      </c>
+      <c r="D68" s="9">
+        <v>4</v>
+      </c>
+      <c r="E68" s="9">
+        <v>4</v>
+      </c>
+      <c r="F68" s="9">
+        <v>4</v>
+      </c>
+      <c r="G68" s="9">
+        <v>2</v>
+      </c>
+      <c r="H68" s="9">
+        <v>1</v>
+      </c>
+      <c r="I68" s="9">
+        <v>7</v>
+      </c>
+      <c r="J68" s="9">
+        <v>2</v>
+      </c>
+      <c r="K68" s="9"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B69" s="9">
+        <v>3</v>
+      </c>
+      <c r="C69" s="9">
+        <v>1</v>
+      </c>
+      <c r="D69" s="9">
+        <v>4</v>
+      </c>
+      <c r="E69" s="9">
+        <v>3</v>
+      </c>
+      <c r="F69" s="9">
+        <v>4</v>
+      </c>
+      <c r="G69" s="9">
+        <v>2</v>
+      </c>
+      <c r="H69" s="9">
+        <v>2</v>
+      </c>
+      <c r="I69" s="9">
+        <v>7</v>
+      </c>
+      <c r="J69" s="9">
+        <v>2</v>
+      </c>
+      <c r="K69" s="9"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A70" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B70" s="9">
+        <v>1</v>
+      </c>
+      <c r="C70" s="9">
+        <v>1</v>
+      </c>
+      <c r="D70" s="9">
+        <v>3</v>
+      </c>
+      <c r="E70" s="9">
+        <v>4</v>
+      </c>
+      <c r="F70" s="9">
+        <v>1</v>
+      </c>
+      <c r="G70" s="9">
+        <v>2</v>
+      </c>
+      <c r="H70" s="9">
+        <v>2</v>
+      </c>
+      <c r="I70" s="9">
+        <v>7</v>
+      </c>
+      <c r="J70" s="9">
+        <v>3</v>
+      </c>
+      <c r="K70" s="9"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A71" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B71" s="9">
+        <v>2</v>
+      </c>
+      <c r="C71" s="9">
+        <v>2</v>
+      </c>
+      <c r="D71" s="9">
+        <v>3</v>
+      </c>
+      <c r="E71" s="9">
+        <v>3</v>
+      </c>
+      <c r="F71" s="9">
+        <v>3</v>
+      </c>
+      <c r="G71" s="9">
+        <v>2</v>
+      </c>
+      <c r="H71" s="9">
+        <v>1</v>
+      </c>
+      <c r="I71" s="9">
+        <v>7</v>
+      </c>
+      <c r="J71" s="9">
+        <v>2</v>
+      </c>
+      <c r="K71" s="9"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A72" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B72" s="9">
+        <v>3</v>
+      </c>
+      <c r="C72" s="9">
+        <v>2</v>
+      </c>
+      <c r="D72" s="9">
+        <v>3</v>
+      </c>
+      <c r="E72" s="9">
+        <v>3</v>
+      </c>
+      <c r="F72" s="9">
+        <v>4</v>
+      </c>
+      <c r="G72" s="9">
+        <v>2</v>
+      </c>
+      <c r="H72" s="9">
+        <v>1</v>
+      </c>
+      <c r="I72" s="9">
+        <v>7</v>
+      </c>
+      <c r="J72" s="9">
+        <v>2</v>
+      </c>
+      <c r="K72" s="9"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J73" s="9"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A74" s="18" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>213</v>
+      </c>
+      <c r="E77" t="s">
+        <v>296</v>
+      </c>
+      <c r="J77" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>193</v>
+      </c>
+      <c r="B78">
+        <f t="shared" ref="B78:B83" si="0">1/B67</f>
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>193</v>
+      </c>
+      <c r="F78">
+        <f>1/C67</f>
+        <v>0.5</v>
+      </c>
+      <c r="J78" t="s">
+        <v>193</v>
+      </c>
+      <c r="K78">
+        <f>D67/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>194</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>194</v>
+      </c>
+      <c r="F79">
+        <f t="shared" ref="F79:F83" si="1">1/C68</f>
+        <v>0.5</v>
+      </c>
+      <c r="J79" t="s">
+        <v>194</v>
+      </c>
+      <c r="K79">
+        <f t="shared" ref="K79:K83" si="2">D68/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>195</v>
+      </c>
+      <c r="B80" s="19">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E80" t="s">
+        <v>195</v>
+      </c>
+      <c r="F80">
+        <f>1/C69</f>
+        <v>1</v>
+      </c>
+      <c r="J80" t="s">
+        <v>195</v>
+      </c>
+      <c r="K80">
+        <f>D69/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>253</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>253</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J81" t="s">
+        <v>253</v>
+      </c>
+      <c r="K81">
+        <f>D70/4</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>259</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E82" t="s">
+        <v>259</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="J82" t="s">
+        <v>259</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>264</v>
+      </c>
+      <c r="B83" s="19">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E83" t="s">
+        <v>264</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="J83" t="s">
+        <v>264</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>300</v>
+      </c>
+      <c r="E85" t="s">
+        <v>217</v>
+      </c>
+      <c r="J85" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>193</v>
+      </c>
+      <c r="B86">
+        <f>E67/4</f>
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>193</v>
+      </c>
+      <c r="F86">
+        <f>F67/4</f>
+        <v>0.75</v>
+      </c>
+      <c r="J86" t="s">
+        <v>193</v>
+      </c>
+      <c r="K86">
+        <f>G67/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>194</v>
+      </c>
+      <c r="B87">
+        <f>E68/4</f>
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>194</v>
+      </c>
+      <c r="F87">
+        <f>F68/4</f>
+        <v>1</v>
+      </c>
+      <c r="J87" t="s">
+        <v>194</v>
+      </c>
+      <c r="K87">
+        <f t="shared" ref="K87:K91" si="3">G68/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>195</v>
+      </c>
+      <c r="B88">
+        <f>E69/4</f>
+        <v>0.75</v>
+      </c>
+      <c r="E88" t="s">
+        <v>195</v>
+      </c>
+      <c r="F88">
+        <f t="shared" ref="F88:F91" si="4">F69/4</f>
+        <v>1</v>
+      </c>
+      <c r="J88" t="s">
+        <v>195</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>253</v>
+      </c>
+      <c r="B89">
+        <f>E70/4</f>
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
+        <v>253</v>
+      </c>
+      <c r="F89">
+        <f>F70/4</f>
+        <v>0.25</v>
+      </c>
+      <c r="J89" t="s">
+        <v>253</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>259</v>
+      </c>
+      <c r="B90">
+        <f>E71/4</f>
+        <v>0.75</v>
+      </c>
+      <c r="E90" t="s">
+        <v>259</v>
+      </c>
+      <c r="F90">
+        <f>F71/4</f>
+        <v>0.75</v>
+      </c>
+      <c r="J90" t="s">
+        <v>259</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>264</v>
+      </c>
+      <c r="B91">
+        <f t="shared" ref="B91" si="5">E72/4</f>
+        <v>0.75</v>
+      </c>
+      <c r="E91" t="s">
+        <v>264</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J91" t="s">
+        <v>264</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>297</v>
+      </c>
+      <c r="E93" t="s">
+        <v>220</v>
+      </c>
+      <c r="J93" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>193</v>
+      </c>
+      <c r="B94">
+        <f>1/H67</f>
+        <v>0.25</v>
+      </c>
+      <c r="E94" t="s">
+        <v>193</v>
+      </c>
+      <c r="F94" s="19">
+        <f>I67/7</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="G94" s="19"/>
+      <c r="J94" t="s">
+        <v>193</v>
+      </c>
+      <c r="K94" s="23">
+        <f>2/J67</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>194</v>
+      </c>
+      <c r="B95">
+        <f>1/H68</f>
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>194</v>
+      </c>
+      <c r="F95" s="23">
+        <f>I68/7</f>
+        <v>1</v>
+      </c>
+      <c r="G95" s="19"/>
+      <c r="J95" t="s">
+        <v>194</v>
+      </c>
+      <c r="K95" s="23">
+        <f>2/J68</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>195</v>
+      </c>
+      <c r="B96">
+        <f>1/H69</f>
+        <v>0.5</v>
+      </c>
+      <c r="E96" t="s">
+        <v>195</v>
+      </c>
+      <c r="F96" s="23">
+        <f t="shared" ref="F96:F99" si="6">I69/7</f>
+        <v>1</v>
+      </c>
+      <c r="J96" t="s">
+        <v>195</v>
+      </c>
+      <c r="K96" s="23">
+        <f t="shared" ref="K96" si="7">2/J69</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>253</v>
+      </c>
+      <c r="B97">
+        <f>1/H70</f>
+        <v>0.5</v>
+      </c>
+      <c r="E97" t="s">
+        <v>253</v>
+      </c>
+      <c r="F97" s="23">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J97" t="s">
+        <v>253</v>
+      </c>
+      <c r="K97" s="19">
+        <f>2/J70</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>259</v>
+      </c>
+      <c r="B98">
+        <f>1/H71</f>
+        <v>1</v>
+      </c>
+      <c r="E98" t="s">
+        <v>259</v>
+      </c>
+      <c r="F98" s="23">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J98" t="s">
+        <v>259</v>
+      </c>
+      <c r="K98" s="23">
+        <f t="shared" ref="K98:K99" si="8">2/J71</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>264</v>
+      </c>
+      <c r="B99">
+        <f t="shared" ref="B99" si="9">1/H72</f>
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
+        <v>264</v>
+      </c>
+      <c r="F99" s="23">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J99" t="s">
+        <v>264</v>
+      </c>
+      <c r="K99" s="23">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F100" s="19"/>
+      <c r="K100" s="19"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A103" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I103" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J103" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L103" s="9"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A104" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B104" s="9">
+        <f>B78</f>
+        <v>1</v>
+      </c>
+      <c r="C104" s="9">
+        <f>F78</f>
+        <v>0.5</v>
+      </c>
+      <c r="D104" s="9">
+        <f>K78</f>
+        <v>1</v>
+      </c>
+      <c r="E104" s="9">
+        <f>B86</f>
+        <v>1</v>
+      </c>
+      <c r="F104" s="9">
+        <f>F86</f>
+        <v>0.75</v>
+      </c>
+      <c r="G104" s="20">
+        <f>K86</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H104" s="9">
+        <f>B94</f>
+        <v>0.25</v>
+      </c>
+      <c r="I104" s="20">
+        <f>F94</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="J104" s="20">
+        <f>K94</f>
+        <v>1</v>
+      </c>
+      <c r="L104" s="20"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A105" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B105" s="9">
+        <f>B79</f>
+        <v>1</v>
+      </c>
+      <c r="C105" s="9">
+        <f>F79</f>
+        <v>0.5</v>
+      </c>
+      <c r="D105" s="9">
+        <f>K79</f>
+        <v>1</v>
+      </c>
+      <c r="E105" s="9">
+        <f>B87</f>
+        <v>1</v>
+      </c>
+      <c r="F105" s="9">
+        <f>F87</f>
+        <v>1</v>
+      </c>
+      <c r="G105" s="20">
+        <f>K87</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H105" s="9">
+        <f>B95</f>
+        <v>1</v>
+      </c>
+      <c r="I105" s="20">
+        <f>F95</f>
+        <v>1</v>
+      </c>
+      <c r="J105" s="20">
+        <f>K95</f>
+        <v>1</v>
+      </c>
+      <c r="L105" s="20"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A106" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B106" s="20">
+        <f>B80</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C106" s="9">
+        <f>F80</f>
+        <v>1</v>
+      </c>
+      <c r="D106" s="9">
+        <f>K80</f>
+        <v>1</v>
+      </c>
+      <c r="E106" s="9">
+        <f>B88</f>
+        <v>0.75</v>
+      </c>
+      <c r="F106" s="9">
+        <f>F88</f>
+        <v>1</v>
+      </c>
+      <c r="G106" s="20">
+        <f>K88</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H106" s="9">
+        <f>B96</f>
+        <v>0.5</v>
+      </c>
+      <c r="I106" s="9">
+        <f>F96</f>
+        <v>1</v>
+      </c>
+      <c r="J106" s="9">
+        <f>K96</f>
+        <v>1</v>
+      </c>
+      <c r="L106" s="9"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A107" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B107" s="22">
+        <f>B81</f>
+        <v>1</v>
+      </c>
+      <c r="C107" s="9">
+        <f t="shared" ref="C107:C109" si="10">F81</f>
+        <v>1</v>
+      </c>
+      <c r="D107" s="9">
+        <f t="shared" ref="D107:D109" si="11">K81</f>
+        <v>0.75</v>
+      </c>
+      <c r="E107" s="9">
+        <f t="shared" ref="E107:E109" si="12">B89</f>
+        <v>1</v>
+      </c>
+      <c r="F107" s="9">
+        <f t="shared" ref="F107:F109" si="13">F89</f>
+        <v>0.25</v>
+      </c>
+      <c r="G107" s="20">
+        <f t="shared" ref="G107:G109" si="14">K89</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H107" s="9">
+        <f t="shared" ref="H107:H109" si="15">B97</f>
+        <v>0.5</v>
+      </c>
+      <c r="I107" s="9">
+        <f t="shared" ref="I107:I109" si="16">F97</f>
+        <v>1</v>
+      </c>
+      <c r="J107" s="20">
+        <f t="shared" ref="J107:J109" si="17">K97</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K107" s="9"/>
+      <c r="L107" s="9"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A108" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B108" s="20">
+        <f>B82</f>
+        <v>0.5</v>
+      </c>
+      <c r="C108" s="9">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="D108" s="9">
+        <f t="shared" si="11"/>
+        <v>0.75</v>
+      </c>
+      <c r="E108" s="9">
+        <f t="shared" si="12"/>
+        <v>0.75</v>
+      </c>
+      <c r="F108" s="9">
+        <f t="shared" si="13"/>
+        <v>0.75</v>
+      </c>
+      <c r="G108" s="20">
+        <f t="shared" si="14"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H108" s="9">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="I108" s="9">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J108" s="9">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A109" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B109" s="20">
+        <f t="shared" ref="B109" si="18">B83</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C109" s="9">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="D109" s="9">
+        <f t="shared" si="11"/>
+        <v>0.75</v>
+      </c>
+      <c r="E109" s="9">
+        <f t="shared" si="12"/>
+        <v>0.75</v>
+      </c>
+      <c r="F109" s="9">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="G109" s="20">
+        <f t="shared" si="14"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H109" s="9">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="I109" s="9">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J109" s="9">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A113" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H113" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I113" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J113" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K113" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="L113" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A114" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B114" s="9">
+        <f>B104*C18</f>
+        <v>15</v>
+      </c>
+      <c r="C114" s="9">
+        <f>C104*C19</f>
+        <v>10</v>
+      </c>
+      <c r="D114" s="9">
+        <f>D104*C20</f>
+        <v>15</v>
+      </c>
+      <c r="E114" s="9">
+        <f>E104*C21</f>
+        <v>10</v>
+      </c>
+      <c r="F114" s="9">
+        <f>F104*C22</f>
+        <v>7.5</v>
+      </c>
+      <c r="G114" s="20">
+        <f>G104*C23</f>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="H114" s="9">
+        <f>H104*C24</f>
+        <v>1.25</v>
+      </c>
+      <c r="I114" s="20">
+        <f>I104*C25</f>
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="J114" s="20">
+        <f>J104*C26</f>
+        <v>15</v>
+      </c>
+      <c r="K114" s="20">
+        <f>SUM(B114:J114)</f>
+        <v>79.226190476190482</v>
+      </c>
+      <c r="L114" s="9">
+        <f t="shared" ref="L114:L119" si="19">RANK(K114, $K$114:$K$119, 0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A115" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B115" s="9">
+        <f>B105*C18</f>
+        <v>15</v>
+      </c>
+      <c r="C115" s="9">
+        <f>C105*C19</f>
+        <v>10</v>
+      </c>
+      <c r="D115" s="9">
+        <f>D105*C20</f>
+        <v>15</v>
+      </c>
+      <c r="E115" s="9">
+        <f>E105*C21</f>
+        <v>10</v>
+      </c>
+      <c r="F115" s="9">
+        <f>F105*C22</f>
+        <v>10</v>
+      </c>
+      <c r="G115" s="20">
+        <f>G105*C23</f>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="H115" s="9">
+        <f>H105*C24</f>
+        <v>5</v>
+      </c>
+      <c r="I115" s="9">
+        <f>I105*C25</f>
+        <v>5</v>
+      </c>
+      <c r="J115" s="20">
+        <f>J105*C26</f>
+        <v>15</v>
+      </c>
+      <c r="K115" s="20">
+        <f>SUM(B115:J115)</f>
+        <v>88.333333333333343</v>
+      </c>
+      <c r="L115" s="9">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A116" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B116" s="9">
+        <f>B106*C18</f>
+        <v>5</v>
+      </c>
+      <c r="C116" s="9">
+        <f>C106*C19</f>
+        <v>20</v>
+      </c>
+      <c r="D116" s="9">
+        <f>D106*C20</f>
+        <v>15</v>
+      </c>
+      <c r="E116" s="9">
+        <f>E106*C21</f>
+        <v>7.5</v>
+      </c>
+      <c r="F116" s="9">
+        <f>F106*C22</f>
+        <v>10</v>
+      </c>
+      <c r="G116" s="20">
+        <f>G106*C23</f>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="H116" s="9">
+        <f>H106*C24</f>
+        <v>2.5</v>
+      </c>
+      <c r="I116" s="9">
+        <f>I106*C25</f>
+        <v>5</v>
+      </c>
+      <c r="J116" s="9">
+        <f>J106*C26</f>
+        <v>15</v>
+      </c>
+      <c r="K116" s="20">
+        <f>SUM(B116:J116)</f>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="L116" s="9">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A117" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B117" s="9">
+        <f>B107*C18</f>
+        <v>15</v>
+      </c>
+      <c r="C117" s="9">
+        <f>C107*C19</f>
+        <v>20</v>
+      </c>
+      <c r="D117" s="9">
+        <f>D107*C20</f>
+        <v>11.25</v>
+      </c>
+      <c r="E117" s="9">
+        <f>E107*C21</f>
+        <v>10</v>
+      </c>
+      <c r="F117" s="9">
+        <f>F107*C22</f>
+        <v>2.5</v>
+      </c>
+      <c r="G117" s="20">
+        <f>G107*C23</f>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="H117" s="9">
+        <f>H107*C24</f>
+        <v>2.5</v>
+      </c>
+      <c r="I117" s="9">
+        <f>I107*C25</f>
+        <v>5</v>
+      </c>
+      <c r="J117" s="20">
+        <f>J107*C26</f>
+        <v>10</v>
+      </c>
+      <c r="K117" s="20">
+        <f t="shared" ref="K117:K119" si="20">SUM(B117:J117)</f>
+        <v>79.583333333333343</v>
+      </c>
+      <c r="L117" s="9">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="N117" s="9"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A118" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B118" s="9">
+        <f>B108*C18</f>
+        <v>7.5</v>
+      </c>
+      <c r="C118" s="9">
+        <f>C108*C19</f>
+        <v>10</v>
+      </c>
+      <c r="D118" s="9">
+        <f>D108*C20</f>
+        <v>11.25</v>
+      </c>
+      <c r="E118" s="9">
+        <f>E108*C21</f>
+        <v>7.5</v>
+      </c>
+      <c r="F118" s="9">
+        <f>F108*C22</f>
+        <v>7.5</v>
+      </c>
+      <c r="G118" s="20">
+        <f>G108*C23</f>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="H118" s="9">
+        <f>H108*C24</f>
+        <v>5</v>
+      </c>
+      <c r="I118" s="9">
+        <f>I108*C25</f>
+        <v>5</v>
+      </c>
+      <c r="J118" s="9">
+        <f>J108*C26</f>
+        <v>15</v>
+      </c>
+      <c r="K118" s="20">
+        <f t="shared" si="20"/>
+        <v>72.083333333333343</v>
+      </c>
+      <c r="L118" s="9">
+        <f>RANK(K118, $K$114:$K$119, 0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A119" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B119" s="9">
+        <f>B109*C18</f>
+        <v>5</v>
+      </c>
+      <c r="C119" s="9">
+        <f>C109*19</f>
+        <v>9.5</v>
+      </c>
+      <c r="D119" s="9">
+        <f>D109*C20</f>
+        <v>11.25</v>
+      </c>
+      <c r="E119" s="9">
+        <f>E109*C21</f>
+        <v>7.5</v>
+      </c>
+      <c r="F119" s="9">
+        <f>F109*C22</f>
+        <v>10</v>
+      </c>
+      <c r="G119" s="20">
+        <f>G109*C23</f>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="H119" s="9">
+        <f>H109*C24</f>
+        <v>5</v>
+      </c>
+      <c r="I119" s="9">
+        <f>I109*C25</f>
+        <v>5</v>
+      </c>
+      <c r="J119" s="9">
+        <f>J109*C26</f>
+        <v>15</v>
+      </c>
+      <c r="K119" s="20">
+        <f t="shared" si="20"/>
+        <v>71.583333333333343</v>
+      </c>
+      <c r="L119" s="9">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="L49">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L50">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A9D8EC-B5A1-466A-BFA2-9907A5A3DDF1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BDD87DC-8644-42C8-A7E5-56F463ADE935}">
   <dimension ref="A1:U112"/>
   <sheetViews>
@@ -6590,4 +9409,274 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1EACA8-BD40-42FD-A8BA-50E7DE06EFB6}">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="85" workbookViewId="0">
+      <selection sqref="A1:K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" customWidth="1"/>
+    <col min="7" max="7" width="19.21875" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" customWidth="1"/>
+    <col min="10" max="10" width="21.21875" customWidth="1"/>
+    <col min="11" max="11" width="26.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/STUDI KASUS.xlsx
+++ b/STUDI KASUS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNDIPA\Semester 7\Skripsi\Format\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNDIPA\Semester 7\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31286E0C-D07D-459B-8F4D-439C946F721E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D88FB68-8296-4CFF-9E7A-02A65EC74E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="691" activeTab="4" xr2:uid="{901D0503-6946-40CA-8D36-37B156763246}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="691" xr2:uid="{901D0503-6946-40CA-8D36-37B156763246}"/>
   </bookViews>
   <sheets>
     <sheet name="Kost" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="315">
   <si>
     <t xml:space="preserve">Biaya </t>
   </si>
@@ -957,6 +957,45 @@
   </si>
   <si>
     <t xml:space="preserve">C6= Benefit: Nilai Alternatif Kriteria/ Nilai Maximal  </t>
+  </si>
+  <si>
+    <t>Roc</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Bobot utama</t>
+  </si>
+  <si>
+    <t>Roc dikalikan dapat nilai real</t>
+  </si>
+  <si>
+    <t>Perhitungan ROC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roc dikalikan dapat nilai real </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bobot utama </t>
+  </si>
+  <si>
+    <t>beda 16</t>
+  </si>
+  <si>
+    <t>sama</t>
+  </si>
+  <si>
+    <t>beda 1</t>
+  </si>
+  <si>
+    <t>beda 2</t>
+  </si>
+  <si>
+    <t>beda 14</t>
+  </si>
+  <si>
+    <t>Jalan Sahabat 1 no 17</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1051,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1075,6 +1114,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1161,6 +1206,623 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>497224</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>62345</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1003736" cy="461217"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{825D3277-17F7-DA01-7524-251981452EFD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6703004" y="8605786"/>
+              <a:ext cx="1003736" cy="461217"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑏𝑜𝑏𝑜𝑡</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="23"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑚</m:t>
+                        </m:r>
+                      </m:sup>
+                      <m:e>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                      </m:e>
+                    </m:nary>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{825D3277-17F7-DA01-7524-251981452EFD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6703004" y="8605786"/>
+              <a:ext cx="1003736" cy="461217"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑏𝑜𝑏𝑜𝑡=  1/𝑛 ∑_1^𝑚▒1/𝑖</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>162732</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>149815</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2426776" cy="429798"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1928D46B-536A-7A3B-1E1C-884FC392D315}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6368512" y="9235696"/>
+              <a:ext cx="2426776" cy="429798"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1+ </m:t>
+                        </m:r>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+ </m:t>
+                        </m:r>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>3</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+ </m:t>
+                        </m:r>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>4</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+ </m:t>
+                        </m:r>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>5</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+ </m:t>
+                        </m:r>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>6</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+ </m:t>
+                        </m:r>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>7</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>8</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+ </m:t>
+                        </m:r>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>9</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>9</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1928D46B-536A-7A3B-1E1C-884FC392D315}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6368512" y="9235696"/>
+              <a:ext cx="2426776" cy="429798"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>1+ 1/2+ 1/3+ 1/4+ 1/5+ 1/6+ 1/7+1/8+ 1/9)/9</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1462,8 +2124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E46AEE5-C1DF-4E3B-B1A0-CC373A6F6C73}">
   <dimension ref="A2:O25"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1630,7 +2292,9 @@
       <c r="C5" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="9" t="s">
+        <v>314</v>
+      </c>
       <c r="E5" s="8" t="s">
         <v>96</v>
       </c>
@@ -1793,7 +2457,7 @@
       <c r="M8" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="9" t="s">
         <v>117</v>
       </c>
       <c r="O8" s="5" t="s">
@@ -2434,7 +3098,7 @@
   <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView zoomScale="117" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3163,246 +3827,246 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BA1C62-8752-4999-BB16-F79297149C3E}">
-  <dimension ref="A1:U112"/>
+  <dimension ref="A1:V112"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" zoomScale="88" workbookViewId="0">
-      <selection activeCell="K117" sqref="K117"/>
+    <sheetView topLeftCell="A12" zoomScale="88" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="18.77734375" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" customWidth="1"/>
-    <col min="6" max="6" width="27.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" customWidth="1"/>
-    <col min="10" max="10" width="15.77734375" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" customWidth="1"/>
-    <col min="14" max="14" width="20.21875" customWidth="1"/>
-    <col min="18" max="18" width="17.44140625" customWidth="1"/>
+    <col min="3" max="4" width="10.21875" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+    <col min="7" max="7" width="27.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" customWidth="1"/>
+    <col min="11" max="11" width="15.77734375" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" customWidth="1"/>
+    <col min="15" max="15" width="20.21875" customWidth="1"/>
+    <col min="19" max="19" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>172</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>187</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>173</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>3</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>25</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>40</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>11</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>29</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>11</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>29</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>11</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>31</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
         <v>51</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
         <v>227</v>
       </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="U5" t="s">
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="V5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>200</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>2</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>52</v>
       </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="N6">
+      <c r="L6">
         <v>2</v>
       </c>
       <c r="O6">
         <v>2</v>
       </c>
-      <c r="U6" t="s">
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="V6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>201</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>3</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>53</v>
       </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="N7">
+      <c r="L7">
         <v>3</v>
       </c>
       <c r="O7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="P7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>202</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>4</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>54</v>
       </c>
-      <c r="K8">
-        <v>4</v>
-      </c>
-      <c r="N8">
+      <c r="L8">
         <v>4</v>
       </c>
       <c r="O8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="P8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>35</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>5</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>55</v>
       </c>
-      <c r="K9">
-        <v>5</v>
-      </c>
-      <c r="N9">
+      <c r="L9">
         <v>5</v>
       </c>
       <c r="O9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="P9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>26</v>
       </c>
@@ -3410,171 +4074,171 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="G11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
         <v>23</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>4</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>26</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>41</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>28</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>29</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>11</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>29</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>11</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>29</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>11</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>29</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B13" s="15"/>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>140</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
         <v>56</v>
       </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
         <v>205</v>
       </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="R13" t="s">
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="S13" t="s">
         <v>68</v>
       </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="T13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B14" s="15"/>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>209</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>2</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>142</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>2</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>204</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>2</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>69</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>171</v>
       </c>
       <c r="B15" s="15"/>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>210</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>3</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>57</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>3</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>67</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>3</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>70</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="15"/>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>211</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>4</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>58</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>173</v>
       </c>
@@ -3584,20 +4248,21 @@
       <c r="C17" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F17" t="s">
+      <c r="D17" s="15"/>
+      <c r="G17" t="s">
         <v>141</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>5</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>19</v>
       </c>
@@ -3608,17 +4273,21 @@
         <f>Ressponden!B2</f>
         <v>18.399999999999999</v>
       </c>
-      <c r="M18" t="s">
+      <c r="D18" s="19">
+        <f>(1/10)*(1/1+1/2+1/3+1/4+1/5+1/6+1/7+1/8+1/9+1/10)</f>
+        <v>0.29289682539682538</v>
+      </c>
+      <c r="N18" t="s">
         <v>27</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>42</v>
       </c>
-      <c r="U18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>20</v>
       </c>
@@ -3629,17 +4298,21 @@
         <f>Ressponden!B3</f>
         <v>11.2</v>
       </c>
-      <c r="N19" t="s">
+      <c r="D19" s="19">
+        <f>(1/10) * (1/2 + 1/3 + 1/4 + 1/5 + 1/6 + 1/7 + 1/8 + 1/9 + 1/10)</f>
+        <v>0.1928968253968254</v>
+      </c>
+      <c r="O19" t="s">
         <v>29</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>11</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>21</v>
       </c>
@@ -3650,17 +4323,21 @@
         <f>Ressponden!B4</f>
         <v>10.6</v>
       </c>
-      <c r="N20" t="s">
+      <c r="D20" s="19">
+        <f>(1/10) * (1/3 + 1/4 + 1/5 + 1/6 + 1/7 + 1/8 + 1/9 + 1/10)</f>
+        <v>0.14289682539682541</v>
+      </c>
+      <c r="O20" t="s">
         <v>205</v>
       </c>
-      <c r="O20">
-        <v>1</v>
-      </c>
-      <c r="U20" t="s">
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="V20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>22</v>
       </c>
@@ -3671,29 +4348,33 @@
         <f>Ressponden!B5</f>
         <v>11.6</v>
       </c>
-      <c r="E21" t="s">
+      <c r="D21" s="19">
+        <f>(1/10) * (1/4 + 1/5 + 1/6 + 1/7 + 1/8 + 1/9 + 1/10)</f>
+        <v>0.10956349206349209</v>
+      </c>
+      <c r="F21" t="s">
         <v>21</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>2</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>24</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>5</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>204</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>2</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>23</v>
       </c>
@@ -3704,29 +4385,33 @@
         <f>Ressponden!B6</f>
         <v>14.2</v>
       </c>
-      <c r="F22" t="s">
+      <c r="D22" s="19">
+        <f>(1/10) * (1/5 + 1/6 + 1/7 + 1/8 + 1/9 + 1/10)</f>
+        <v>8.4563492063492063E-2</v>
+      </c>
+      <c r="G22" t="s">
         <v>39</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>11</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>29</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>11</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>67</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>3</v>
       </c>
-      <c r="U22" t="s">
+      <c r="V22" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>24</v>
       </c>
@@ -3737,23 +4422,27 @@
         <f>Ressponden!B7</f>
         <v>7.2</v>
       </c>
-      <c r="F23" t="s">
+      <c r="D23" s="19">
+        <f>(1/10) * (1/6 + 1/7 + 1/8 + 1/9 + 1/10)</f>
+        <v>6.4563492063492073E-2</v>
+      </c>
+      <c r="G23" t="s">
         <v>50</v>
       </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
         <v>59</v>
       </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="U23" t="s">
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="V23" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>25</v>
       </c>
@@ -3764,23 +4453,27 @@
         <f>Ressponden!B8</f>
         <v>7</v>
       </c>
-      <c r="F24" t="s">
+      <c r="D24" s="19">
+        <f>(1/10) * (1/7 + 1/8 + 1/9 + 1/10)</f>
+        <v>4.7896825396825396E-2</v>
+      </c>
+      <c r="G24" t="s">
         <v>46</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>2</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>60</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>2</v>
       </c>
-      <c r="U24" t="s">
+      <c r="V24" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>26</v>
       </c>
@@ -3791,23 +4484,27 @@
         <f>Ressponden!B9</f>
         <v>6</v>
       </c>
-      <c r="F25" t="s">
+      <c r="D25" s="19">
+        <f>(1/10) * (1/8 + 1/9 + 1/10)</f>
+        <v>3.3611111111111112E-2</v>
+      </c>
+      <c r="G25" t="s">
         <v>47</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>3</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>61</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>3</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>27</v>
       </c>
@@ -3818,23 +4515,27 @@
         <f>Ressponden!B10</f>
         <v>7</v>
       </c>
-      <c r="F26" t="s">
+      <c r="D26" s="19">
+        <f>(1/10) * (1/9 + 1/10)</f>
+        <v>2.1111111111111112E-2</v>
+      </c>
+      <c r="G26" t="s">
         <v>48</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>4</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>62</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>4</v>
       </c>
-      <c r="U26" t="s">
+      <c r="V26" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>28</v>
       </c>
@@ -3845,39 +4546,47 @@
         <f>Ressponden!B11</f>
         <v>6.8</v>
       </c>
-      <c r="F27" t="s">
+      <c r="D27">
+        <f>(1/10) * (1/10)</f>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="G27" t="s">
         <v>49</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>5</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>63</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>5</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4">
         <f>Ressponden!B12</f>
         <v>100</v>
       </c>
-      <c r="U28" t="s">
+      <c r="D28" s="19">
+        <f>SUM(D18:D27)</f>
+        <v>1</v>
+      </c>
+      <c r="V28" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>173</v>
       </c>
@@ -3885,7 +4594,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>19</v>
       </c>
@@ -3893,7 +4602,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>20</v>
       </c>
@@ -3901,7 +4610,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>21</v>
       </c>
@@ -3909,7 +4618,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>22</v>
       </c>
@@ -3917,7 +4626,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>23</v>
       </c>
@@ -3925,7 +4634,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>24</v>
       </c>
@@ -3933,7 +4642,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>25</v>
       </c>
@@ -3941,7 +4650,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>26</v>
       </c>
@@ -3949,7 +4658,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>27</v>
       </c>
@@ -3957,7 +4666,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>28</v>
       </c>
@@ -3965,15 +4674,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="18"/>
     </row>
-    <row r="48" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
         <v>77</v>
       </c>
@@ -3983,35 +4692,36 @@
       <c r="C48" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="D48" s="16" t="s">
-        <v>1</v>
-      </c>
+      <c r="D48" s="16"/>
       <c r="E48" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="F48" s="16" t="s">
+      <c r="G48" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="G48" s="16" t="s">
+      <c r="H48" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H48" s="16" t="s">
+      <c r="I48" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I48" s="16" t="s">
+      <c r="J48" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="J48" s="16" t="s">
+      <c r="K48" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="K48" s="16" t="s">
+      <c r="L48" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="L48" s="16" t="s">
+      <c r="M48" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49" s="12">
         <v>1</v>
       </c>
@@ -4021,35 +4731,36 @@
       <c r="C49" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="12"/>
+      <c r="E49" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="F49" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="G49" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="G49" s="12" t="s">
+      <c r="H49" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="H49" s="12" t="s">
+      <c r="I49" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="I49" s="12" t="s">
+      <c r="J49" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="J49" s="12" t="s">
+      <c r="K49" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="K49" s="12" t="s">
+      <c r="L49" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="L49" s="12" t="s">
+      <c r="M49" s="12" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="12">
         <v>2</v>
       </c>
@@ -4059,35 +4770,36 @@
       <c r="C50" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="14"/>
+      <c r="E50" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="F50" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="F50" s="12" t="s">
+      <c r="G50" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="G50" s="12" t="s">
+      <c r="H50" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="H50" s="12" t="s">
+      <c r="I50" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="I50" s="12" t="s">
+      <c r="J50" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="J50" s="12" t="s">
+      <c r="K50" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="K50" s="12" t="s">
+      <c r="L50" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="L50" s="12" t="s">
+      <c r="M50" s="12" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="12">
         <v>3</v>
       </c>
@@ -4097,40 +4809,41 @@
       <c r="C51" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D51" s="12"/>
+      <c r="E51" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="E51" s="12" t="s">
+      <c r="F51" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F51" s="12" t="s">
+      <c r="G51" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="G51" s="12" t="s">
+      <c r="H51" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="H51" s="12" t="s">
+      <c r="I51" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="I51" s="12" t="s">
+      <c r="J51" s="12" t="s">
         <v>167</v>
-      </c>
-      <c r="J51" s="12" t="s">
-        <v>160</v>
       </c>
       <c r="K51" s="12" t="s">
         <v>160</v>
       </c>
       <c r="L51" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="M51" s="12" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>170</v>
       </c>
@@ -4140,35 +4853,36 @@
       <c r="C56" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="9"/>
+      <c r="E56" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="F56" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="G56" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G56" s="9" t="s">
+      <c r="H56" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H56" s="9" t="s">
+      <c r="I56" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I56" s="9" t="s">
+      <c r="J56" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J56" s="9" t="s">
+      <c r="K56" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K56" s="9" t="s">
+      <c r="L56" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L56" s="9" t="s">
+      <c r="M56" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>193</v>
       </c>
@@ -4178,35 +4892,36 @@
       <c r="C57" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D57" s="12"/>
+      <c r="E57" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="E57" s="12" t="s">
+      <c r="F57" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="F57" s="12" t="s">
+      <c r="G57" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="G57" s="12" t="s">
+      <c r="H57" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="H57" s="12" t="s">
+      <c r="I57" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="I57" s="12" t="s">
+      <c r="J57" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="J57" s="12" t="s">
+      <c r="K57" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="K57" s="12" t="s">
+      <c r="L57" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="L57" s="12" t="s">
+      <c r="M57" s="12" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>194</v>
       </c>
@@ -4216,35 +4931,36 @@
       <c r="C58" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="D58" s="14"/>
+      <c r="E58" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="E58" s="12" t="s">
+      <c r="F58" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="F58" s="12" t="s">
+      <c r="G58" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="G58" s="12" t="s">
+      <c r="H58" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="H58" s="12" t="s">
+      <c r="I58" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="I58" s="12" t="s">
+      <c r="J58" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="J58" s="12" t="s">
+      <c r="K58" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="K58" s="12" t="s">
+      <c r="L58" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="L58" s="12" t="s">
+      <c r="M58" s="12" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>195</v>
       </c>
@@ -4254,40 +4970,41 @@
       <c r="C59" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="12"/>
+      <c r="E59" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="E59" s="12" t="s">
+      <c r="F59" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F59" s="12" t="s">
+      <c r="G59" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="G59" s="12" t="s">
+      <c r="H59" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="H59" s="12" t="s">
+      <c r="I59" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="I59" s="12" t="s">
+      <c r="J59" s="12" t="s">
         <v>167</v>
-      </c>
-      <c r="J59" s="12" t="s">
-        <v>160</v>
       </c>
       <c r="K59" s="12" t="s">
         <v>160</v>
       </c>
       <c r="L59" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="M59" s="12" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>208</v>
       </c>
@@ -4297,32 +5014,33 @@
       <c r="C65" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D65" s="9"/>
+      <c r="E65" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E65" s="9" t="s">
+      <c r="F65" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F65" s="9" t="s">
+      <c r="G65" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G65" s="9" t="s">
+      <c r="H65" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H65" s="9" t="s">
+      <c r="I65" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I65" s="9" t="s">
+      <c r="J65" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J65" s="9" t="s">
+      <c r="K65" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K65" s="9" t="s">
+      <c r="L65" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>193</v>
       </c>
@@ -4332,32 +5050,33 @@
       <c r="C66" s="9">
         <v>4</v>
       </c>
-      <c r="D66" s="9">
-        <v>4</v>
-      </c>
+      <c r="D66" s="9"/>
       <c r="E66" s="9">
         <v>4</v>
       </c>
       <c r="F66" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G66" s="9">
         <v>5</v>
       </c>
       <c r="H66" s="9">
+        <v>5</v>
+      </c>
+      <c r="I66" s="9">
         <v>4</v>
       </c>
-      <c r="I66" s="9">
+      <c r="J66" s="9">
         <v>2</v>
       </c>
-      <c r="J66" s="9">
-        <v>1</v>
-      </c>
       <c r="K66" s="9">
+        <v>1</v>
+      </c>
+      <c r="L66" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>194</v>
       </c>
@@ -4367,32 +5086,33 @@
       <c r="C67" s="9">
         <v>3</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D67" s="9"/>
+      <c r="E67" s="9">
         <v>2</v>
-      </c>
-      <c r="E67" s="9">
-        <v>4</v>
       </c>
       <c r="F67" s="9">
         <v>4</v>
       </c>
       <c r="G67" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H67" s="9">
         <v>3</v>
       </c>
       <c r="I67" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J67" s="9">
+        <v>1</v>
+      </c>
+      <c r="K67" s="9">
         <v>2</v>
       </c>
-      <c r="K67" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>195</v>
       </c>
@@ -4402,9 +5122,7 @@
       <c r="C68" s="9">
         <v>4</v>
       </c>
-      <c r="D68" s="9">
-        <v>3</v>
-      </c>
+      <c r="D68" s="9"/>
       <c r="E68" s="9">
         <v>3</v>
       </c>
@@ -4412,13 +5130,13 @@
         <v>3</v>
       </c>
       <c r="G68" s="9">
+        <v>3</v>
+      </c>
+      <c r="H68" s="9">
         <v>5</v>
       </c>
-      <c r="H68" s="9">
+      <c r="I68" s="9">
         <v>4</v>
-      </c>
-      <c r="I68" s="9">
-        <v>3</v>
       </c>
       <c r="J68" s="9">
         <v>3</v>
@@ -4426,24 +5144,27 @@
       <c r="K68" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L68" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="18" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>213</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>214</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>193</v>
       </c>
@@ -4451,22 +5172,22 @@
         <f>2/B66</f>
         <v>0.5</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>193</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <f>C66/4</f>
         <v>1</v>
       </c>
-      <c r="I74" t="s">
+      <c r="J74" t="s">
         <v>193</v>
       </c>
-      <c r="J74">
-        <f>D66/4</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K74">
+        <f>E66/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>194</v>
       </c>
@@ -4474,22 +5195,22 @@
         <f>2/B67</f>
         <v>1</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>194</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <f>C67/4</f>
         <v>0.75</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>194</v>
       </c>
-      <c r="J75">
-        <f>D67/4</f>
+      <c r="K75">
+        <f>E67/4</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>195</v>
       </c>
@@ -4497,219 +5218,219 @@
         <f t="shared" ref="B76" si="0">2/B68</f>
         <v>1</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>195</v>
       </c>
-      <c r="F76">
-        <f t="shared" ref="F76" si="1">C68/4</f>
-        <v>1</v>
-      </c>
-      <c r="I76" t="s">
+      <c r="G76">
+        <f t="shared" ref="G76" si="1">C68/4</f>
+        <v>1</v>
+      </c>
+      <c r="J76" t="s">
         <v>195</v>
       </c>
-      <c r="J76">
-        <f>D68/4</f>
+      <c r="K76">
+        <f>E68/4</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>216</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>217</v>
       </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>193</v>
       </c>
       <c r="B80">
-        <f>3/E66</f>
+        <f>3/F66</f>
         <v>0.75</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>193</v>
       </c>
-      <c r="F80">
-        <f>F66/5</f>
-        <v>1</v>
-      </c>
-      <c r="I80" t="s">
+      <c r="G80">
+        <f>G66/5</f>
+        <v>1</v>
+      </c>
+      <c r="J80" t="s">
         <v>193</v>
       </c>
-      <c r="J80">
-        <f>3/G66</f>
+      <c r="K80">
+        <f>3/H66</f>
         <v>0.6</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>194</v>
       </c>
       <c r="B81">
-        <f>3/E67</f>
+        <f>3/F67</f>
         <v>0.75</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>194</v>
       </c>
-      <c r="F81">
-        <f>F67/5</f>
+      <c r="G81">
+        <f>G67/5</f>
         <v>0.8</v>
       </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
         <v>194</v>
       </c>
-      <c r="J81">
-        <f>3/G67</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K81">
+        <f>3/H67</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>195</v>
       </c>
       <c r="B82">
-        <f>3/E68</f>
-        <v>1</v>
-      </c>
-      <c r="E82" t="s">
+        <f>3/F68</f>
+        <v>1</v>
+      </c>
+      <c r="F82" t="s">
         <v>195</v>
       </c>
-      <c r="F82">
-        <f>F68/5</f>
+      <c r="G82">
+        <f>G68/5</f>
         <v>0.6</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>195</v>
       </c>
-      <c r="J82">
-        <f>3/G68</f>
+      <c r="K82">
+        <f>3/H68</f>
         <v>0.6</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>219</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>220</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>193</v>
       </c>
       <c r="B86">
-        <f>H66/4</f>
-        <v>1</v>
-      </c>
-      <c r="E86" t="s">
+        <f>I66/4</f>
+        <v>1</v>
+      </c>
+      <c r="F86" t="s">
         <v>193</v>
       </c>
-      <c r="F86" s="19">
-        <f>I66/3</f>
+      <c r="G86" s="19">
+        <f>J66/3</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
         <v>193</v>
       </c>
-      <c r="J86" s="19">
-        <f>J66/3</f>
+      <c r="K86" s="19">
+        <f>K66/3</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>194</v>
       </c>
       <c r="B87">
-        <f>H67/4</f>
+        <f>I67/4</f>
         <v>0.75</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>194</v>
       </c>
-      <c r="F87" s="19">
-        <f>I67/3</f>
+      <c r="G87" s="19">
+        <f>J67/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="I87" t="s">
+      <c r="J87" t="s">
         <v>194</v>
       </c>
-      <c r="J87" s="19">
-        <f>J67/3</f>
+      <c r="K87" s="19">
+        <f>K67/3</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>195</v>
       </c>
       <c r="B88">
-        <f>H68/4</f>
-        <v>1</v>
-      </c>
-      <c r="E88" t="s">
+        <f>I68/4</f>
+        <v>1</v>
+      </c>
+      <c r="F88" t="s">
         <v>195</v>
       </c>
-      <c r="F88">
-        <f>I68/3</f>
-        <v>1</v>
-      </c>
-      <c r="I88" t="s">
+      <c r="G88">
+        <f>J68/3</f>
+        <v>1</v>
+      </c>
+      <c r="J88" t="s">
         <v>195</v>
       </c>
-      <c r="J88">
-        <f t="shared" ref="J88" si="2">J68/3</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E91" t="s">
+      <c r="K88">
+        <f t="shared" ref="K88" si="2">K68/3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F91" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E92" t="s">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F92" t="s">
         <v>193</v>
       </c>
-      <c r="F92" s="19">
-        <f>K66/3</f>
+      <c r="G92" s="19">
+        <f>L66/3</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E93" t="s">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F93" t="s">
         <v>194</v>
       </c>
-      <c r="F93" s="19">
-        <f>K67/3</f>
+      <c r="G93" s="19">
+        <f>L67/3</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E94" t="s">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F94" t="s">
         <v>195</v>
       </c>
-      <c r="F94">
-        <f t="shared" ref="F94" si="3">K68/3</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G94">
+        <f t="shared" ref="G94" si="3">L68/3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>208</v>
       </c>
@@ -4719,32 +5440,33 @@
       <c r="C100" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D100" s="9" t="s">
+      <c r="D100" s="9"/>
+      <c r="E100" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E100" s="9" t="s">
+      <c r="F100" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F100" s="9" t="s">
+      <c r="G100" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G100" s="9" t="s">
+      <c r="H100" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H100" s="9" t="s">
+      <c r="I100" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I100" s="9" t="s">
+      <c r="J100" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J100" s="9" t="s">
+      <c r="K100" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K100" s="9" t="s">
+      <c r="L100" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
         <v>193</v>
       </c>
@@ -4753,43 +5475,44 @@
         <v>0.5</v>
       </c>
       <c r="C101" s="9">
-        <f>F74</f>
-        <v>1</v>
-      </c>
-      <c r="D101" s="9">
-        <f>J74</f>
-        <v>1</v>
-      </c>
+        <f>G74</f>
+        <v>1</v>
+      </c>
+      <c r="D101" s="9"/>
       <c r="E101" s="9">
+        <f>K74</f>
+        <v>1</v>
+      </c>
+      <c r="F101" s="9">
         <f>B80</f>
         <v>0.75</v>
       </c>
-      <c r="F101" s="9">
-        <f>F80</f>
-        <v>1</v>
-      </c>
       <c r="G101" s="9">
-        <f>J80</f>
+        <f>G80</f>
+        <v>1</v>
+      </c>
+      <c r="H101" s="9">
+        <f>K80</f>
         <v>0.6</v>
       </c>
-      <c r="H101" s="9">
+      <c r="I101" s="9">
         <f>B86</f>
         <v>1</v>
       </c>
-      <c r="I101" s="20">
-        <f>F86</f>
+      <c r="J101" s="20">
+        <f>G86</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="J101" s="20">
-        <f>J86</f>
+      <c r="K101" s="20">
+        <f>K86</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K101" s="20">
-        <f>F92</f>
+      <c r="L101" s="20">
+        <f>G92</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
         <v>194</v>
       </c>
@@ -4798,43 +5521,44 @@
         <v>1</v>
       </c>
       <c r="C102" s="9">
-        <f t="shared" ref="C102:C103" si="5">F75</f>
+        <f t="shared" ref="C102:C103" si="5">G75</f>
         <v>0.75</v>
       </c>
-      <c r="D102" s="9">
-        <f t="shared" ref="D102:D103" si="6">J75</f>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9">
+        <f t="shared" ref="E102:E103" si="6">K75</f>
         <v>0.5</v>
       </c>
-      <c r="E102" s="9">
-        <f t="shared" ref="E102:E103" si="7">B81</f>
+      <c r="F102" s="9">
+        <f t="shared" ref="F102:F103" si="7">B81</f>
         <v>0.75</v>
       </c>
-      <c r="F102" s="9">
-        <f t="shared" ref="F102:F103" si="8">F81</f>
+      <c r="G102" s="9">
+        <f t="shared" ref="G102:G103" si="8">G81</f>
         <v>0.8</v>
       </c>
-      <c r="G102" s="9">
-        <f t="shared" ref="G102:G103" si="9">J81</f>
-        <v>1</v>
-      </c>
       <c r="H102" s="9">
-        <f t="shared" ref="H102:H103" si="10">B87</f>
+        <f t="shared" ref="H102:H103" si="9">K81</f>
+        <v>1</v>
+      </c>
+      <c r="I102" s="9">
+        <f t="shared" ref="I102:I103" si="10">B87</f>
         <v>0.75</v>
       </c>
-      <c r="I102" s="20">
-        <f>F87</f>
+      <c r="J102" s="20">
+        <f>G87</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J102" s="20">
-        <f>J87</f>
+      <c r="K102" s="20">
+        <f>K87</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="K102" s="20">
-        <f>F93</f>
+      <c r="L102" s="20">
+        <f>G93</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>195</v>
       </c>
@@ -4846,45 +5570,46 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="D103" s="9">
+      <c r="D103" s="9"/>
+      <c r="E103" s="9">
         <f t="shared" si="6"/>
         <v>0.75</v>
       </c>
-      <c r="E103" s="9">
+      <c r="F103" s="9">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="F103" s="9">
+      <c r="G103" s="9">
         <f t="shared" si="8"/>
         <v>0.6</v>
       </c>
-      <c r="G103" s="9">
+      <c r="H103" s="9">
         <f t="shared" si="9"/>
         <v>0.6</v>
       </c>
-      <c r="H103" s="9">
+      <c r="I103" s="9">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="I103" s="9">
-        <f t="shared" ref="I103" si="11">F88</f>
-        <v>1</v>
-      </c>
       <c r="J103" s="9">
-        <f t="shared" ref="J103" si="12">J88</f>
+        <f t="shared" ref="J103" si="11">G88</f>
         <v>1</v>
       </c>
       <c r="K103" s="9">
-        <f t="shared" ref="K103" si="13">F94</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" ref="K103" si="12">K88</f>
+        <v>1</v>
+      </c>
+      <c r="L103" s="9">
+        <f t="shared" ref="L103" si="13">G94</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
         <v>208</v>
       </c>
@@ -4894,38 +5619,39 @@
       <c r="C109" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D109" s="9" t="s">
+      <c r="D109" s="9"/>
+      <c r="E109" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E109" s="9" t="s">
+      <c r="F109" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F109" s="9" t="s">
+      <c r="G109" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G109" s="9" t="s">
+      <c r="H109" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H109" s="9" t="s">
+      <c r="I109" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I109" s="9" t="s">
+      <c r="J109" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J109" s="9" t="s">
+      <c r="K109" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K109" s="9" t="s">
+      <c r="L109" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="L109" s="9" t="s">
+      <c r="M109" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="M109" s="9" t="s">
+      <c r="N109" s="9" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
         <v>193</v>
       </c>
@@ -4937,48 +5663,49 @@
         <f>C101*C19</f>
         <v>11.2</v>
       </c>
-      <c r="D110" s="9">
-        <f>D101*C20</f>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9">
+        <f>E101*C20</f>
         <v>10.6</v>
       </c>
-      <c r="E110" s="9">
-        <f>E101*C21</f>
+      <c r="F110" s="9">
+        <f>F101*C21</f>
         <v>8.6999999999999993</v>
       </c>
-      <c r="F110" s="9">
-        <f>F101*C22</f>
+      <c r="G110" s="9">
+        <f>G101*C22</f>
         <v>14.2</v>
       </c>
-      <c r="G110" s="9">
-        <f>G101*C23</f>
+      <c r="H110" s="9">
+        <f>H101*C23</f>
         <v>4.32</v>
       </c>
-      <c r="H110" s="9">
-        <f>H101*C24</f>
+      <c r="I110" s="9">
+        <f>I101*C24</f>
         <v>7</v>
       </c>
-      <c r="I110" s="9">
-        <f>I101*C25</f>
+      <c r="J110" s="9">
+        <f>J101*C25</f>
         <v>4</v>
       </c>
-      <c r="J110" s="20">
-        <f>J101*C26</f>
+      <c r="K110" s="20">
+        <f>K101*C26</f>
         <v>2.333333333333333</v>
       </c>
-      <c r="K110" s="20">
-        <f>K101*C27</f>
+      <c r="L110" s="20">
+        <f>L101*C27</f>
         <v>4.5333333333333332</v>
       </c>
-      <c r="L110" s="20">
-        <f>SUM(B110:K110)</f>
+      <c r="M110" s="20">
+        <f>SUM(B110:L110)</f>
         <v>76.086666666666659</v>
       </c>
-      <c r="M110" s="9">
-        <f>RANK(L110, $L$110:$L$112, 0)</f>
+      <c r="N110" s="9">
+        <f>RANK(M110, $M$110:$M$112, 0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
         <v>194</v>
       </c>
@@ -4990,48 +5717,49 @@
         <f>C102*C19</f>
         <v>8.3999999999999986</v>
       </c>
-      <c r="D111" s="9">
-        <f>D102*C20</f>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9">
+        <f>E102*C20</f>
         <v>5.3</v>
       </c>
-      <c r="E111" s="9">
-        <f>E102*C21</f>
+      <c r="F111" s="9">
+        <f>F102*C21</f>
         <v>8.6999999999999993</v>
       </c>
-      <c r="F111" s="9">
-        <f>F102*C22</f>
+      <c r="G111" s="9">
+        <f>G102*C22</f>
         <v>11.36</v>
       </c>
-      <c r="G111" s="9">
-        <f>G102*C23</f>
+      <c r="H111" s="9">
+        <f>H102*C23</f>
         <v>7.2</v>
       </c>
-      <c r="H111" s="9">
-        <f>H102*C24</f>
+      <c r="I111" s="9">
+        <f>I102*C24</f>
         <v>5.25</v>
       </c>
-      <c r="I111" s="9">
-        <f>I102*C25</f>
+      <c r="J111" s="9">
+        <f>J102*C25</f>
         <v>2</v>
       </c>
-      <c r="J111" s="20">
-        <f>J102*C26</f>
+      <c r="K111" s="20">
+        <f>K102*C26</f>
         <v>4.6666666666666661</v>
       </c>
-      <c r="K111" s="20">
-        <f>K102*C27</f>
+      <c r="L111" s="20">
+        <f>L102*C27</f>
         <v>2.2666666666666666</v>
       </c>
-      <c r="L111" s="20">
-        <f>SUM(B111:K111)</f>
+      <c r="M111" s="20">
+        <f>SUM(B111:L111)</f>
         <v>73.543333333333337</v>
       </c>
-      <c r="M111" s="9">
-        <f t="shared" ref="M111:M112" si="14">RANK(L111, $L$110:$L$112, 0)</f>
+      <c r="N111" s="9">
+        <f t="shared" ref="N111:N112" si="14">RANK(M111, $M$110:$M$112, 0)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
         <v>195</v>
       </c>
@@ -5043,56 +5771,57 @@
         <f>C103*C19</f>
         <v>11.2</v>
       </c>
-      <c r="D112" s="9">
-        <f>D103*C20</f>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9">
+        <f>E103*C20</f>
         <v>7.9499999999999993</v>
       </c>
-      <c r="E112" s="9">
-        <f>E103*C21</f>
+      <c r="F112" s="9">
+        <f>F103*C21</f>
         <v>11.6</v>
       </c>
-      <c r="F112" s="9">
-        <f>F103*C22</f>
+      <c r="G112" s="9">
+        <f>G103*C22</f>
         <v>8.52</v>
       </c>
-      <c r="G112" s="9">
-        <f>G103*C23</f>
+      <c r="H112" s="9">
+        <f>H103*C23</f>
         <v>4.32</v>
       </c>
-      <c r="H112" s="9">
-        <f>H103*C24</f>
+      <c r="I112" s="9">
+        <f>I103*C24</f>
         <v>7</v>
       </c>
-      <c r="I112" s="9">
-        <f>I103*C25</f>
+      <c r="J112" s="9">
+        <f>J103*C25</f>
         <v>6</v>
       </c>
-      <c r="J112" s="9">
-        <f>J103*C26</f>
+      <c r="K112" s="9">
+        <f>K103*C26</f>
         <v>7</v>
       </c>
-      <c r="K112" s="9">
-        <f>K103*C27</f>
+      <c r="L112" s="9">
+        <f>L103*C27</f>
         <v>6.8</v>
       </c>
-      <c r="L112" s="9">
-        <f>SUM(B112:K112)</f>
+      <c r="M112" s="9">
+        <f>SUM(B112:L112)</f>
         <v>88.79</v>
       </c>
-      <c r="M112" s="9">
+      <c r="N112" s="9">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="K49">
+  <conditionalFormatting sqref="L49">
     <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50">
+  <conditionalFormatting sqref="L50">
     <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K57:K58">
+  <conditionalFormatting sqref="L57:L58">
     <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5101,42 +5830,42 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6626FB-65A5-4DCB-9E1D-A2FA0EB2B8E1}">
-  <dimension ref="A1:P119"/>
+  <dimension ref="A1:T119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="99" zoomScaleNormal="123" workbookViewId="0">
-      <selection activeCell="L125" sqref="L125"/>
+    <sheetView zoomScale="99" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="18.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" customWidth="1"/>
-    <col min="11" max="11" width="15.77734375" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" customWidth="1"/>
-    <col min="14" max="14" width="18.44140625" customWidth="1"/>
-    <col min="15" max="15" width="22.21875" customWidth="1"/>
-    <col min="16" max="16" width="33.109375" customWidth="1"/>
-    <col min="20" max="20" width="17.44140625" customWidth="1"/>
+    <col min="3" max="5" width="13.21875" customWidth="1"/>
+    <col min="6" max="8" width="20.44140625" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" customWidth="1"/>
+    <col min="14" max="14" width="14.44140625" customWidth="1"/>
+    <col min="15" max="15" width="15.77734375" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="17" max="17" width="11.44140625" customWidth="1"/>
+    <col min="18" max="18" width="18.44140625" customWidth="1"/>
+    <col min="19" max="19" width="22.21875" customWidth="1"/>
+    <col min="20" max="20" width="33.109375" customWidth="1"/>
+    <col min="24" max="24" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>172</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>173</v>
       </c>
@@ -5144,178 +5873,178 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
         <v>3</v>
       </c>
-      <c r="J3" t="s">
+      <c r="N3" t="s">
         <v>22</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>40</v>
       </c>
-      <c r="N3" t="s">
+      <c r="R3" t="s">
         <v>25</v>
       </c>
-      <c r="O3" t="s">
+      <c r="S3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
       <c r="J4" t="s">
         <v>29</v>
       </c>
       <c r="K4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" t="s">
         <v>196</v>
-      </c>
-      <c r="L4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O4" t="s">
-        <v>29</v>
       </c>
       <c r="P4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="S4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
+      <c r="J5" t="s">
         <v>267</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="S5" t="s">
         <v>292</v>
       </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="T5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="F6" t="s">
+      <c r="J6" t="s">
         <v>268</v>
       </c>
-      <c r="G6">
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="L6">
+      <c r="P6">
         <v>2</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="P6" s="3">
+      <c r="T6" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F7" t="s">
+      <c r="J7" t="s">
         <v>269</v>
       </c>
-      <c r="G7">
+      <c r="K7">
         <v>3</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="L7">
+      <c r="P7">
         <v>3</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="S7" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="P7" s="3">
+      <c r="T7" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="F8" t="s">
+      <c r="J8" t="s">
         <v>270</v>
       </c>
-      <c r="G8">
+      <c r="K8">
         <v>4</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="L8">
+      <c r="P8">
         <v>4</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="S8" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="P8" s="3">
+      <c r="T8" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>25</v>
       </c>
@@ -5323,7 +6052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>26</v>
       </c>
@@ -5331,45 +6060,39 @@
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="E11" t="s">
+      <c r="I11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J11" t="s">
+      <c r="N11" t="s">
         <v>23</v>
       </c>
-      <c r="K11" t="s">
+      <c r="O11" t="s">
         <v>4</v>
       </c>
-      <c r="N11" t="s">
+      <c r="R11" t="s">
         <v>26</v>
       </c>
-      <c r="O11" t="s">
+      <c r="S11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="17"/>
-      <c r="F12" t="s">
+      <c r="J12" t="s">
         <v>29</v>
       </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
       <c r="K12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" t="s">
         <v>11</v>
       </c>
       <c r="O12" t="s">
@@ -5378,428 +6101,830 @@
       <c r="P12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="S12" t="s">
+        <v>29</v>
+      </c>
+      <c r="T12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B13" s="15"/>
-      <c r="F13" t="s">
+      <c r="J13" t="s">
         <v>271</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
         <v>56</v>
       </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="S13" t="s">
         <v>204</v>
       </c>
-      <c r="P13">
+      <c r="T13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B14" s="15"/>
-      <c r="F14" t="s">
+      <c r="J14" t="s">
         <v>272</v>
       </c>
-      <c r="G14">
+      <c r="K14">
         <v>2</v>
       </c>
-      <c r="K14" t="s">
+      <c r="O14" t="s">
         <v>287</v>
       </c>
-      <c r="L14">
+      <c r="P14">
         <v>2</v>
       </c>
-      <c r="O14" t="s">
+      <c r="S14" t="s">
         <v>205</v>
       </c>
-      <c r="P14">
+      <c r="T14">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>171</v>
       </c>
       <c r="B15" s="15"/>
-      <c r="F15" t="s">
+      <c r="J15" t="s">
         <v>273</v>
       </c>
-      <c r="G15">
+      <c r="K15">
         <v>3</v>
       </c>
-      <c r="K15" t="s">
+      <c r="O15" t="s">
         <v>58</v>
       </c>
-      <c r="L15">
+      <c r="P15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="15"/>
-      <c r="F16" t="s">
+      <c r="J16" t="s">
         <v>274</v>
       </c>
-      <c r="G16">
+      <c r="K16">
         <v>4</v>
       </c>
-      <c r="K16" t="s">
+      <c r="O16" t="s">
         <v>299</v>
       </c>
-      <c r="L16">
+      <c r="P16">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D17" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="17">
         <v>15</v>
       </c>
-      <c r="N18" t="s">
+      <c r="D18" s="25">
+        <f>(1/9) * (1/1 + 1/2 + 1/3 + 1/4 + 1/5 + 1/6 + 1/7 + 1/8 + 1/9)</f>
+        <v>0.31432980599647259</v>
+      </c>
+      <c r="E18" s="22">
+        <f>100*D18</f>
+        <v>31.432980599647259</v>
+      </c>
+      <c r="F18" s="17">
+        <v>15</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="H18" s="23"/>
+      <c r="R18" t="s">
         <v>27</v>
       </c>
-      <c r="O18" t="s">
+      <c r="S18" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="17">
         <v>20</v>
       </c>
-      <c r="O19" t="s">
+      <c r="D19" s="25">
+        <f>(1/9) * (1/2 + 1/3 + 1/4 + 1/5 + 1/6 + 1/7 + 1/8 + 1/9)</f>
+        <v>0.20321869488536154</v>
+      </c>
+      <c r="E19" s="22">
+        <f t="shared" ref="E19:E26" si="0">100*D19</f>
+        <v>20.321869488536155</v>
+      </c>
+      <c r="F19" s="17">
+        <v>20</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="H19" s="23"/>
+      <c r="S19" t="s">
         <v>29</v>
       </c>
-      <c r="P19" t="s">
+      <c r="T19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="17">
         <v>15</v>
       </c>
-      <c r="O20" t="s">
+      <c r="D20" s="25">
+        <f>(1/9) * (1/3 + 1/4 + 1/5 + 1/6 + 1/7 + 1/8 + 1/9)</f>
+        <v>0.14766313932980599</v>
+      </c>
+      <c r="E20" s="22">
+        <f t="shared" si="0"/>
+        <v>14.766313932980598</v>
+      </c>
+      <c r="F20" s="17">
+        <v>15</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="H20" s="23"/>
+      <c r="S20" t="s">
         <v>232</v>
       </c>
-      <c r="P20">
+      <c r="T20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="17">
         <v>10</v>
       </c>
-      <c r="E21" t="s">
+      <c r="D21" s="25">
+        <f>(1/9) * (1/4 + 1/5 + 1/6 + 1/7 + 1/8 + 1/9)</f>
+        <v>0.11062610229276895</v>
+      </c>
+      <c r="E21" s="22">
+        <f t="shared" si="0"/>
+        <v>11.062610229276896</v>
+      </c>
+      <c r="F21" s="17">
+        <v>10</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="H21" s="23"/>
+      <c r="I21" t="s">
         <v>21</v>
       </c>
-      <c r="F21" t="s">
-        <v>1</v>
-      </c>
       <c r="J21" t="s">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
         <v>24</v>
       </c>
-      <c r="K21" t="s">
+      <c r="O21" t="s">
         <v>266</v>
       </c>
-      <c r="O21" t="s">
+      <c r="S21" t="s">
         <v>233</v>
       </c>
-      <c r="P21">
+      <c r="T21">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="17">
         <v>10</v>
       </c>
-      <c r="F22" t="s">
+      <c r="D22" s="25">
+        <f>(1/9) * (1/5 + 1/6 + 1/7 + 1/8 + 1/9)</f>
+        <v>8.2848324514991176E-2</v>
+      </c>
+      <c r="E22" s="22">
+        <f t="shared" si="0"/>
+        <v>8.284832451499117</v>
+      </c>
+      <c r="F22" s="17">
+        <v>10</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="H22" s="23"/>
+      <c r="J22" t="s">
         <v>39</v>
       </c>
-      <c r="G22" t="s">
+      <c r="K22" t="s">
         <v>278</v>
-      </c>
-      <c r="H22" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" t="s">
-        <v>29</v>
       </c>
       <c r="L22" t="s">
         <v>11</v>
       </c>
       <c r="O22" t="s">
+        <v>29</v>
+      </c>
+      <c r="P22" t="s">
+        <v>11</v>
+      </c>
+      <c r="S22" t="s">
         <v>234</v>
       </c>
-      <c r="P22">
+      <c r="T22">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="17">
         <v>5</v>
       </c>
-      <c r="F23" t="s">
+      <c r="D23" s="25">
+        <f>(1/9) * (1/6 + 1/7 + 1/8 + 1/9)</f>
+        <v>6.0626102292768963E-2</v>
+      </c>
+      <c r="E23" s="22">
+        <f t="shared" si="0"/>
+        <v>6.0626102292768964</v>
+      </c>
+      <c r="F23" s="17">
+        <v>5</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="H23" s="23"/>
+      <c r="J23" t="s">
         <v>275</v>
       </c>
-      <c r="G23" t="s">
+      <c r="K23" t="s">
         <v>279</v>
       </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="O23" t="s">
         <v>288</v>
       </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="P23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="17">
         <v>5</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="D24" s="25">
+        <f>(1/9) * (1/7 + 1/8 + 1/9)</f>
+        <v>4.2107583774250439E-2</v>
+      </c>
+      <c r="E24" s="22">
+        <f t="shared" si="0"/>
+        <v>4.2107583774250434</v>
+      </c>
+      <c r="F24" s="17">
+        <v>5</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="H24" s="23"/>
+      <c r="J24" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="H24">
-        <v>2</v>
-      </c>
-      <c r="K24" t="s">
-        <v>289</v>
       </c>
       <c r="L24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O24" t="s">
+        <v>289</v>
+      </c>
+      <c r="P24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="17">
         <v>5</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="D25" s="25">
+        <f>(1/9) * (1/8 + 1/9)</f>
+        <v>2.6234567901234566E-2</v>
+      </c>
+      <c r="E25" s="22">
+        <f t="shared" si="0"/>
+        <v>2.6234567901234565</v>
+      </c>
+      <c r="F25" s="17">
+        <v>5</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="H25" s="23"/>
+      <c r="J25" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="H25">
-        <v>3</v>
-      </c>
-      <c r="K25" t="s">
-        <v>290</v>
       </c>
       <c r="L25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="O25" t="s">
+        <v>290</v>
+      </c>
+      <c r="P25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="17">
         <v>15</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="D26" s="25">
+        <f>(1/9) * (1/9)</f>
+        <v>1.2345679012345678E-2</v>
+      </c>
+      <c r="E26" s="22">
+        <f t="shared" si="0"/>
+        <v>1.2345679012345678</v>
+      </c>
+      <c r="F26" s="17">
+        <v>15</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="H26" s="23"/>
+      <c r="J26" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="H26">
-        <v>4</v>
-      </c>
-      <c r="K26" t="s">
-        <v>291</v>
       </c>
       <c r="L26">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O26" t="s">
+        <v>291</v>
+      </c>
+      <c r="P26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15">
+      <c r="B27" s="17"/>
+      <c r="C27" s="17">
         <f>C18+C19+C20+C21+C22+C23+C24+C25+C26</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D27" s="25">
+        <f>SUM(D18:D26)</f>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="E27" s="22">
+        <f>SUM(E18:E26)</f>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="F27" s="9">
+        <f>SUM(F18:F26)</f>
+        <v>100</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="23"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="15" t="s">
+    <row r="32" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="17" t="s">
         <v>173</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C32" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="J32" s="24" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C33" s="9">
+        <v>6</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" s="9">
+        <v>15</v>
+      </c>
+      <c r="I33" s="25">
+        <f>(1/9) * (1/1 + 1/2 + 1/3 + 1/4 + 1/5 + 1/6 + 1/7 + 1/8 + 1/9)</f>
+        <v>0.31432980599647259</v>
+      </c>
+      <c r="J33" s="22">
+        <f>100*I33</f>
+        <v>31.432980599647259</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C34" s="9">
+        <v>7</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" s="9">
+        <v>10</v>
+      </c>
+      <c r="I34" s="25">
+        <f>(1/9) * (1/2 + 1/3 + 1/4 + 1/5 + 1/6 + 1/7 + 1/8 + 1/9)</f>
+        <v>0.20321869488536154</v>
+      </c>
+      <c r="J34" s="22">
+        <f t="shared" ref="J34:J41" si="1">100*I34</f>
+        <v>20.321869488536155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C35" s="9">
+        <v>1</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" s="9">
+        <v>10</v>
+      </c>
+      <c r="I35" s="25">
+        <f>(1/9) * (1/3 + 1/4 + 1/5 + 1/6 + 1/7 + 1/8 + 1/9)</f>
+        <v>0.14766313932980599</v>
+      </c>
+      <c r="J35" s="22">
+        <f t="shared" si="1"/>
+        <v>14.766313932980598</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C36" s="9">
+        <v>2</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36" s="9">
+        <v>5</v>
+      </c>
+      <c r="I36" s="25">
+        <f>(1/9) * (1/4 + 1/5 + 1/6 + 1/7 + 1/8 + 1/9)</f>
+        <v>0.11062610229276895</v>
+      </c>
+      <c r="J36" s="22">
+        <f t="shared" si="1"/>
+        <v>11.062610229276896</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C37" s="9">
+        <v>3</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" s="9">
+        <v>5</v>
+      </c>
+      <c r="I37" s="25">
+        <f>(1/9) * (1/5 + 1/6 + 1/7 + 1/8 + 1/9)</f>
+        <v>8.2848324514991176E-2</v>
+      </c>
+      <c r="J37" s="22">
+        <f t="shared" si="1"/>
+        <v>8.284832451499117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C38" s="9">
+        <v>4</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38" s="9">
+        <v>15</v>
+      </c>
+      <c r="I38" s="25">
+        <f>(1/9) * (1/6 + 1/7 + 1/8 + 1/9)</f>
+        <v>6.0626102292768963E-2</v>
+      </c>
+      <c r="J38" s="22">
+        <f t="shared" si="1"/>
+        <v>6.0626102292768964</v>
+      </c>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C39" s="9">
+        <v>8</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H39" s="9">
+        <v>20</v>
+      </c>
+      <c r="I39" s="25">
+        <f>(1/9) * (1/7 + 1/8 + 1/9)</f>
+        <v>4.2107583774250439E-2</v>
+      </c>
+      <c r="J39" s="22">
+        <f t="shared" si="1"/>
+        <v>4.2107583774250434</v>
+      </c>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C40" s="9">
+        <v>5</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H40" s="9">
+        <v>5</v>
+      </c>
+      <c r="I40" s="25">
+        <f>(1/9) * (1/8 + 1/9)</f>
+        <v>2.6234567901234566E-2</v>
+      </c>
+      <c r="J40" s="22">
+        <f t="shared" si="1"/>
+        <v>2.6234567901234565</v>
+      </c>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C41" s="9">
+        <v>9</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" s="9">
+        <v>15</v>
+      </c>
+      <c r="I41" s="25">
+        <f>(1/9) * (1/9)</f>
+        <v>1.2345679012345678E-2</v>
+      </c>
+      <c r="J41" s="22">
+        <f t="shared" si="1"/>
+        <v>1.2345679012345678</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9">
+        <f>SUM(H33:H41)</f>
+        <v>100</v>
+      </c>
+      <c r="I42" s="20">
+        <f>SUM(I33:I41)</f>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="J42" s="22">
+        <f>SUM(J33:J41)</f>
+        <v>99.999999999999986</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="18"/>
     </row>
-    <row r="48" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
         <v>77</v>
       </c>
@@ -5809,34 +6934,38 @@
       <c r="C48" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="D48" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E48" s="16" t="s">
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="F48" s="16" t="s">
+      <c r="J48" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="G48" s="16" t="s">
+      <c r="K48" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H48" s="16" t="s">
+      <c r="L48" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I48" s="16" t="s">
+      <c r="M48" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="J48" s="16" t="s">
+      <c r="N48" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="K48" s="16" t="s">
+      <c r="O48" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-    </row>
-    <row r="49" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
+    </row>
+    <row r="49" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49" s="16" t="s">
         <v>193</v>
       </c>
@@ -5846,34 +6975,38 @@
       <c r="C49" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="J49" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="G49" s="12" t="s">
+      <c r="K49" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H49" s="12" t="s">
+      <c r="L49" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="I49" s="12" t="s">
+      <c r="M49" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="J49" s="12" t="s">
+      <c r="N49" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="K49" s="12" t="s">
+      <c r="O49" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-    </row>
-    <row r="50" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+    </row>
+    <row r="50" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
         <v>194</v>
       </c>
@@ -5883,34 +7016,38 @@
       <c r="C50" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="F50" s="12" t="s">
+      <c r="J50" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="G50" s="12" t="s">
+      <c r="K50" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="H50" s="12" t="s">
+      <c r="L50" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="I50" s="12" t="s">
+      <c r="M50" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="J50" s="12" t="s">
+      <c r="N50" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="K50" s="12" t="s">
+      <c r="O50" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-    </row>
-    <row r="51" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+    </row>
+    <row r="51" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" s="16" t="s">
         <v>195</v>
       </c>
@@ -5920,34 +7057,38 @@
       <c r="C51" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="E51" s="12" t="s">
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="F51" s="12" t="s">
+      <c r="J51" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="G51" s="12" t="s">
+      <c r="K51" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="H51" s="12" t="s">
+      <c r="L51" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="I51" s="12" t="s">
+      <c r="M51" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="J51" s="12" t="s">
+      <c r="N51" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="K51" s="12" t="s">
+      <c r="O51" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-    </row>
-    <row r="52" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
+    </row>
+    <row r="52" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="16" t="s">
         <v>253</v>
       </c>
@@ -5957,32 +7098,36 @@
       <c r="C52" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="E52" s="12" t="s">
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="F52" s="12" t="s">
+      <c r="J52" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="G52" s="12" t="s">
+      <c r="K52" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="H52" s="12" t="s">
+      <c r="L52" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="I52" s="12" t="s">
+      <c r="M52" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="J52" s="12" t="s">
+      <c r="N52" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="K52" s="12" t="s">
+      <c r="O52" s="12" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="16" t="s">
         <v>259</v>
       </c>
@@ -5992,32 +7137,36 @@
       <c r="C53" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="E53" s="12" t="s">
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="F53" s="12" t="s">
+      <c r="J53" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="G53" s="12" t="s">
+      <c r="K53" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H53" s="12" t="s">
+      <c r="L53" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="I53" s="12" t="s">
+      <c r="M53" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="J53" s="12" t="s">
+      <c r="N53" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="K53" s="12" t="s">
+      <c r="O53" s="12" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="16" t="s">
         <v>264</v>
       </c>
@@ -6027,32 +7176,36 @@
       <c r="C54" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="E54" s="12" t="s">
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="F54" s="12" t="s">
+      <c r="J54" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="G54" s="12" t="s">
+      <c r="K54" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="H54" s="12" t="s">
+      <c r="L54" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="I54" s="12" t="s">
+      <c r="M54" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="J54" s="12" t="s">
+      <c r="N54" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="K54" s="12" t="s">
+      <c r="O54" s="12" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>170</v>
       </c>
@@ -6062,34 +7215,38 @@
       <c r="C56" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="J56" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G56" s="9" t="s">
+      <c r="K56" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H56" s="9" t="s">
+      <c r="L56" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I56" s="9" t="s">
+      <c r="M56" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J56" s="9" t="s">
+      <c r="N56" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K56" s="9" t="s">
+      <c r="O56" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M56" s="9"/>
-      <c r="N56" s="9"/>
-    </row>
-    <row r="57" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+    </row>
+    <row r="57" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>193</v>
       </c>
@@ -6099,34 +7256,38 @@
       <c r="C57" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="J57" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="G57" s="7" t="s">
+      <c r="K57" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H57" s="7" t="s">
+      <c r="L57" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="I57" s="7" t="s">
+      <c r="M57" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="J57" s="7" t="s">
+      <c r="N57" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K57" s="7" t="s">
+      <c r="O57" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="M57" s="9"/>
-      <c r="N57" s="17"/>
-    </row>
-    <row r="58" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="Q57" s="9"/>
+      <c r="R57" s="17"/>
+    </row>
+    <row r="58" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>194</v>
       </c>
@@ -6136,34 +7297,38 @@
       <c r="C58" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="J58" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="K58" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="H58" s="7" t="s">
+      <c r="L58" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="I58" s="7" t="s">
+      <c r="M58" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="J58" s="7" t="s">
+      <c r="N58" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K58" s="7" t="s">
+      <c r="O58" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="M58" s="9"/>
-      <c r="N58" s="17"/>
-    </row>
-    <row r="59" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="Q58" s="9"/>
+      <c r="R58" s="17"/>
+    </row>
+    <row r="59" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>195</v>
       </c>
@@ -6173,34 +7338,38 @@
       <c r="C59" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="J59" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="G59" s="7" t="s">
+      <c r="K59" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="H59" s="7" t="s">
+      <c r="L59" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="I59" s="7" t="s">
+      <c r="M59" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="J59" s="7" t="s">
+      <c r="N59" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K59" s="7" t="s">
+      <c r="O59" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="M59" s="9"/>
-      <c r="N59" s="17"/>
-    </row>
-    <row r="60" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="Q59" s="9"/>
+      <c r="R59" s="17"/>
+    </row>
+    <row r="60" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>253</v>
       </c>
@@ -6210,34 +7379,38 @@
       <c r="C60" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="J60" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="K60" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="H60" s="7" t="s">
+      <c r="L60" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="I60" s="7" t="s">
+      <c r="M60" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="J60" s="7" t="s">
+      <c r="N60" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K60" s="7" t="s">
+      <c r="O60" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="M60" s="9"/>
-      <c r="N60" s="17"/>
-    </row>
-    <row r="61" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="Q60" s="9"/>
+      <c r="R60" s="17"/>
+    </row>
+    <row r="61" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>259</v>
       </c>
@@ -6247,34 +7420,38 @@
       <c r="C61" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="J61" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="K61" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H61" s="7" t="s">
+      <c r="L61" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="I61" s="7" t="s">
+      <c r="M61" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="J61" s="7" t="s">
+      <c r="N61" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K61" s="7" t="s">
+      <c r="O61" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="M61" s="9"/>
-      <c r="N61" s="17"/>
-    </row>
-    <row r="62" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="Q61" s="9"/>
+      <c r="R61" s="17"/>
+    </row>
+    <row r="62" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
         <v>264</v>
       </c>
@@ -6284,49 +7461,53 @@
       <c r="C62" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="J62" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="G62" s="7" t="s">
+      <c r="K62" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="H62" s="7" t="s">
+      <c r="L62" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="I62" s="7" t="s">
+      <c r="M62" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="J62" s="7" t="s">
+      <c r="N62" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K62" s="7" t="s">
+      <c r="O62" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="M62" s="9"/>
-      <c r="N62" s="17"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M63" s="9"/>
-      <c r="N63" s="17"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q62" s="9"/>
+      <c r="R62" s="17"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q63" s="9"/>
+      <c r="R63" s="17"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>207</v>
       </c>
-      <c r="M64" s="9"/>
-      <c r="N64" s="17"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M65" s="9"/>
-      <c r="N65" s="17"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q64" s="9"/>
+      <c r="R64" s="17"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q65" s="9"/>
+      <c r="R65" s="17"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>208</v>
       </c>
@@ -6336,30 +7517,34 @@
       <c r="C66" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E66" s="9" t="s">
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F66" s="9" t="s">
+      <c r="J66" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G66" s="9" t="s">
+      <c r="K66" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H66" s="9" t="s">
+      <c r="L66" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I66" s="9" t="s">
+      <c r="M66" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J66" s="9" t="s">
+      <c r="N66" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K66" s="9"/>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O66" s="9"/>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>193</v>
       </c>
@@ -6369,30 +7554,34 @@
       <c r="C67" s="9">
         <v>2</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9">
         <v>4</v>
       </c>
-      <c r="E67" s="9">
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9">
         <v>4</v>
       </c>
-      <c r="F67" s="9">
+      <c r="J67" s="9">
         <v>3</v>
       </c>
-      <c r="G67" s="9">
+      <c r="K67" s="9">
         <v>2</v>
       </c>
-      <c r="H67" s="9">
+      <c r="L67" s="9">
         <v>4</v>
       </c>
-      <c r="I67" s="9">
+      <c r="M67" s="9">
         <v>3</v>
       </c>
-      <c r="J67" s="9">
+      <c r="N67" s="9">
         <v>2</v>
       </c>
-      <c r="K67" s="9"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O67" s="9"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>194</v>
       </c>
@@ -6402,30 +7591,34 @@
       <c r="C68" s="9">
         <v>2</v>
       </c>
-      <c r="D68" s="9">
-        <v>4</v>
-      </c>
-      <c r="E68" s="9">
-        <v>4</v>
-      </c>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
       <c r="F68" s="9">
         <v>4</v>
       </c>
-      <c r="G68" s="9">
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9">
+        <v>4</v>
+      </c>
+      <c r="J68" s="9">
+        <v>4</v>
+      </c>
+      <c r="K68" s="9">
         <v>2</v>
       </c>
-      <c r="H68" s="9">
-        <v>1</v>
-      </c>
-      <c r="I68" s="9">
+      <c r="L68" s="9">
+        <v>1</v>
+      </c>
+      <c r="M68" s="9">
         <v>7</v>
       </c>
-      <c r="J68" s="9">
+      <c r="N68" s="9">
         <v>2</v>
       </c>
-      <c r="K68" s="9"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O68" s="9"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>195</v>
       </c>
@@ -6435,30 +7628,34 @@
       <c r="C69" s="9">
         <v>1</v>
       </c>
-      <c r="D69" s="9">
-        <v>4</v>
-      </c>
-      <c r="E69" s="9">
-        <v>3</v>
-      </c>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
       <c r="F69" s="9">
         <v>4</v>
       </c>
-      <c r="G69" s="9">
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9">
+        <v>3</v>
+      </c>
+      <c r="J69" s="9">
+        <v>4</v>
+      </c>
+      <c r="K69" s="9">
         <v>2</v>
       </c>
-      <c r="H69" s="9">
+      <c r="L69" s="9">
         <v>2</v>
       </c>
-      <c r="I69" s="9">
+      <c r="M69" s="9">
         <v>7</v>
       </c>
-      <c r="J69" s="9">
+      <c r="N69" s="9">
         <v>2</v>
       </c>
-      <c r="K69" s="9"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O69" s="9"/>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>253</v>
       </c>
@@ -6468,30 +7665,34 @@
       <c r="C70" s="9">
         <v>1</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9">
         <v>3</v>
       </c>
-      <c r="E70" s="9">
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9">
         <v>4</v>
       </c>
-      <c r="F70" s="9">
-        <v>1</v>
-      </c>
-      <c r="G70" s="9">
+      <c r="J70" s="9">
+        <v>1</v>
+      </c>
+      <c r="K70" s="9">
         <v>2</v>
       </c>
-      <c r="H70" s="9">
+      <c r="L70" s="9">
         <v>2</v>
       </c>
-      <c r="I70" s="9">
+      <c r="M70" s="9">
         <v>7</v>
       </c>
-      <c r="J70" s="9">
+      <c r="N70" s="9">
         <v>3</v>
       </c>
-      <c r="K70" s="9"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O70" s="9"/>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>259</v>
       </c>
@@ -6501,30 +7702,34 @@
       <c r="C71" s="9">
         <v>2</v>
       </c>
-      <c r="D71" s="9">
-        <v>3</v>
-      </c>
-      <c r="E71" s="9">
-        <v>3</v>
-      </c>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
       <c r="F71" s="9">
         <v>3</v>
       </c>
-      <c r="G71" s="9">
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9">
+        <v>3</v>
+      </c>
+      <c r="J71" s="9">
+        <v>3</v>
+      </c>
+      <c r="K71" s="9">
         <v>2</v>
       </c>
-      <c r="H71" s="9">
-        <v>1</v>
-      </c>
-      <c r="I71" s="9">
+      <c r="L71" s="9">
+        <v>1</v>
+      </c>
+      <c r="M71" s="9">
         <v>7</v>
       </c>
-      <c r="J71" s="9">
+      <c r="N71" s="9">
         <v>2</v>
       </c>
-      <c r="K71" s="9"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O71" s="9"/>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>264</v>
       </c>
@@ -6534,496 +7739,500 @@
       <c r="C72" s="9">
         <v>2</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9">
         <v>3</v>
       </c>
-      <c r="E72" s="9">
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9">
         <v>3</v>
       </c>
-      <c r="F72" s="9">
+      <c r="J72" s="9">
         <v>4</v>
       </c>
-      <c r="G72" s="9">
+      <c r="K72" s="9">
         <v>2</v>
       </c>
-      <c r="H72" s="9">
-        <v>1</v>
-      </c>
-      <c r="I72" s="9">
+      <c r="L72" s="9">
+        <v>1</v>
+      </c>
+      <c r="M72" s="9">
         <v>7</v>
       </c>
-      <c r="J72" s="9">
+      <c r="N72" s="9">
         <v>2</v>
       </c>
-      <c r="K72" s="9"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J73" s="9"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O72" s="9"/>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="N73" s="9"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" s="18" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>213</v>
       </c>
-      <c r="E77" t="s">
+      <c r="I77" t="s">
         <v>296</v>
       </c>
-      <c r="J77" t="s">
+      <c r="N77" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>193</v>
       </c>
       <c r="B78">
-        <f t="shared" ref="B78:B83" si="0">1/B67</f>
-        <v>1</v>
-      </c>
-      <c r="E78" t="s">
+        <f t="shared" ref="B78:B83" si="2">1/B67</f>
+        <v>1</v>
+      </c>
+      <c r="I78" t="s">
         <v>193</v>
       </c>
-      <c r="F78">
+      <c r="J78">
         <f>1/C67</f>
         <v>0.5</v>
       </c>
-      <c r="J78" t="s">
+      <c r="N78" t="s">
         <v>193</v>
       </c>
-      <c r="K78">
-        <f>D67/4</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O78">
+        <f>F67/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>194</v>
       </c>
       <c r="B79">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E79" t="s">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="s">
         <v>194</v>
       </c>
-      <c r="F79">
-        <f t="shared" ref="F79:F83" si="1">1/C68</f>
+      <c r="J79">
+        <f t="shared" ref="J79:J83" si="3">1/C68</f>
         <v>0.5</v>
       </c>
-      <c r="J79" t="s">
+      <c r="N79" t="s">
         <v>194</v>
       </c>
-      <c r="K79">
-        <f t="shared" ref="K79:K83" si="2">D68/4</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O79">
+        <f t="shared" ref="O79:O83" si="4">F68/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>195</v>
       </c>
       <c r="B80" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E80" t="s">
+      <c r="I80" t="s">
         <v>195</v>
       </c>
-      <c r="F80">
+      <c r="J80">
         <f>1/C69</f>
         <v>1</v>
       </c>
-      <c r="J80" t="s">
+      <c r="N80" t="s">
         <v>195</v>
       </c>
-      <c r="K80">
-        <f>D69/4</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O80">
+        <f>F69/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>253</v>
       </c>
       <c r="B81">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E81" t="s">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="s">
         <v>253</v>
       </c>
-      <c r="F81">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J81" t="s">
+      <c r="J81">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
         <v>253</v>
       </c>
-      <c r="K81">
-        <f>D70/4</f>
+      <c r="O81">
+        <f>F70/4</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>259</v>
       </c>
       <c r="B82">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="E82" t="s">
+      <c r="I82" t="s">
         <v>259</v>
       </c>
-      <c r="F82">
-        <f t="shared" si="1"/>
+      <c r="J82">
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="J82" t="s">
+      <c r="N82" t="s">
         <v>259</v>
       </c>
-      <c r="K82">
-        <f t="shared" si="2"/>
+      <c r="O82">
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>264</v>
       </c>
       <c r="B83" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E83" t="s">
+      <c r="I83" t="s">
         <v>264</v>
       </c>
-      <c r="F83">
-        <f t="shared" si="1"/>
+      <c r="J83">
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="J83" t="s">
+      <c r="N83" t="s">
         <v>264</v>
       </c>
-      <c r="K83">
-        <f t="shared" si="2"/>
+      <c r="O83">
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>300</v>
       </c>
-      <c r="E85" t="s">
+      <c r="I85" t="s">
         <v>217</v>
       </c>
-      <c r="J85" t="s">
+      <c r="N85" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>193</v>
       </c>
       <c r="B86">
-        <f>E67/4</f>
-        <v>1</v>
-      </c>
-      <c r="E86" t="s">
+        <f>I67/4</f>
+        <v>1</v>
+      </c>
+      <c r="I86" t="s">
         <v>193</v>
       </c>
-      <c r="F86">
-        <f>F67/4</f>
+      <c r="J86">
+        <f>J67/4</f>
         <v>0.75</v>
       </c>
-      <c r="J86" t="s">
+      <c r="N86" t="s">
         <v>193</v>
       </c>
-      <c r="K86">
-        <f>G67/3</f>
+      <c r="O86">
+        <f>K67/3</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>194</v>
       </c>
       <c r="B87">
-        <f>E68/4</f>
-        <v>1</v>
-      </c>
-      <c r="E87" t="s">
+        <f>I68/4</f>
+        <v>1</v>
+      </c>
+      <c r="I87" t="s">
         <v>194</v>
       </c>
-      <c r="F87">
-        <f>F68/4</f>
-        <v>1</v>
-      </c>
-      <c r="J87" t="s">
+      <c r="J87">
+        <f>J68/4</f>
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
         <v>194</v>
       </c>
-      <c r="K87">
-        <f t="shared" ref="K87:K91" si="3">G68/3</f>
+      <c r="O87">
+        <f t="shared" ref="O87:O91" si="5">K68/3</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>195</v>
       </c>
       <c r="B88">
-        <f>E69/4</f>
+        <f>I69/4</f>
         <v>0.75</v>
       </c>
-      <c r="E88" t="s">
+      <c r="I88" t="s">
         <v>195</v>
       </c>
-      <c r="F88">
-        <f t="shared" ref="F88:F91" si="4">F69/4</f>
-        <v>1</v>
-      </c>
-      <c r="J88" t="s">
+      <c r="J88">
+        <f t="shared" ref="J88:J91" si="6">J69/4</f>
+        <v>1</v>
+      </c>
+      <c r="N88" t="s">
         <v>195</v>
       </c>
-      <c r="K88">
-        <f t="shared" si="3"/>
+      <c r="O88">
+        <f t="shared" si="5"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>253</v>
       </c>
       <c r="B89">
-        <f>E70/4</f>
-        <v>1</v>
-      </c>
-      <c r="E89" t="s">
+        <f>I70/4</f>
+        <v>1</v>
+      </c>
+      <c r="I89" t="s">
         <v>253</v>
       </c>
-      <c r="F89">
-        <f>F70/4</f>
+      <c r="J89">
+        <f>J70/4</f>
         <v>0.25</v>
       </c>
-      <c r="J89" t="s">
+      <c r="N89" t="s">
         <v>253</v>
       </c>
-      <c r="K89">
-        <f t="shared" si="3"/>
+      <c r="O89">
+        <f t="shared" si="5"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>259</v>
       </c>
       <c r="B90">
-        <f>E71/4</f>
+        <f>I71/4</f>
         <v>0.75</v>
       </c>
-      <c r="E90" t="s">
+      <c r="I90" t="s">
         <v>259</v>
       </c>
-      <c r="F90">
-        <f>F71/4</f>
+      <c r="J90">
+        <f>J71/4</f>
         <v>0.75</v>
       </c>
-      <c r="J90" t="s">
+      <c r="N90" t="s">
         <v>259</v>
       </c>
-      <c r="K90">
-        <f t="shared" si="3"/>
+      <c r="O90">
+        <f t="shared" si="5"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>264</v>
       </c>
       <c r="B91">
-        <f t="shared" ref="B91" si="5">E72/4</f>
+        <f t="shared" ref="B91" si="7">I72/4</f>
         <v>0.75</v>
       </c>
-      <c r="E91" t="s">
+      <c r="I91" t="s">
         <v>264</v>
       </c>
-      <c r="F91">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J91" t="s">
+      <c r="J91">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N91" t="s">
         <v>264</v>
       </c>
-      <c r="K91">
-        <f t="shared" si="3"/>
+      <c r="O91">
+        <f t="shared" si="5"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>297</v>
       </c>
-      <c r="E93" t="s">
+      <c r="I93" t="s">
         <v>220</v>
       </c>
-      <c r="J93" t="s">
+      <c r="N93" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>193</v>
       </c>
       <c r="B94">
-        <f>1/H67</f>
+        <f>1/L67</f>
         <v>0.25</v>
       </c>
-      <c r="E94" t="s">
+      <c r="I94" t="s">
         <v>193</v>
       </c>
-      <c r="F94" s="19">
-        <f>I67/7</f>
+      <c r="J94" s="19">
+        <f>M67/7</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="G94" s="19"/>
-      <c r="J94" t="s">
+      <c r="K94" s="19"/>
+      <c r="N94" t="s">
         <v>193</v>
       </c>
-      <c r="K94" s="23">
-        <f>2/J67</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O94" s="23">
+        <f>2/N67</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>194</v>
       </c>
       <c r="B95">
-        <f>1/H68</f>
-        <v>1</v>
-      </c>
-      <c r="E95" t="s">
+        <f>1/L68</f>
+        <v>1</v>
+      </c>
+      <c r="I95" t="s">
         <v>194</v>
       </c>
-      <c r="F95" s="23">
-        <f>I68/7</f>
-        <v>1</v>
-      </c>
-      <c r="G95" s="19"/>
-      <c r="J95" t="s">
+      <c r="J95" s="23">
+        <f>M68/7</f>
+        <v>1</v>
+      </c>
+      <c r="K95" s="19"/>
+      <c r="N95" t="s">
         <v>194</v>
       </c>
-      <c r="K95" s="23">
-        <f>2/J68</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O95" s="23">
+        <f>2/N68</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>195</v>
       </c>
       <c r="B96">
-        <f>1/H69</f>
+        <f>1/L69</f>
         <v>0.5</v>
       </c>
-      <c r="E96" t="s">
+      <c r="I96" t="s">
         <v>195</v>
       </c>
-      <c r="F96" s="23">
-        <f t="shared" ref="F96:F99" si="6">I69/7</f>
-        <v>1</v>
-      </c>
-      <c r="J96" t="s">
+      <c r="J96" s="23">
+        <f t="shared" ref="J96:J99" si="8">M69/7</f>
+        <v>1</v>
+      </c>
+      <c r="N96" t="s">
         <v>195</v>
       </c>
-      <c r="K96" s="23">
-        <f t="shared" ref="K96" si="7">2/J69</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O96" s="23">
+        <f t="shared" ref="O96" si="9">2/N69</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>253</v>
       </c>
       <c r="B97">
-        <f>1/H70</f>
+        <f>1/L70</f>
         <v>0.5</v>
       </c>
-      <c r="E97" t="s">
+      <c r="I97" t="s">
         <v>253</v>
       </c>
-      <c r="F97" s="23">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="J97" t="s">
+      <c r="J97" s="23">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="N97" t="s">
         <v>253</v>
       </c>
-      <c r="K97" s="19">
-        <f>2/J70</f>
+      <c r="O97" s="19">
+        <f>2/N70</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>259</v>
       </c>
       <c r="B98">
-        <f>1/H71</f>
-        <v>1</v>
-      </c>
-      <c r="E98" t="s">
+        <f>1/L71</f>
+        <v>1</v>
+      </c>
+      <c r="I98" t="s">
         <v>259</v>
       </c>
-      <c r="F98" s="23">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="J98" t="s">
+      <c r="J98" s="23">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="N98" t="s">
         <v>259</v>
       </c>
-      <c r="K98" s="23">
-        <f t="shared" ref="K98:K99" si="8">2/J71</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O98" s="23">
+        <f t="shared" ref="O98:O99" si="10">2/N71</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>264</v>
       </c>
       <c r="B99">
-        <f t="shared" ref="B99" si="9">1/H72</f>
-        <v>1</v>
-      </c>
-      <c r="E99" t="s">
+        <f t="shared" ref="B99" si="11">1/L72</f>
+        <v>1</v>
+      </c>
+      <c r="I99" t="s">
         <v>264</v>
       </c>
-      <c r="F99" s="23">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="J99" t="s">
+      <c r="J99" s="23">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="N99" t="s">
         <v>264</v>
       </c>
-      <c r="K99" s="23">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F100" s="19"/>
-      <c r="K100" s="19"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O99" s="23">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J100" s="19"/>
+      <c r="O100" s="19"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>208</v>
       </c>
@@ -7033,30 +8242,34 @@
       <c r="C103" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D103" s="9" t="s">
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E103" s="9" t="s">
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F103" s="9" t="s">
+      <c r="J103" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G103" s="9" t="s">
+      <c r="K103" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H103" s="9" t="s">
+      <c r="L103" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I103" s="9" t="s">
+      <c r="M103" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J103" s="9" t="s">
+      <c r="N103" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L103" s="9"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P103" s="9"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
         <v>193</v>
       </c>
@@ -7065,40 +8278,44 @@
         <v>1</v>
       </c>
       <c r="C104" s="9">
-        <f>F78</f>
+        <f>J78</f>
         <v>0.5</v>
       </c>
-      <c r="D104" s="9">
-        <f>K78</f>
-        <v>1</v>
-      </c>
-      <c r="E104" s="9">
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9">
+        <f>O78</f>
+        <v>1</v>
+      </c>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9">
         <f>B86</f>
         <v>1</v>
       </c>
-      <c r="F104" s="9">
-        <f>F86</f>
+      <c r="J104" s="9">
+        <f>J86</f>
         <v>0.75</v>
       </c>
-      <c r="G104" s="20">
-        <f>K86</f>
+      <c r="K104" s="20">
+        <f>O86</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="H104" s="9">
+      <c r="L104" s="9">
         <f>B94</f>
         <v>0.25</v>
       </c>
-      <c r="I104" s="20">
-        <f>F94</f>
+      <c r="M104" s="20">
+        <f>J94</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="J104" s="20">
-        <f>K94</f>
-        <v>1</v>
-      </c>
-      <c r="L104" s="20"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N104" s="20">
+        <f>O94</f>
+        <v>1</v>
+      </c>
+      <c r="P104" s="20"/>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
         <v>194</v>
       </c>
@@ -7107,40 +8324,44 @@
         <v>1</v>
       </c>
       <c r="C105" s="9">
-        <f>F79</f>
+        <f>J79</f>
         <v>0.5</v>
       </c>
-      <c r="D105" s="9">
-        <f>K79</f>
-        <v>1</v>
-      </c>
-      <c r="E105" s="9">
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9">
+        <f>O79</f>
+        <v>1</v>
+      </c>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9">
         <f>B87</f>
         <v>1</v>
       </c>
-      <c r="F105" s="9">
-        <f>F87</f>
-        <v>1</v>
-      </c>
-      <c r="G105" s="20">
-        <f>K87</f>
+      <c r="J105" s="9">
+        <f>J87</f>
+        <v>1</v>
+      </c>
+      <c r="K105" s="20">
+        <f>O87</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="H105" s="9">
+      <c r="L105" s="9">
         <f>B95</f>
         <v>1</v>
       </c>
-      <c r="I105" s="20">
-        <f>F95</f>
-        <v>1</v>
-      </c>
-      <c r="J105" s="20">
-        <f>K95</f>
-        <v>1</v>
-      </c>
-      <c r="L105" s="20"/>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M105" s="20">
+        <f>J95</f>
+        <v>1</v>
+      </c>
+      <c r="N105" s="20">
+        <f>O95</f>
+        <v>1</v>
+      </c>
+      <c r="P105" s="20"/>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>195</v>
       </c>
@@ -7149,40 +8370,44 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C106" s="9">
-        <f>F80</f>
-        <v>1</v>
-      </c>
-      <c r="D106" s="9">
-        <f>K80</f>
-        <v>1</v>
-      </c>
-      <c r="E106" s="9">
+        <f>J80</f>
+        <v>1</v>
+      </c>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9">
+        <f>O80</f>
+        <v>1</v>
+      </c>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9">
         <f>B88</f>
         <v>0.75</v>
       </c>
-      <c r="F106" s="9">
-        <f>F88</f>
-        <v>1</v>
-      </c>
-      <c r="G106" s="20">
-        <f>K88</f>
+      <c r="J106" s="9">
+        <f>J88</f>
+        <v>1</v>
+      </c>
+      <c r="K106" s="20">
+        <f>O88</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="H106" s="9">
+      <c r="L106" s="9">
         <f>B96</f>
         <v>0.5</v>
       </c>
-      <c r="I106" s="9">
-        <f>F96</f>
-        <v>1</v>
-      </c>
-      <c r="J106" s="9">
-        <f>K96</f>
-        <v>1</v>
-      </c>
-      <c r="L106" s="9"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M106" s="9">
+        <f>J96</f>
+        <v>1</v>
+      </c>
+      <c r="N106" s="9">
+        <f>O96</f>
+        <v>1</v>
+      </c>
+      <c r="P106" s="9"/>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
         <v>253</v>
       </c>
@@ -7191,41 +8416,45 @@
         <v>1</v>
       </c>
       <c r="C107" s="9">
-        <f t="shared" ref="C107:C109" si="10">F81</f>
-        <v>1</v>
-      </c>
-      <c r="D107" s="9">
-        <f t="shared" ref="D107:D109" si="11">K81</f>
+        <f t="shared" ref="C107:C109" si="12">J81</f>
+        <v>1</v>
+      </c>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9">
+        <f t="shared" ref="F107:F109" si="13">O81</f>
         <v>0.75</v>
       </c>
-      <c r="E107" s="9">
-        <f t="shared" ref="E107:E109" si="12">B89</f>
-        <v>1</v>
-      </c>
-      <c r="F107" s="9">
-        <f t="shared" ref="F107:F109" si="13">F89</f>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9">
+        <f t="shared" ref="I107:I109" si="14">B89</f>
+        <v>1</v>
+      </c>
+      <c r="J107" s="9">
+        <f t="shared" ref="J107:J109" si="15">J89</f>
         <v>0.25</v>
       </c>
-      <c r="G107" s="20">
-        <f t="shared" ref="G107:G109" si="14">K89</f>
+      <c r="K107" s="20">
+        <f t="shared" ref="K107:K109" si="16">O89</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="H107" s="9">
-        <f t="shared" ref="H107:H109" si="15">B97</f>
+      <c r="L107" s="9">
+        <f t="shared" ref="L107:L109" si="17">B97</f>
         <v>0.5</v>
       </c>
-      <c r="I107" s="9">
-        <f t="shared" ref="I107:I109" si="16">F97</f>
-        <v>1</v>
-      </c>
-      <c r="J107" s="20">
-        <f t="shared" ref="J107:J109" si="17">K97</f>
+      <c r="M107" s="9">
+        <f t="shared" ref="M107:M109" si="18">J97</f>
+        <v>1</v>
+      </c>
+      <c r="N107" s="20">
+        <f t="shared" ref="N107:N109" si="19">O97</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="K107" s="9"/>
-      <c r="L107" s="9"/>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O107" s="9"/>
+      <c r="P107" s="9"/>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
         <v>259</v>
       </c>
@@ -7234,85 +8463,93 @@
         <v>0.5</v>
       </c>
       <c r="C108" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="D108" s="9">
-        <f t="shared" si="11"/>
-        <v>0.75</v>
-      </c>
-      <c r="E108" s="9">
-        <f t="shared" si="12"/>
-        <v>0.75</v>
-      </c>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
       <c r="F108" s="9">
         <f t="shared" si="13"/>
         <v>0.75</v>
       </c>
-      <c r="G108" s="20">
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9">
         <f t="shared" si="14"/>
+        <v>0.75</v>
+      </c>
+      <c r="J108" s="9">
+        <f t="shared" si="15"/>
+        <v>0.75</v>
+      </c>
+      <c r="K108" s="20">
+        <f t="shared" si="16"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="H108" s="9">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="I108" s="9">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="J108" s="9">
+      <c r="L108" s="9">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M108" s="9">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="N108" s="9">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
         <v>264</v>
       </c>
       <c r="B109" s="20">
-        <f t="shared" ref="B109" si="18">B83</f>
+        <f t="shared" ref="B109" si="20">B83</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="C109" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="D109" s="9">
-        <f t="shared" si="11"/>
-        <v>0.75</v>
-      </c>
-      <c r="E109" s="9">
-        <f t="shared" si="12"/>
-        <v>0.75</v>
-      </c>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
       <c r="F109" s="9">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="G109" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9">
         <f t="shared" si="14"/>
+        <v>0.75</v>
+      </c>
+      <c r="J109" s="9">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="K109" s="20">
+        <f t="shared" si="16"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="H109" s="9">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="I109" s="9">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="J109" s="9">
+      <c r="L109" s="9">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M109" s="9">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="N109" s="9">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
         <v>208</v>
       </c>
@@ -7322,35 +8559,39 @@
       <c r="C113" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D113" s="9" t="s">
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E113" s="9" t="s">
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F113" s="9" t="s">
+      <c r="J113" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G113" s="9" t="s">
+      <c r="K113" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H113" s="9" t="s">
+      <c r="L113" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I113" s="9" t="s">
+      <c r="M113" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J113" s="9" t="s">
+      <c r="N113" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K113" s="9" t="s">
+      <c r="O113" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="L113" s="9" t="s">
+      <c r="P113" s="9" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
         <v>193</v>
       </c>
@@ -7362,44 +8603,48 @@
         <f>C104*C19</f>
         <v>10</v>
       </c>
-      <c r="D114" s="9">
-        <f>D104*C20</f>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9">
+        <f>F104*C20</f>
         <v>15</v>
       </c>
-      <c r="E114" s="9">
-        <f>E104*C21</f>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9">
+        <f>I104*C21</f>
         <v>10</v>
       </c>
-      <c r="F114" s="9">
-        <f>F104*C22</f>
+      <c r="J114" s="9">
+        <f>J104*C22</f>
         <v>7.5</v>
       </c>
-      <c r="G114" s="20">
-        <f>G104*C23</f>
+      <c r="K114" s="20">
+        <f>K104*C23</f>
         <v>3.333333333333333</v>
       </c>
-      <c r="H114" s="9">
-        <f>H104*C24</f>
+      <c r="L114" s="9">
+        <f>L104*C24</f>
         <v>1.25</v>
       </c>
-      <c r="I114" s="20">
-        <f>I104*C25</f>
+      <c r="M114" s="20">
+        <f>M104*C25</f>
         <v>2.1428571428571428</v>
       </c>
-      <c r="J114" s="20">
-        <f>J104*C26</f>
+      <c r="N114" s="20">
+        <f>N104*C26</f>
         <v>15</v>
       </c>
-      <c r="K114" s="20">
-        <f>SUM(B114:J114)</f>
+      <c r="O114" s="20">
+        <f>SUM(B114:N114)</f>
         <v>79.226190476190482</v>
       </c>
-      <c r="L114" s="9">
-        <f t="shared" ref="L114:L119" si="19">RANK(K114, $K$114:$K$119, 0)</f>
+      <c r="P114" s="9">
+        <f t="shared" ref="P114:P119" si="21">RANK(O114, $O$114:$O$119, 0)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
         <v>194</v>
       </c>
@@ -7411,44 +8656,48 @@
         <f>C105*C19</f>
         <v>10</v>
       </c>
-      <c r="D115" s="9">
-        <f>D105*C20</f>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9">
+        <f>F105*C20</f>
         <v>15</v>
       </c>
-      <c r="E115" s="9">
-        <f>E105*C21</f>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9">
+        <f>I105*C21</f>
         <v>10</v>
       </c>
-      <c r="F115" s="9">
-        <f>F105*C22</f>
+      <c r="J115" s="9">
+        <f>J105*C22</f>
         <v>10</v>
       </c>
-      <c r="G115" s="20">
-        <f>G105*C23</f>
+      <c r="K115" s="20">
+        <f>K105*C23</f>
         <v>3.333333333333333</v>
       </c>
-      <c r="H115" s="9">
-        <f>H105*C24</f>
+      <c r="L115" s="9">
+        <f>L105*C24</f>
         <v>5</v>
       </c>
-      <c r="I115" s="9">
-        <f>I105*C25</f>
+      <c r="M115" s="9">
+        <f>M105*C25</f>
         <v>5</v>
       </c>
-      <c r="J115" s="20">
-        <f>J105*C26</f>
+      <c r="N115" s="20">
+        <f>N105*C26</f>
         <v>15</v>
       </c>
-      <c r="K115" s="20">
-        <f>SUM(B115:J115)</f>
+      <c r="O115" s="20">
+        <f>SUM(B115:N115)</f>
         <v>88.333333333333343</v>
       </c>
-      <c r="L115" s="9">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P115" s="9">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
         <v>195</v>
       </c>
@@ -7460,44 +8709,48 @@
         <f>C106*C19</f>
         <v>20</v>
       </c>
-      <c r="D116" s="9">
-        <f>D106*C20</f>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9">
+        <f>F106*C20</f>
         <v>15</v>
       </c>
-      <c r="E116" s="9">
-        <f>E106*C21</f>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9">
+        <f>I106*C21</f>
         <v>7.5</v>
       </c>
-      <c r="F116" s="9">
-        <f>F106*C22</f>
+      <c r="J116" s="9">
+        <f>J106*C22</f>
         <v>10</v>
       </c>
-      <c r="G116" s="20">
-        <f>G106*C23</f>
+      <c r="K116" s="20">
+        <f>K106*C23</f>
         <v>3.333333333333333</v>
       </c>
-      <c r="H116" s="9">
-        <f>H106*C24</f>
+      <c r="L116" s="9">
+        <f>L106*C24</f>
         <v>2.5</v>
       </c>
-      <c r="I116" s="9">
-        <f>I106*C25</f>
+      <c r="M116" s="9">
+        <f>M106*C25</f>
         <v>5</v>
       </c>
-      <c r="J116" s="9">
-        <f>J106*C26</f>
+      <c r="N116" s="9">
+        <f>N106*C26</f>
         <v>15</v>
       </c>
-      <c r="K116" s="20">
-        <f>SUM(B116:J116)</f>
+      <c r="O116" s="20">
+        <f>SUM(B116:N116)</f>
         <v>83.333333333333343</v>
       </c>
-      <c r="L116" s="9">
-        <f t="shared" si="19"/>
+      <c r="P116" s="9">
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
         <v>253</v>
       </c>
@@ -7509,45 +8762,49 @@
         <f>C107*C19</f>
         <v>20</v>
       </c>
-      <c r="D117" s="9">
-        <f>D107*C20</f>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9">
+        <f>F107*C20</f>
         <v>11.25</v>
       </c>
-      <c r="E117" s="9">
-        <f>E107*C21</f>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9">
+        <f>I107*C21</f>
         <v>10</v>
       </c>
-      <c r="F117" s="9">
-        <f>F107*C22</f>
+      <c r="J117" s="9">
+        <f>J107*C22</f>
         <v>2.5</v>
       </c>
-      <c r="G117" s="20">
-        <f>G107*C23</f>
+      <c r="K117" s="20">
+        <f>K107*C23</f>
         <v>3.333333333333333</v>
       </c>
-      <c r="H117" s="9">
-        <f>H107*C24</f>
+      <c r="L117" s="9">
+        <f>L107*C24</f>
         <v>2.5</v>
       </c>
-      <c r="I117" s="9">
-        <f>I107*C25</f>
+      <c r="M117" s="9">
+        <f>M107*C25</f>
         <v>5</v>
       </c>
-      <c r="J117" s="20">
-        <f>J107*C26</f>
+      <c r="N117" s="20">
+        <f>N107*C26</f>
         <v>10</v>
       </c>
-      <c r="K117" s="20">
-        <f t="shared" ref="K117:K119" si="20">SUM(B117:J117)</f>
+      <c r="O117" s="20">
+        <f t="shared" ref="O117:O119" si="22">SUM(B117:N117)</f>
         <v>79.583333333333343</v>
       </c>
-      <c r="L117" s="9">
-        <f t="shared" si="19"/>
+      <c r="P117" s="9">
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
-      <c r="N117" s="9"/>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="R117" s="9"/>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
         <v>259</v>
       </c>
@@ -7559,44 +8816,48 @@
         <f>C108*C19</f>
         <v>10</v>
       </c>
-      <c r="D118" s="9">
-        <f>D108*C20</f>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9">
+        <f>F108*C20</f>
         <v>11.25</v>
       </c>
-      <c r="E118" s="9">
-        <f>E108*C21</f>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9">
+        <f>I108*C21</f>
         <v>7.5</v>
       </c>
-      <c r="F118" s="9">
-        <f>F108*C22</f>
+      <c r="J118" s="9">
+        <f>J108*C22</f>
         <v>7.5</v>
       </c>
-      <c r="G118" s="20">
-        <f>G108*C23</f>
+      <c r="K118" s="20">
+        <f>K108*C23</f>
         <v>3.333333333333333</v>
       </c>
-      <c r="H118" s="9">
-        <f>H108*C24</f>
+      <c r="L118" s="9">
+        <f>L108*C24</f>
         <v>5</v>
       </c>
-      <c r="I118" s="9">
-        <f>I108*C25</f>
+      <c r="M118" s="9">
+        <f>M108*C25</f>
         <v>5</v>
       </c>
-      <c r="J118" s="9">
-        <f>J108*C26</f>
+      <c r="N118" s="9">
+        <f>N108*C26</f>
         <v>15</v>
       </c>
-      <c r="K118" s="20">
-        <f t="shared" si="20"/>
+      <c r="O118" s="20">
+        <f t="shared" si="22"/>
         <v>72.083333333333343</v>
       </c>
-      <c r="L118" s="9">
-        <f>RANK(K118, $K$114:$K$119, 0)</f>
+      <c r="P118" s="9">
+        <f>RANK(O118, $O$114:$O$119, 0)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A119" s="9" t="s">
         <v>264</v>
       </c>
@@ -7608,52 +8869,57 @@
         <f>C109*19</f>
         <v>9.5</v>
       </c>
-      <c r="D119" s="9">
-        <f>D109*C20</f>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9">
+        <f>F109*C20</f>
         <v>11.25</v>
       </c>
-      <c r="E119" s="9">
-        <f>E109*C21</f>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9">
+        <f>I109*C21</f>
         <v>7.5</v>
       </c>
-      <c r="F119" s="9">
-        <f>F109*C22</f>
+      <c r="J119" s="9">
+        <f>J109*C22</f>
         <v>10</v>
       </c>
-      <c r="G119" s="20">
-        <f>G109*C23</f>
+      <c r="K119" s="20">
+        <f>K109*C23</f>
         <v>3.333333333333333</v>
       </c>
-      <c r="H119" s="9">
-        <f>H109*C24</f>
+      <c r="L119" s="9">
+        <f>L109*C24</f>
         <v>5</v>
       </c>
-      <c r="I119" s="9">
-        <f>I109*C25</f>
+      <c r="M119" s="9">
+        <f>M109*C25</f>
         <v>5</v>
       </c>
-      <c r="J119" s="9">
-        <f>J109*C26</f>
+      <c r="N119" s="9">
+        <f>N109*C26</f>
         <v>15</v>
       </c>
-      <c r="K119" s="20">
-        <f t="shared" si="20"/>
+      <c r="O119" s="20">
+        <f t="shared" si="22"/>
         <v>71.583333333333343</v>
       </c>
-      <c r="L119" s="9">
-        <f t="shared" si="19"/>
+      <c r="P119" s="9">
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="L49">
+  <conditionalFormatting sqref="P49">
     <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L50">
+  <conditionalFormatting sqref="P50">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/STUDI KASUS.xlsx
+++ b/STUDI KASUS.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNDIPA\Semester 7\Skripsi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNDIPA\Semester 7\Skripsi\Format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D88FB68-8296-4CFF-9E7A-02A65EC74E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4A5CAB-1D26-425E-82F5-4EA45B0BB698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="691" xr2:uid="{901D0503-6946-40CA-8D36-37B156763246}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="691" activeTab="1" xr2:uid="{901D0503-6946-40CA-8D36-37B156763246}"/>
   </bookViews>
   <sheets>
     <sheet name="Kost" sheetId="3" r:id="rId1"/>
-    <sheet name="Ressponden" sheetId="1" r:id="rId2"/>
-    <sheet name="Bobot Kriteria" sheetId="2" r:id="rId3"/>
-    <sheet name="Studi Kasus for me" sheetId="4" r:id="rId4"/>
-    <sheet name="Studi Kasus for jurnal" sheetId="8" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
-    <sheet name="Hasil Bab 4" sheetId="6" r:id="rId7"/>
-    <sheet name="tumbal" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId2"/>
+    <sheet name="Ressponden" sheetId="1" r:id="rId3"/>
+    <sheet name="Bobot Kriteria" sheetId="2" r:id="rId4"/>
+    <sheet name="Studi Kasus for me" sheetId="4" r:id="rId5"/>
+    <sheet name="Studi Kasus for jurnal" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
+    <sheet name="Hasil Bab 4" sheetId="6" r:id="rId8"/>
+    <sheet name="tumbal" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="328">
   <si>
     <t xml:space="preserve">Biaya </t>
   </si>
@@ -997,12 +998,51 @@
   <si>
     <t>Jalan Sahabat 1 no 17</t>
   </si>
+  <si>
+    <t>Metode / Asumsi</t>
+  </si>
+  <si>
+    <t>Hasil sampel (pembulatan umum)</t>
+  </si>
+  <si>
+    <t>Slovin (e=0{,}05)</t>
+  </si>
+  <si>
+    <t>Slovin (e=0{,}10)</t>
+  </si>
+  <si>
+    <t>Cochran (adjusted, e=0{,}05, Z=1{,}96, p=0{,}5)</t>
+  </si>
+  <si>
+    <t>Cochran (adjusted, e=0{,}10)</t>
+  </si>
+  <si>
+    <t>Krejcie &amp; Morgan (tabel)</t>
+  </si>
+  <si>
+    <t>Isaac &amp; Michael (tabel)</t>
+  </si>
+  <si>
+    <t>Stratified (proporsional)</t>
+  </si>
+  <si>
+    <t>Cluster (two-stage)</t>
+  </si>
+  <si>
+    <t>Rumus</t>
+  </si>
+  <si>
+    <t>n=1+Ne2N​</t>
+  </si>
+  <si>
+    <t>n0​=e2Z2p(1−p)​</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1018,6 +1058,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1051,7 +1099,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1119,6 +1167,15 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2124,7 +2181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E46AEE5-C1DF-4E3B-B1A0-CC373A6F6C73}">
   <dimension ref="A2:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+    <sheetView zoomScale="80" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -2548,6 +2605,107 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF27139-216E-4DDF-8D29-4F55B338C4CC}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2" s="26">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C3" s="26">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C4" s="26">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C5" s="26">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C6" s="26">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C7" s="26">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C8" s="28">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C9" s="28">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7917028-436B-4FE2-9CD4-951DC7160D43}">
   <dimension ref="A1:N25"/>
   <sheetViews>
@@ -3093,7 +3251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB87EEF9-7F2E-4545-9951-0F532151B120}">
   <dimension ref="A1:U27"/>
   <sheetViews>
@@ -3825,7 +3983,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BA1C62-8752-4999-BB16-F79297149C3E}">
   <dimension ref="A1:V112"/>
   <sheetViews>
@@ -5828,7 +5986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6626FB-65A5-4DCB-9E1D-A2FA0EB2B8E1}">
   <dimension ref="A1:T119"/>
   <sheetViews>
@@ -8923,7 +9081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A9D8EC-B5A1-466A-BFA2-9907A5A3DDF1}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8935,7 +9093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BDD87DC-8644-42C8-A7E5-56F463ADE935}">
   <dimension ref="A1:U112"/>
   <sheetViews>
@@ -10677,7 +10835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1EACA8-BD40-42FD-A8BA-50E7DE06EFB6}">
   <dimension ref="A1:K7"/>
   <sheetViews>

--- a/STUDI KASUS.xlsx
+++ b/STUDI KASUS.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNDIPA\Semester 7\Skripsi\Format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4A5CAB-1D26-425E-82F5-4EA45B0BB698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7258D27-BFA5-401C-BE69-C80137A9F4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="691" activeTab="1" xr2:uid="{901D0503-6946-40CA-8D36-37B156763246}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="691" xr2:uid="{901D0503-6946-40CA-8D36-37B156763246}"/>
   </bookViews>
   <sheets>
     <sheet name="Kost" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="10" r:id="rId2"/>
-    <sheet name="Ressponden" sheetId="1" r:id="rId3"/>
-    <sheet name="Bobot Kriteria" sheetId="2" r:id="rId4"/>
-    <sheet name="Studi Kasus for me" sheetId="4" r:id="rId5"/>
-    <sheet name="Studi Kasus for jurnal" sheetId="8" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
-    <sheet name="Hasil Bab 4" sheetId="6" r:id="rId8"/>
-    <sheet name="tumbal" sheetId="9" r:id="rId9"/>
+    <sheet name="Ressponden" sheetId="1" r:id="rId2"/>
+    <sheet name="Bobot Kriteria" sheetId="2" r:id="rId3"/>
+    <sheet name="Studi Kasus for me" sheetId="4" r:id="rId4"/>
+    <sheet name="Studi Kasus for jurnal" sheetId="8" r:id="rId5"/>
+    <sheet name="Hasil Bab 4" sheetId="6" r:id="rId6"/>
+    <sheet name="tumbal" sheetId="9" r:id="rId7"/>
+    <sheet name="Metode Sample" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="354">
   <si>
     <t xml:space="preserve">Biaya </t>
   </si>
@@ -1036,6 +1035,84 @@
   </si>
   <si>
     <t>n0​=e2Z2p(1−p)​</t>
+  </si>
+  <si>
+    <t>Ibu Maya</t>
+  </si>
+  <si>
+    <t>12 juta per tahun</t>
+  </si>
+  <si>
+    <t>3 x 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meteran </t>
+  </si>
+  <si>
+    <t>23,00 dan kunci</t>
+  </si>
+  <si>
+    <t>Pondok Anaqu</t>
+  </si>
+  <si>
+    <t>Jalan Sahabat 3</t>
+  </si>
+  <si>
+    <t>Pondok Merdeka 1</t>
+  </si>
+  <si>
+    <t>Pondok Merdeka 2</t>
+  </si>
+  <si>
+    <t>5 x 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bebas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasur,                        lemari,                      wifi,                           kamar mandi dalam                                        </t>
+  </si>
+  <si>
+    <t>Ac,                              lemari,                      kasur,                        kamar mandi dalam</t>
+  </si>
+  <si>
+    <t>kunci</t>
+  </si>
+  <si>
+    <t>Putri / Putra</t>
+  </si>
+  <si>
+    <t>Jalan Sejati no 5</t>
+  </si>
+  <si>
+    <t>Jalan Sahabat 3 Tamalanrea</t>
+  </si>
+  <si>
+    <t>Ibu Hamida</t>
+  </si>
+  <si>
+    <t>Jalan Sahabat 3 no 30</t>
+  </si>
+  <si>
+    <t>Pondok Vina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+6288705410261,             +6285299765411        </t>
+  </si>
+  <si>
+    <t>+6281213716804</t>
+  </si>
+  <si>
+    <t>+6282311111527</t>
+  </si>
+  <si>
+    <t>Rp. 600.000</t>
+  </si>
+  <si>
+    <t>sandi kunci</t>
+  </si>
+  <si>
+    <t>wc dalam,           wifi</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1176,6 +1253,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2179,424 +2262,710 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E46AEE5-C1DF-4E3B-B1A0-CC373A6F6C73}">
-  <dimension ref="A2:O25"/>
+  <dimension ref="A2:P49"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" customWidth="1"/>
-    <col min="2" max="2" width="28.21875" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" customWidth="1"/>
-    <col min="10" max="10" width="18.109375" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" customWidth="1"/>
-    <col min="13" max="13" width="18.88671875" customWidth="1"/>
-    <col min="14" max="14" width="20.6640625" customWidth="1"/>
-    <col min="15" max="15" width="18.21875" customWidth="1"/>
+    <col min="1" max="2" width="4.44140625" customWidth="1"/>
+    <col min="3" max="3" width="28.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" customWidth="1"/>
+    <col min="14" max="14" width="18.88671875" customWidth="1"/>
+    <col min="15" max="15" width="20.6640625" customWidth="1"/>
+    <col min="16" max="16" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>77</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="O3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="9">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="L4" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="O4" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="9">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="H5" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="I5" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="J5" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="L5" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="N5" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="9">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="G6" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="H6" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="I6" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="J6" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="L6" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="M6" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="N6" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="O6" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="P6" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="9">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="J7" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="L7" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="M7" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="N7" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="O7" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="P7" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="9">
+        <v>6</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="F8" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="J8" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="L8" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="M8" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="N8" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="O8" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="P8" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E21" s="2"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E22" s="2"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E25" s="2"/>
+    <row r="9" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9">
+        <v>8</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9">
+        <v>9</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="9"/>
+      <c r="F13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="9"/>
+      <c r="F14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="9"/>
+      <c r="F15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="9"/>
+      <c r="F16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="9"/>
+      <c r="F17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="9"/>
+      <c r="F18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="9"/>
+      <c r="F19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="9"/>
+      <c r="F20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="9"/>
+      <c r="F21" s="2"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B22" s="9"/>
+      <c r="F22" s="2"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="9"/>
+      <c r="F23" s="2"/>
+      <c r="N23" s="29"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="9"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="9"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="9"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="9"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="9"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="9"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="9"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="9"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B32" s="9"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="9"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="9"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="9"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="9"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="9"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="9"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="9"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="9"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="9"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="9"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="9"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="9"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="9"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="9"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="9"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="9"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2605,107 +2974,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF27139-216E-4DDF-8D29-4F55B338C4CC}">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
-    <col min="2" max="2" width="21.21875" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="B2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C2" s="26">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="B3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C3" s="26">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="C4" s="26">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="C5" s="26">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="C6" s="26">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="C7" s="26">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="C8" s="28">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="C9" s="28">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7917028-436B-4FE2-9CD4-951DC7160D43}">
   <dimension ref="A1:N25"/>
   <sheetViews>
@@ -3251,11 +3519,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB87EEF9-7F2E-4545-9951-0F532151B120}">
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="117" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -3983,7 +4251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BA1C62-8752-4999-BB16-F79297149C3E}">
   <dimension ref="A1:V112"/>
   <sheetViews>
@@ -5986,7 +6254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6626FB-65A5-4DCB-9E1D-A2FA0EB2B8E1}">
   <dimension ref="A1:T119"/>
   <sheetViews>
@@ -9081,19 +9349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A9D8EC-B5A1-466A-BFA2-9907A5A3DDF1}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BDD87DC-8644-42C8-A7E5-56F463ADE935}">
   <dimension ref="A1:U112"/>
   <sheetViews>
@@ -10835,12 +11091,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1EACA8-BD40-42FD-A8BA-50E7DE06EFB6}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" workbookViewId="0">
-      <selection sqref="A1:K7"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11103,4 +11359,105 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF27139-216E-4DDF-8D29-4F55B338C4CC}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2" s="26">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C3" s="26">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C4" s="26">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C5" s="26">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C6" s="26">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C7" s="26">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C8" s="28">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C9" s="28">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/STUDI KASUS.xlsx
+++ b/STUDI KASUS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNDIPA\Semester 7\Skripsi\Format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7258D27-BFA5-401C-BE69-C80137A9F4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D47789E-B891-4112-BCD4-CFEF8D5C4022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="691" xr2:uid="{901D0503-6946-40CA-8D36-37B156763246}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="691" activeTab="4" xr2:uid="{901D0503-6946-40CA-8D36-37B156763246}"/>
   </bookViews>
   <sheets>
     <sheet name="Kost" sheetId="3" r:id="rId1"/>
@@ -2264,7 +2264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E46AEE5-C1DF-4E3B-B1A0-CC373A6F6C73}">
   <dimension ref="A2:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="80" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -3523,8 +3523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB87EEF9-7F2E-4545-9951-0F532151B120}">
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="117" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView zoomScale="117" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6258,7 +6258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6626FB-65A5-4DCB-9E1D-A2FA0EB2B8E1}">
   <dimension ref="A1:T119"/>
   <sheetViews>
-    <sheetView zoomScale="99" zoomScaleNormal="118" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="118" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>

--- a/STUDI KASUS.xlsx
+++ b/STUDI KASUS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNDIPA\Semester 7\Skripsi\Format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D47789E-B891-4112-BCD4-CFEF8D5C4022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2E5B56-42E3-4944-AB9E-2142113A840B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="691" activeTab="4" xr2:uid="{901D0503-6946-40CA-8D36-37B156763246}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="691" xr2:uid="{901D0503-6946-40CA-8D36-37B156763246}"/>
   </bookViews>
   <sheets>
     <sheet name="Kost" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="356">
   <si>
     <t xml:space="preserve">Biaya </t>
   </si>
@@ -1113,6 +1113,12 @@
   </si>
   <si>
     <t>wc dalam,           wifi</t>
+  </si>
+  <si>
+    <t>jenis kost</t>
+  </si>
+  <si>
+    <t>CCTV dan Penjaga</t>
   </si>
 </sst>
 </file>
@@ -2264,8 +2270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E46AEE5-C1DF-4E3B-B1A0-CC373A6F6C73}">
   <dimension ref="A2:P49"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="80" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2666,7 +2672,7 @@
         <v>330</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>58</v>
+        <v>355</v>
       </c>
       <c r="N9" s="5" t="s">
         <v>110</v>
@@ -3523,8 +3529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB87EEF9-7F2E-4545-9951-0F532151B120}">
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="F11" zoomScale="117" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4232,6 +4238,15 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>354</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
       <c r="F27" t="s">
         <v>49</v>
       </c>
@@ -4255,7 +4270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BA1C62-8752-4999-BB16-F79297149C3E}">
   <dimension ref="A1:V112"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="88" workbookViewId="0">
+    <sheetView topLeftCell="B12" zoomScale="88" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -6258,7 +6273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6626FB-65A5-4DCB-9E1D-A2FA0EB2B8E1}">
   <dimension ref="A1:T119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="118" workbookViewId="0">
+    <sheetView topLeftCell="E54" zoomScale="99" zoomScaleNormal="118" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>

--- a/STUDI KASUS.xlsx
+++ b/STUDI KASUS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNDIPA\Semester 7\Skripsi\Format\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KULIAH\SEMESTER 7\PROPOSAL SKRIPSI\skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2E5B56-42E3-4944-AB9E-2142113A840B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3932339F-29A1-4BA0-A255-CA3E85DE8AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="691" xr2:uid="{901D0503-6946-40CA-8D36-37B156763246}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="691" activeTab="3" xr2:uid="{901D0503-6946-40CA-8D36-37B156763246}"/>
   </bookViews>
   <sheets>
     <sheet name="Kost" sheetId="3" r:id="rId1"/>
@@ -2270,30 +2270,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E46AEE5-C1DF-4E3B-B1A0-CC373A6F6C73}">
   <dimension ref="A2:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="80" workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="4.44140625" customWidth="1"/>
-    <col min="3" max="3" width="28.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="25.109375" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" customWidth="1"/>
-    <col min="10" max="10" width="13.77734375" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" customWidth="1"/>
-    <col min="14" max="14" width="18.88671875" customWidth="1"/>
-    <col min="15" max="15" width="20.6640625" customWidth="1"/>
-    <col min="16" max="16" width="18.21875" customWidth="1"/>
+    <col min="1" max="2" width="4.453125" customWidth="1"/>
+    <col min="3" max="3" width="28.1796875" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" customWidth="1"/>
+    <col min="5" max="5" width="25.08984375" customWidth="1"/>
+    <col min="6" max="6" width="18.36328125" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" customWidth="1"/>
+    <col min="9" max="9" width="16.08984375" customWidth="1"/>
+    <col min="10" max="10" width="13.81640625" customWidth="1"/>
+    <col min="11" max="11" width="18.08984375" customWidth="1"/>
+    <col min="12" max="12" width="13.453125" customWidth="1"/>
+    <col min="13" max="13" width="11.453125" customWidth="1"/>
+    <col min="14" max="14" width="18.90625" customWidth="1"/>
+    <col min="15" max="15" width="20.6328125" customWidth="1"/>
+    <col min="16" max="16" width="18.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>77</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="116" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="116" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>7</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>9</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>10</v>
       </c>
@@ -2830,147 +2830,147 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B13" s="9"/>
       <c r="F13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B14" s="9"/>
       <c r="F14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B15" s="9"/>
       <c r="F15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B16" s="9"/>
       <c r="F16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B17" s="9"/>
       <c r="F17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B18" s="9"/>
       <c r="F18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B19" s="9"/>
       <c r="F19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B20" s="9"/>
       <c r="F20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B21" s="9"/>
       <c r="F21" s="2"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B22" s="9"/>
       <c r="F22" s="2"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B23" s="9"/>
       <c r="F23" s="2"/>
       <c r="N23" s="29"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B24" s="9"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B25" s="9"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B26" s="9"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B27" s="9"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B28" s="9"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B29" s="9"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B30" s="9"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B31" s="9"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B32" s="9"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33" s="9"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" s="9"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B35" s="9"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B36" s="9"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B37" s="9"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B38" s="9"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B39" s="9"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B40" s="9"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B41" s="9"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B42" s="9"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B43" s="9"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B44" s="9"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B45" s="9"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B46" s="9"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B47" s="9"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B48" s="9"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="9"/>
     </row>
   </sheetData>
@@ -2987,15 +2987,15 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="4" max="4" width="19.90625" customWidth="1"/>
+    <col min="7" max="7" width="18.08984375" customWidth="1"/>
+    <col min="10" max="10" width="18.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3126,13 +3126,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B12">
         <f>SUM(B2:B11)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B25">
         <f>SUM(B15:B24)</f>
         <v>100</v>
@@ -3533,18 +3533,18 @@
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="14" max="14" width="18.77734375" customWidth="1"/>
+    <col min="14" max="14" width="18.81640625" customWidth="1"/>
     <col min="18" max="18" width="15" customWidth="1"/>
-    <col min="21" max="21" width="19.88671875" customWidth="1"/>
+    <col min="21" max="21" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B12">
         <f>Ressponden!B12</f>
         <v>100</v>
@@ -3891,7 +3891,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="F13" t="s">
         <v>140</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="F14" t="s">
         <v>209</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="F15" t="s">
         <v>210</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>354</v>
       </c>
@@ -4270,28 +4270,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BA1C62-8752-4999-BB16-F79297149C3E}">
   <dimension ref="A1:V112"/>
   <sheetViews>
-    <sheetView topLeftCell="B12" zoomScale="88" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="88" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" customWidth="1"/>
-    <col min="3" max="4" width="10.21875" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" customWidth="1"/>
-    <col min="7" max="7" width="27.44140625" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" customWidth="1"/>
-    <col min="11" max="11" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.6328125" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="4" width="10.1796875" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" customWidth="1"/>
+    <col min="7" max="7" width="27.453125" customWidth="1"/>
+    <col min="8" max="8" width="10.54296875" customWidth="1"/>
+    <col min="9" max="9" width="11.08984375" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" customWidth="1"/>
+    <col min="11" max="11" width="15.81640625" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" customWidth="1"/>
-    <col min="15" max="15" width="20.21875" customWidth="1"/>
-    <col min="19" max="19" width="17.44140625" customWidth="1"/>
+    <col min="13" max="13" width="11.453125" customWidth="1"/>
+    <col min="15" max="15" width="20.1796875" customWidth="1"/>
+    <col min="19" max="19" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>172</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>173</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>25</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>26</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>27</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>28</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B13" s="15"/>
       <c r="G13" t="s">
         <v>140</v>
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B14" s="15"/>
       <c r="G14" t="s">
         <v>209</v>
@@ -4633,7 +4633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>171</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="15"/>
       <c r="G16" t="s">
@@ -4679,7 +4679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
         <v>173</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>19</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>20</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>21</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>22</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>23</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>24</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>25</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>26</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>27</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>28</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4">
@@ -5022,12 +5022,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
         <v>173</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>19</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>20</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>21</v>
       </c>
@@ -5059,15 +5059,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>23</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
         <v>24</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>25</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>26</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>27</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>28</v>
       </c>
@@ -5115,15 +5115,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="18"/>
     </row>
-    <row r="48" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48" s="16" t="s">
         <v>77</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A49" s="12">
         <v>1</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A50" s="12">
         <v>2</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A51" s="12">
         <v>3</v>
       </c>
@@ -5279,12 +5279,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>170</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>193</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>194</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>195</v>
       </c>
@@ -5440,12 +5440,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="9" t="s">
         <v>208</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="9" t="s">
         <v>193</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="s">
         <v>194</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="s">
         <v>195</v>
       </c>
@@ -5589,12 +5589,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="18" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>213</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>193</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>194</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>195</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>216</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>193</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>194</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>195</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>219</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>193</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>194</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>195</v>
       </c>
@@ -5834,12 +5834,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F91" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F92" t="s">
         <v>193</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F93" t="s">
         <v>194</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F94" t="s">
         <v>195</v>
       </c>
@@ -5866,12 +5866,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" s="9" t="s">
         <v>208</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="9" t="s">
         <v>193</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" s="9" t="s">
         <v>194</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" s="9" t="s">
         <v>195</v>
       </c>
@@ -6045,12 +6045,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109" s="9" t="s">
         <v>208</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110" s="9" t="s">
         <v>193</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111" s="9" t="s">
         <v>194</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" s="9" t="s">
         <v>195</v>
       </c>
@@ -6277,28 +6277,28 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" customWidth="1"/>
-    <col min="3" max="5" width="13.21875" customWidth="1"/>
-    <col min="6" max="8" width="20.44140625" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.6328125" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="5" width="13.1796875" customWidth="1"/>
+    <col min="6" max="8" width="20.453125" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" customWidth="1"/>
+    <col min="10" max="10" width="17.6328125" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" customWidth="1"/>
-    <col min="14" max="14" width="14.44140625" customWidth="1"/>
-    <col min="15" max="15" width="15.77734375" customWidth="1"/>
+    <col min="12" max="12" width="10.54296875" customWidth="1"/>
+    <col min="13" max="13" width="11.08984375" customWidth="1"/>
+    <col min="14" max="14" width="14.453125" customWidth="1"/>
+    <col min="15" max="15" width="15.81640625" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="11.44140625" customWidth="1"/>
-    <col min="18" max="18" width="18.44140625" customWidth="1"/>
-    <col min="19" max="19" width="22.21875" customWidth="1"/>
-    <col min="20" max="20" width="33.109375" customWidth="1"/>
-    <col min="24" max="24" width="17.44140625" customWidth="1"/>
+    <col min="17" max="17" width="11.453125" customWidth="1"/>
+    <col min="18" max="18" width="18.453125" customWidth="1"/>
+    <col min="19" max="19" width="22.1796875" customWidth="1"/>
+    <col min="20" max="20" width="33.08984375" customWidth="1"/>
+    <col min="24" max="24" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>172</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>173</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
@@ -6456,7 +6456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>25</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>26</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>27</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="17"/>
       <c r="J12" t="s">
@@ -6549,7 +6549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B13" s="15"/>
       <c r="J13" t="s">
         <v>271</v>
@@ -6570,7 +6570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B14" s="15"/>
       <c r="J14" t="s">
         <v>272</v>
@@ -6591,7 +6591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>171</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="15"/>
       <c r="J16" t="s">
@@ -6625,7 +6625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
         <v>173</v>
       </c>
@@ -6647,7 +6647,7 @@
       <c r="G17" s="9"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>19</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>20</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>21</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>22</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>23</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>24</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>25</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>26</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>27</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17">
@@ -7020,19 +7020,19 @@
       <c r="G27" s="9"/>
       <c r="H27" s="23"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
         <v>173</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>19</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>31.432980599647259</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>20</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>20.321869488536155</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>21</v>
       </c>
@@ -7150,7 +7150,7 @@
         <v>14.766313932980598</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>22</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>11.062610229276896</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>23</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>8.284832451499117</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
         <v>24</v>
       </c>
@@ -7242,7 +7242,7 @@
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>25</v>
       </c>
@@ -7274,7 +7274,7 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>26</v>
       </c>
@@ -7306,7 +7306,7 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>27</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>1.2345679012345678</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -7357,15 +7357,15 @@
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="18"/>
     </row>
-    <row r="48" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="16" t="s">
         <v>77</v>
       </c>
@@ -7406,7 +7406,7 @@
       <c r="P48" s="16"/>
       <c r="Q48" s="16"/>
     </row>
-    <row r="49" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A49" s="16" t="s">
         <v>193</v>
       </c>
@@ -7447,7 +7447,7 @@
       <c r="P49" s="12"/>
       <c r="Q49" s="12"/>
     </row>
-    <row r="50" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A50" s="16" t="s">
         <v>194</v>
       </c>
@@ -7488,7 +7488,7 @@
       <c r="P50" s="12"/>
       <c r="Q50" s="12"/>
     </row>
-    <row r="51" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A51" s="16" t="s">
         <v>195</v>
       </c>
@@ -7529,7 +7529,7 @@
       <c r="P51" s="12"/>
       <c r="Q51" s="12"/>
     </row>
-    <row r="52" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A52" s="16" t="s">
         <v>253</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A53" s="16" t="s">
         <v>259</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" s="16" t="s">
         <v>264</v>
       </c>
@@ -7646,7 +7646,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>170</v>
       </c>
@@ -7687,7 +7687,7 @@
       <c r="Q56" s="9"/>
       <c r="R56" s="9"/>
     </row>
-    <row r="57" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>193</v>
       </c>
@@ -7728,7 +7728,7 @@
       <c r="Q57" s="9"/>
       <c r="R57" s="17"/>
     </row>
-    <row r="58" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>194</v>
       </c>
@@ -7769,7 +7769,7 @@
       <c r="Q58" s="9"/>
       <c r="R58" s="17"/>
     </row>
-    <row r="59" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>195</v>
       </c>
@@ -7810,7 +7810,7 @@
       <c r="Q59" s="9"/>
       <c r="R59" s="17"/>
     </row>
-    <row r="60" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>253</v>
       </c>
@@ -7851,7 +7851,7 @@
       <c r="Q60" s="9"/>
       <c r="R60" s="17"/>
     </row>
-    <row r="61" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A61" s="9" t="s">
         <v>259</v>
       </c>
@@ -7892,7 +7892,7 @@
       <c r="Q61" s="9"/>
       <c r="R61" s="17"/>
     </row>
-    <row r="62" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A62" s="9" t="s">
         <v>264</v>
       </c>
@@ -7933,22 +7933,22 @@
       <c r="Q62" s="9"/>
       <c r="R62" s="17"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
       <c r="Q63" s="9"/>
       <c r="R63" s="17"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>207</v>
       </c>
       <c r="Q64" s="9"/>
       <c r="R64" s="17"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
       <c r="Q65" s="9"/>
       <c r="R65" s="17"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A66" s="9" t="s">
         <v>208</v>
       </c>
@@ -7985,7 +7985,7 @@
       </c>
       <c r="O66" s="9"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="s">
         <v>193</v>
       </c>
@@ -8022,7 +8022,7 @@
       </c>
       <c r="O67" s="9"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="s">
         <v>194</v>
       </c>
@@ -8059,7 +8059,7 @@
       </c>
       <c r="O68" s="9"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A69" s="9" t="s">
         <v>195</v>
       </c>
@@ -8096,7 +8096,7 @@
       </c>
       <c r="O69" s="9"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="s">
         <v>253</v>
       </c>
@@ -8133,7 +8133,7 @@
       </c>
       <c r="O70" s="9"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A71" s="9" t="s">
         <v>259</v>
       </c>
@@ -8170,7 +8170,7 @@
       </c>
       <c r="O71" s="9"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A72" s="9" t="s">
         <v>264</v>
       </c>
@@ -8207,15 +8207,15 @@
       </c>
       <c r="O72" s="9"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
       <c r="N73" s="9"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A74" s="18" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>213</v>
       </c>
@@ -8226,7 +8226,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>193</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>194</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>195</v>
       </c>
@@ -8295,7 +8295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>253</v>
       </c>
@@ -8318,7 +8318,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>259</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>264</v>
       </c>
@@ -8364,7 +8364,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>300</v>
       </c>
@@ -8375,7 +8375,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>193</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>194</v>
       </c>
@@ -8421,7 +8421,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>195</v>
       </c>
@@ -8444,7 +8444,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>253</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>259</v>
       </c>
@@ -8490,7 +8490,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>264</v>
       </c>
@@ -8513,7 +8513,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>297</v>
       </c>
@@ -8524,7 +8524,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>193</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>194</v>
       </c>
@@ -8572,7 +8572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>195</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>253</v>
       </c>
@@ -8618,7 +8618,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>259</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>264</v>
       </c>
@@ -8664,16 +8664,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="J100" s="19"/>
       <c r="O100" s="19"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A103" s="9" t="s">
         <v>208</v>
       </c>
@@ -8710,7 +8710,7 @@
       </c>
       <c r="P103" s="9"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A104" s="9" t="s">
         <v>193</v>
       </c>
@@ -8756,7 +8756,7 @@
       </c>
       <c r="P104" s="20"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A105" s="9" t="s">
         <v>194</v>
       </c>
@@ -8802,7 +8802,7 @@
       </c>
       <c r="P105" s="20"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A106" s="9" t="s">
         <v>195</v>
       </c>
@@ -8848,7 +8848,7 @@
       </c>
       <c r="P106" s="9"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A107" s="9" t="s">
         <v>253</v>
       </c>
@@ -8895,7 +8895,7 @@
       <c r="O107" s="9"/>
       <c r="P107" s="9"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A108" s="9" t="s">
         <v>259</v>
       </c>
@@ -8940,7 +8940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A109" s="9" t="s">
         <v>264</v>
       </c>
@@ -8985,12 +8985,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A113" s="9" t="s">
         <v>208</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A114" s="9" t="s">
         <v>193</v>
       </c>
@@ -9085,7 +9085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A115" s="9" t="s">
         <v>194</v>
       </c>
@@ -9138,7 +9138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A116" s="9" t="s">
         <v>195</v>
       </c>
@@ -9191,7 +9191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A117" s="9" t="s">
         <v>253</v>
       </c>
@@ -9245,7 +9245,7 @@
       </c>
       <c r="R117" s="9"/>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A118" s="9" t="s">
         <v>259</v>
       </c>
@@ -9298,7 +9298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A119" s="9" t="s">
         <v>264</v>
       </c>
@@ -9372,24 +9372,24 @@
       <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" customWidth="1"/>
-    <col min="6" max="6" width="27.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" customWidth="1"/>
-    <col min="10" max="10" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.6328125" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" customWidth="1"/>
+    <col min="6" max="6" width="27.453125" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" customWidth="1"/>
+    <col min="8" max="8" width="11.08984375" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" customWidth="1"/>
+    <col min="10" max="10" width="15.81640625" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" customWidth="1"/>
-    <col min="14" max="14" width="20.21875" customWidth="1"/>
-    <col min="18" max="18" width="17.44140625" customWidth="1"/>
+    <col min="12" max="12" width="11.453125" customWidth="1"/>
+    <col min="14" max="14" width="20.1796875" customWidth="1"/>
+    <col min="18" max="18" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>172</v>
       </c>
@@ -9400,12 +9400,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="U2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
@@ -9434,7 +9434,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
@@ -9463,7 +9463,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
@@ -9492,7 +9492,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
@@ -9521,7 +9521,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
@@ -9547,7 +9547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
@@ -9576,7 +9576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>25</v>
       </c>
@@ -9605,7 +9605,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>26</v>
       </c>
@@ -9616,7 +9616,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>27</v>
       </c>
@@ -9651,7 +9651,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>28</v>
       </c>
@@ -9686,7 +9686,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B13" s="15"/>
       <c r="F13" t="s">
         <v>140</v>
@@ -9716,7 +9716,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B14" s="15"/>
       <c r="F14" t="s">
         <v>209</v>
@@ -9746,7 +9746,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>171</v>
       </c>
@@ -9779,7 +9779,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="15"/>
       <c r="F16" t="s">
@@ -9804,7 +9804,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
         <v>173</v>
       </c>
@@ -9830,7 +9830,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>19</v>
       </c>
@@ -9851,7 +9851,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>20</v>
       </c>
@@ -9869,7 +9869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>21</v>
       </c>
@@ -9887,7 +9887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>22</v>
       </c>
@@ -9917,7 +9917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>23</v>
       </c>
@@ -9947,7 +9947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>24</v>
       </c>
@@ -9971,7 +9971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>25</v>
       </c>
@@ -9995,7 +9995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>26</v>
       </c>
@@ -10019,7 +10019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>27</v>
       </c>
@@ -10043,7 +10043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>28</v>
       </c>
@@ -10067,7 +10067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4">
@@ -10075,12 +10075,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
         <v>173</v>
       </c>
@@ -10088,7 +10088,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>19</v>
       </c>
@@ -10096,7 +10096,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>20</v>
       </c>
@@ -10104,7 +10104,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>21</v>
       </c>
@@ -10112,7 +10112,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>22</v>
       </c>
@@ -10120,7 +10120,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>23</v>
       </c>
@@ -10128,7 +10128,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
         <v>24</v>
       </c>
@@ -10136,7 +10136,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>25</v>
       </c>
@@ -10144,7 +10144,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>26</v>
       </c>
@@ -10152,7 +10152,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>27</v>
       </c>
@@ -10160,7 +10160,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>28</v>
       </c>
@@ -10168,15 +10168,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="18"/>
     </row>
-    <row r="48" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48" s="16" t="s">
         <v>77</v>
       </c>
@@ -10214,7 +10214,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="12">
         <v>1</v>
       </c>
@@ -10230,7 +10230,7 @@
       <c r="K49" s="12"/>
       <c r="L49" s="12"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="12">
         <v>2</v>
       </c>
@@ -10246,7 +10246,7 @@
       <c r="K50" s="12"/>
       <c r="L50" s="12"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="12">
         <v>3</v>
       </c>
@@ -10262,12 +10262,12 @@
       <c r="K51" s="12"/>
       <c r="L51" s="12"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>170</v>
       </c>
@@ -10305,7 +10305,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>193</v>
       </c>
@@ -10321,7 +10321,7 @@
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>194</v>
       </c>
@@ -10337,7 +10337,7 @@
       <c r="K58" s="12"/>
       <c r="L58" s="12"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>195</v>
       </c>
@@ -10353,12 +10353,12 @@
       <c r="K59" s="12"/>
       <c r="L59" s="12"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="9" t="s">
         <v>208</v>
       </c>
@@ -10393,7 +10393,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="9" t="s">
         <v>193</v>
       </c>
@@ -10408,7 +10408,7 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="s">
         <v>194</v>
       </c>
@@ -10423,7 +10423,7 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="s">
         <v>195</v>
       </c>
@@ -10438,12 +10438,12 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="18" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>213</v>
       </c>
@@ -10454,7 +10454,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>193</v>
       </c>
@@ -10477,7 +10477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>194</v>
       </c>
@@ -10500,7 +10500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>195</v>
       </c>
@@ -10523,7 +10523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>216</v>
       </c>
@@ -10534,7 +10534,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>193</v>
       </c>
@@ -10557,7 +10557,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>194</v>
       </c>
@@ -10580,7 +10580,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>195</v>
       </c>
@@ -10603,7 +10603,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>219</v>
       </c>
@@ -10614,7 +10614,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>193</v>
       </c>
@@ -10637,7 +10637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>194</v>
       </c>
@@ -10660,7 +10660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>195</v>
       </c>
@@ -10683,12 +10683,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E91" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E92" t="s">
         <v>193</v>
       </c>
@@ -10697,7 +10697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E93" t="s">
         <v>194</v>
       </c>
@@ -10706,7 +10706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E94" t="s">
         <v>195</v>
       </c>
@@ -10715,12 +10715,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="9" t="s">
         <v>208</v>
       </c>
@@ -10755,7 +10755,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="9" t="s">
         <v>193</v>
       </c>
@@ -10800,7 +10800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="9" t="s">
         <v>194</v>
       </c>
@@ -10845,7 +10845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="9" t="s">
         <v>195</v>
       </c>
@@ -10890,12 +10890,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" s="9" t="s">
         <v>208</v>
       </c>
@@ -10936,7 +10936,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" s="9" t="s">
         <v>193</v>
       </c>
@@ -10989,7 +10989,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" s="9" t="s">
         <v>194</v>
       </c>
@@ -11042,7 +11042,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" s="9" t="s">
         <v>195</v>
       </c>
@@ -11114,19 +11114,19 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" customWidth="1"/>
-    <col min="7" max="7" width="19.21875" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" customWidth="1"/>
-    <col min="10" max="10" width="21.21875" customWidth="1"/>
-    <col min="11" max="11" width="26.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" customWidth="1"/>
+    <col min="5" max="5" width="23.90625" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" customWidth="1"/>
+    <col min="9" max="9" width="13.90625" customWidth="1"/>
+    <col min="10" max="10" width="21.1796875" customWidth="1"/>
+    <col min="11" max="11" width="26.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>77</v>
       </c>
@@ -11161,7 +11161,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>193</v>
       </c>
@@ -11196,7 +11196,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="21" t="s">
         <v>194</v>
       </c>
@@ -11231,7 +11231,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
         <v>195</v>
       </c>
@@ -11266,7 +11266,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
         <v>253</v>
       </c>
@@ -11301,7 +11301,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
         <v>259</v>
       </c>
@@ -11336,7 +11336,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
         <v>264</v>
       </c>
@@ -11384,14 +11384,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
-    <col min="2" max="2" width="21.21875" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" customWidth="1"/>
+    <col min="1" max="1" width="20.08984375" customWidth="1"/>
+    <col min="2" max="2" width="21.1796875" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>315</v>
       </c>
@@ -11402,7 +11402,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>317</v>
       </c>
@@ -11413,7 +11413,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>318</v>
       </c>
@@ -11424,7 +11424,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>319</v>
       </c>
@@ -11432,7 +11432,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>320</v>
       </c>
@@ -11440,7 +11440,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>321</v>
       </c>
@@ -11448,7 +11448,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>322</v>
       </c>
@@ -11456,7 +11456,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>323</v>
       </c>
@@ -11464,7 +11464,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>324</v>
       </c>

--- a/STUDI KASUS.xlsx
+++ b/STUDI KASUS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KULIAH\SEMESTER 7\PROPOSAL SKRIPSI\skripsi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNDIPA\Semester 7\Skripsi\Format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3932339F-29A1-4BA0-A255-CA3E85DE8AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD41D100-D637-4B89-9DC6-8ED7B5132B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="691" activeTab="3" xr2:uid="{901D0503-6946-40CA-8D36-37B156763246}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="691" activeTab="5" xr2:uid="{901D0503-6946-40CA-8D36-37B156763246}"/>
   </bookViews>
   <sheets>
     <sheet name="Kost" sheetId="3" r:id="rId1"/>
@@ -19,8 +19,7 @@
     <sheet name="Studi Kasus for me" sheetId="4" r:id="rId4"/>
     <sheet name="Studi Kasus for jurnal" sheetId="8" r:id="rId5"/>
     <sheet name="Hasil Bab 4" sheetId="6" r:id="rId6"/>
-    <sheet name="tumbal" sheetId="9" r:id="rId7"/>
-    <sheet name="Metode Sample" sheetId="10" r:id="rId8"/>
+    <sheet name="Metode Sample" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="367">
   <si>
     <t xml:space="preserve">Biaya </t>
   </si>
@@ -1119,6 +1118,39 @@
   </si>
   <si>
     <t>CCTV dan Penjaga</t>
+  </si>
+  <si>
+    <t>bobot roc</t>
+  </si>
+  <si>
+    <t>jenis pembayaran air</t>
+  </si>
+  <si>
+    <t>umum</t>
+  </si>
+  <si>
+    <t>khusus</t>
+  </si>
+  <si>
+    <t>meteran</t>
+  </si>
+  <si>
+    <t>pembayaran awal</t>
+  </si>
+  <si>
+    <t>Bobot ROC</t>
+  </si>
+  <si>
+    <t>&gt;3km</t>
+  </si>
+  <si>
+    <t>&gt;=2km - 3km</t>
+  </si>
+  <si>
+    <t>&gt;=1km - 2km</t>
+  </si>
+  <si>
+    <t>&gt;=500m - 1km</t>
   </si>
 </sst>
 </file>
@@ -1238,9 +1270,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1265,6 +1294,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2274,26 +2306,26 @@
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="4.453125" customWidth="1"/>
-    <col min="3" max="3" width="28.1796875" customWidth="1"/>
-    <col min="4" max="4" width="17.36328125" customWidth="1"/>
-    <col min="5" max="5" width="25.08984375" customWidth="1"/>
-    <col min="6" max="6" width="18.36328125" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" customWidth="1"/>
-    <col min="9" max="9" width="16.08984375" customWidth="1"/>
-    <col min="10" max="10" width="13.81640625" customWidth="1"/>
-    <col min="11" max="11" width="18.08984375" customWidth="1"/>
-    <col min="12" max="12" width="13.453125" customWidth="1"/>
-    <col min="13" max="13" width="11.453125" customWidth="1"/>
-    <col min="14" max="14" width="18.90625" customWidth="1"/>
-    <col min="15" max="15" width="20.6328125" customWidth="1"/>
-    <col min="16" max="16" width="18.1796875" customWidth="1"/>
+    <col min="1" max="2" width="4.44140625" customWidth="1"/>
+    <col min="3" max="3" width="28.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" customWidth="1"/>
+    <col min="14" max="14" width="18.88671875" customWidth="1"/>
+    <col min="15" max="15" width="20.6640625" customWidth="1"/>
+    <col min="16" max="16" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>77</v>
       </c>
@@ -2343,7 +2375,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -2390,7 +2422,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="116" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -2437,7 +2469,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="116" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -2484,7 +2516,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -2534,7 +2566,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -2584,7 +2616,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="87" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -2634,7 +2666,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>7</v>
       </c>
@@ -2659,7 +2691,7 @@
       <c r="H9" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="29" t="s">
         <v>339</v>
       </c>
       <c r="J9" s="9" t="s">
@@ -2684,7 +2716,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -2730,7 +2762,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>9</v>
       </c>
@@ -2780,7 +2812,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>10</v>
       </c>
@@ -2830,147 +2862,147 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B13" s="9"/>
       <c r="F13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B14" s="9"/>
       <c r="F14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B15" s="9"/>
       <c r="F15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
       <c r="F16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="9"/>
       <c r="F17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="9"/>
       <c r="F18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="9"/>
       <c r="F19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="9"/>
       <c r="F20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
       <c r="F21" s="2"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="9"/>
       <c r="F22" s="2"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="9"/>
       <c r="F23" s="2"/>
-      <c r="N23" s="29"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="N23" s="28"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="9"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="9"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="9"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="9"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="9"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="9"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="9"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="9"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="9"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="9"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="9"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="9"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="9"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="9"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="9"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="9"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="9"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="9"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="9"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="9"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="9"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="9"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="9"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="9"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="9"/>
     </row>
   </sheetData>
@@ -2987,15 +3019,15 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.453125" customWidth="1"/>
-    <col min="4" max="4" width="19.90625" customWidth="1"/>
-    <col min="7" max="7" width="18.08984375" customWidth="1"/>
-    <col min="10" max="10" width="18.54296875" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -3006,7 +3038,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3018,7 +3050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3030,7 +3062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3042,7 +3074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3054,7 +3086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3066,7 +3098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3078,7 +3110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3090,7 +3122,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3102,7 +3134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3114,7 +3146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3126,13 +3158,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12">
         <f>SUM(B2:B11)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3146,7 +3178,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -3178,7 +3210,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -3210,7 +3242,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -3242,7 +3274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -3274,7 +3306,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -3306,7 +3338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -3338,7 +3370,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -3370,7 +3402,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -3402,7 +3434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -3434,7 +3466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -3466,7 +3498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -3498,7 +3530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B25">
         <f>SUM(B15:B24)</f>
         <v>100</v>
@@ -3527,24 +3559,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB87EEF9-7F2E-4545-9951-0F532151B120}">
-  <dimension ref="A1:U27"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView topLeftCell="F11" zoomScale="117" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView topLeftCell="A3" zoomScale="117" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="14" max="14" width="18.81640625" customWidth="1"/>
-    <col min="18" max="18" width="15" customWidth="1"/>
-    <col min="21" max="21" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="3" max="4" width="25" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="15" max="15" width="18.77734375" customWidth="1"/>
+    <col min="19" max="19" width="15" customWidth="1"/>
+    <col min="22" max="22" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3554,14 +3586,17 @@
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3572,11 +3607,15 @@
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U2" t="s">
+      <c r="D2" s="1">
+        <f>(1 + (1/9) + (1/9)/9)</f>
+        <v>1.1234567901234569</v>
+      </c>
+      <c r="V2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3587,29 +3626,30 @@
       <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" s="1"/>
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>3</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>25</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>40</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3620,29 +3660,30 @@
       <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s">
+      <c r="D4" s="1"/>
+      <c r="G4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>11</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>29</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>11</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>29</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>11</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3653,29 +3694,30 @@
       <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
+      <c r="D5" s="1"/>
+      <c r="G5" t="s">
         <v>31</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
         <v>51</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="N5">
+      <c r="L5">
         <v>1</v>
       </c>
       <c r="O5">
         <v>1</v>
       </c>
-      <c r="U5" t="s">
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="V5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3686,29 +3728,30 @@
       <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F6" t="s">
+      <c r="D6" s="1"/>
+      <c r="G6" t="s">
         <v>32</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>2</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>52</v>
       </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="N6">
+      <c r="L6">
         <v>2</v>
       </c>
       <c r="O6">
         <v>2</v>
       </c>
-      <c r="U6" t="s">
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="V6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3719,28 +3762,29 @@
       <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F7" t="s">
+      <c r="D7" s="1"/>
+      <c r="G7" t="s">
         <v>33</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>3</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>53</v>
       </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="N7">
+      <c r="L7">
         <v>3</v>
       </c>
       <c r="O7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="P7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>354</v>
       </c>
       <c r="B8" s="1">
         <f>Ressponden!B8</f>
@@ -3749,29 +3793,30 @@
       <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F8" t="s">
+      <c r="D8" s="1"/>
+      <c r="G8" t="s">
         <v>34</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>4</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>54</v>
       </c>
-      <c r="K8">
-        <v>4</v>
-      </c>
-      <c r="N8">
+      <c r="L8">
         <v>4</v>
       </c>
       <c r="O8">
         <v>4</v>
       </c>
-      <c r="U8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="P8">
+        <v>4</v>
+      </c>
+      <c r="V8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3782,29 +3827,30 @@
       <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F9" t="s">
+      <c r="D9" s="1"/>
+      <c r="G9" t="s">
         <v>35</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>5</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>55</v>
       </c>
-      <c r="K9">
-        <v>5</v>
-      </c>
-      <c r="N9">
+      <c r="L9">
         <v>5</v>
       </c>
       <c r="O9">
         <v>5</v>
       </c>
-      <c r="U9" t="s">
+      <c r="P9">
+        <v>5</v>
+      </c>
+      <c r="V9" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -3815,13 +3861,14 @@
       <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="U10" t="s">
+      <c r="D10" s="1"/>
+      <c r="V10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>357</v>
       </c>
       <c r="B11" s="1">
         <f>Ressponden!B11</f>
@@ -3830,184 +3877,185 @@
       <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E11" t="s">
+      <c r="D11" s="1"/>
+      <c r="F11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="G11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
         <v>23</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>4</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>26</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>41</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>28</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>43</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B12">
         <f>Ressponden!B12</f>
         <v>100</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>29</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>11</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>29</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>11</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>29</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>11</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>29</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>11</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="F13" t="s">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
         <v>140</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
         <v>56</v>
       </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
         <v>205</v>
       </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="R13" t="s">
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="S13" t="s">
         <v>68</v>
       </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
-      <c r="U13" t="s">
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="V13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="F14" t="s">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
         <v>209</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>2</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>142</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>2</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>204</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>2</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>69</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>2</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="F15" t="s">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
         <v>210</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>3</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>57</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>3</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>67</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>3</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>70</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>3</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>211</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>4</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>58</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>4</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>71</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>4</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -4017,23 +4065,23 @@
       <c r="C17" t="s">
         <v>44</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>141</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>5</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>5</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -4043,17 +4091,17 @@
       <c r="C18" t="s">
         <v>45</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>27</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>42</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -4063,14 +4111,14 @@
       <c r="C19" t="s">
         <v>45</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>29</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -4080,14 +4128,14 @@
       <c r="C20" t="s">
         <v>44</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>205</v>
       </c>
-      <c r="O20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="P20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -4097,26 +4145,26 @@
       <c r="C21" t="s">
         <v>45</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>21</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>2</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>24</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>5</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>204</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -4126,26 +4174,26 @@
       <c r="C22" t="s">
         <v>44</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>39</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>11</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>29</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>11</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>67</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -4155,20 +4203,20 @@
       <c r="C23" t="s">
         <v>45</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>50</v>
       </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
         <v>59</v>
       </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -4178,20 +4226,20 @@
       <c r="C24" t="s">
         <v>45</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>46</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>2</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>60</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -4201,20 +4249,20 @@
       <c r="C25" t="s">
         <v>45</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>47</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>3</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>61</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -4224,20 +4272,20 @@
       <c r="C26" t="s">
         <v>45</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>48</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>4</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>62</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>354</v>
       </c>
@@ -4247,16 +4295,16 @@
       <c r="C27" t="s">
         <v>45</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>49</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>5</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>63</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>5</v>
       </c>
     </row>
@@ -4270,28 +4318,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BA1C62-8752-4999-BB16-F79297149C3E}">
   <dimension ref="A1:V112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="88" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A11" zoomScale="88" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" customWidth="1"/>
-    <col min="3" max="4" width="10.1796875" customWidth="1"/>
-    <col min="5" max="5" width="20.453125" customWidth="1"/>
-    <col min="7" max="7" width="27.453125" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" customWidth="1"/>
-    <col min="9" max="9" width="11.08984375" customWidth="1"/>
-    <col min="10" max="10" width="14.453125" customWidth="1"/>
-    <col min="11" max="11" width="15.81640625" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="3" max="4" width="10.21875" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+    <col min="7" max="7" width="27.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" customWidth="1"/>
+    <col min="11" max="11" width="15.77734375" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="11.453125" customWidth="1"/>
-    <col min="15" max="15" width="20.1796875" customWidth="1"/>
-    <col min="19" max="19" width="17.453125" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" customWidth="1"/>
+    <col min="15" max="15" width="20.21875" customWidth="1"/>
+    <col min="19" max="19" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>172</v>
       </c>
@@ -4302,7 +4350,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>173</v>
       </c>
@@ -4313,7 +4361,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
@@ -4342,7 +4390,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
@@ -4371,7 +4419,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
@@ -4400,7 +4448,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
@@ -4429,7 +4477,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
@@ -4455,7 +4503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
@@ -4481,7 +4529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>25</v>
       </c>
@@ -4507,7 +4555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>26</v>
       </c>
@@ -4515,7 +4563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>27</v>
       </c>
@@ -4547,7 +4595,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>28</v>
       </c>
@@ -4579,7 +4627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B13" s="15"/>
       <c r="G13" t="s">
         <v>140</v>
@@ -4606,7 +4654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B14" s="15"/>
       <c r="G14" t="s">
         <v>209</v>
@@ -4633,7 +4681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>171</v>
       </c>
@@ -4663,7 +4711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="15"/>
       <c r="G16" t="s">
@@ -4679,7 +4727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>173</v>
       </c>
@@ -4703,7 +4751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>19</v>
       </c>
@@ -4718,6 +4766,10 @@
         <f>(1/10)*(1/1+1/2+1/3+1/4+1/5+1/6+1/7+1/8+1/9+1/10)</f>
         <v>0.29289682539682538</v>
       </c>
+      <c r="E18">
+        <f>(1 + (1/1) + (1/2) + (1/3) + (1/4) + (1/5) + (1/6) + (1/7) + (1/8) + (1/9) + (1/10)/10)</f>
+        <v>3.8389682539682539</v>
+      </c>
       <c r="N18" t="s">
         <v>27</v>
       </c>
@@ -4728,7 +4780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>20</v>
       </c>
@@ -4753,7 +4805,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>21</v>
       </c>
@@ -4778,7 +4830,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>22</v>
       </c>
@@ -4815,7 +4867,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>23</v>
       </c>
@@ -4852,7 +4904,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>24</v>
       </c>
@@ -4883,7 +4935,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>25</v>
       </c>
@@ -4914,7 +4966,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>26</v>
       </c>
@@ -4945,7 +4997,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>27</v>
       </c>
@@ -4976,7 +5028,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>28</v>
       </c>
@@ -5007,7 +5059,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4">
@@ -5022,12 +5074,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>173</v>
       </c>
@@ -5035,7 +5087,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>19</v>
       </c>
@@ -5043,7 +5095,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>20</v>
       </c>
@@ -5051,7 +5103,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>21</v>
       </c>
@@ -5059,7 +5111,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>22</v>
       </c>
@@ -5067,7 +5119,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>23</v>
       </c>
@@ -5075,7 +5127,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>24</v>
       </c>
@@ -5083,7 +5135,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>25</v>
       </c>
@@ -5091,7 +5143,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>26</v>
       </c>
@@ -5099,7 +5151,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>27</v>
       </c>
@@ -5107,7 +5159,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>28</v>
       </c>
@@ -5115,15 +5167,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="18"/>
     </row>
-    <row r="48" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
         <v>77</v>
       </c>
@@ -5162,7 +5214,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49" s="12">
         <v>1</v>
       </c>
@@ -5201,7 +5253,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="12">
         <v>2</v>
       </c>
@@ -5240,7 +5292,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="12">
         <v>3</v>
       </c>
@@ -5279,12 +5331,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>170</v>
       </c>
@@ -5323,7 +5375,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>193</v>
       </c>
@@ -5362,7 +5414,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>194</v>
       </c>
@@ -5401,7 +5453,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>195</v>
       </c>
@@ -5440,12 +5492,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>208</v>
       </c>
@@ -5481,7 +5533,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>193</v>
       </c>
@@ -5517,7 +5569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>194</v>
       </c>
@@ -5553,7 +5605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>195</v>
       </c>
@@ -5589,12 +5641,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="18" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>213</v>
       </c>
@@ -5605,7 +5657,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>193</v>
       </c>
@@ -5628,7 +5680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>194</v>
       </c>
@@ -5651,7 +5703,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>195</v>
       </c>
@@ -5674,7 +5726,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>216</v>
       </c>
@@ -5685,7 +5737,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>193</v>
       </c>
@@ -5708,7 +5760,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>194</v>
       </c>
@@ -5731,7 +5783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>195</v>
       </c>
@@ -5754,7 +5806,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>219</v>
       </c>
@@ -5765,7 +5817,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>193</v>
       </c>
@@ -5788,7 +5840,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>194</v>
       </c>
@@ -5811,7 +5863,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>195</v>
       </c>
@@ -5834,12 +5886,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F91" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F92" t="s">
         <v>193</v>
       </c>
@@ -5848,7 +5900,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F93" t="s">
         <v>194</v>
       </c>
@@ -5857,7 +5909,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F94" t="s">
         <v>195</v>
       </c>
@@ -5866,12 +5918,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>208</v>
       </c>
@@ -5907,7 +5959,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
         <v>193</v>
       </c>
@@ -5953,7 +6005,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
         <v>194</v>
       </c>
@@ -5999,7 +6051,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>195</v>
       </c>
@@ -6045,12 +6097,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
         <v>208</v>
       </c>
@@ -6092,7 +6144,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
         <v>193</v>
       </c>
@@ -6146,7 +6198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
         <v>194</v>
       </c>
@@ -6200,7 +6252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
         <v>195</v>
       </c>
@@ -6273,32 +6325,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6626FB-65A5-4DCB-9E1D-A2FA0EB2B8E1}">
   <dimension ref="A1:T119"/>
   <sheetViews>
-    <sheetView topLeftCell="E54" zoomScale="99" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="A11" zoomScale="99" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" customWidth="1"/>
-    <col min="3" max="5" width="13.1796875" customWidth="1"/>
-    <col min="6" max="8" width="20.453125" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" customWidth="1"/>
-    <col min="10" max="10" width="17.6328125" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="3" max="5" width="13.21875" customWidth="1"/>
+    <col min="6" max="8" width="20.44140625" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="10.54296875" customWidth="1"/>
-    <col min="13" max="13" width="11.08984375" customWidth="1"/>
-    <col min="14" max="14" width="14.453125" customWidth="1"/>
-    <col min="15" max="15" width="15.81640625" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" customWidth="1"/>
+    <col min="14" max="14" width="14.44140625" customWidth="1"/>
+    <col min="15" max="15" width="15.77734375" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="11.453125" customWidth="1"/>
-    <col min="18" max="18" width="18.453125" customWidth="1"/>
-    <col min="19" max="19" width="22.1796875" customWidth="1"/>
-    <col min="20" max="20" width="33.08984375" customWidth="1"/>
-    <col min="24" max="24" width="17.453125" customWidth="1"/>
+    <col min="17" max="17" width="11.44140625" customWidth="1"/>
+    <col min="18" max="18" width="18.44140625" customWidth="1"/>
+    <col min="19" max="19" width="22.21875" customWidth="1"/>
+    <col min="20" max="20" width="33.109375" customWidth="1"/>
+    <col min="24" max="24" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>172</v>
       </c>
@@ -6306,7 +6358,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>173</v>
       </c>
@@ -6314,7 +6366,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
@@ -6340,7 +6392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
@@ -6369,7 +6421,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
@@ -6398,7 +6450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
@@ -6427,7 +6479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
@@ -6456,7 +6508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
@@ -6485,7 +6537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>25</v>
       </c>
@@ -6493,7 +6545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>26</v>
       </c>
@@ -6501,7 +6553,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>27</v>
       </c>
@@ -6527,7 +6579,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="17"/>
       <c r="J12" t="s">
@@ -6549,7 +6601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B13" s="15"/>
       <c r="J13" t="s">
         <v>271</v>
@@ -6570,7 +6622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B14" s="15"/>
       <c r="J14" t="s">
         <v>272</v>
@@ -6591,7 +6643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>171</v>
       </c>
@@ -6609,7 +6661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="15"/>
       <c r="J16" t="s">
@@ -6625,7 +6677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>173</v>
       </c>
@@ -6638,7 +6690,7 @@
       <c r="D17" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="23" t="s">
         <v>307</v>
       </c>
       <c r="F17" s="17" t="s">
@@ -6647,7 +6699,7 @@
       <c r="G17" s="9"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>19</v>
       </c>
@@ -6657,11 +6709,11 @@
       <c r="C18" s="17">
         <v>15</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="24">
         <f>(1/9) * (1/1 + 1/2 + 1/3 + 1/4 + 1/5 + 1/6 + 1/7 + 1/8 + 1/9)</f>
         <v>0.31432980599647259</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="21">
         <f>100*D18</f>
         <v>31.432980599647259</v>
       </c>
@@ -6671,7 +6723,7 @@
       <c r="G18" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="H18" s="23"/>
+      <c r="H18" s="22"/>
       <c r="R18" t="s">
         <v>27</v>
       </c>
@@ -6679,7 +6731,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>20</v>
       </c>
@@ -6689,11 +6741,11 @@
       <c r="C19" s="17">
         <v>20</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="24">
         <f>(1/9) * (1/2 + 1/3 + 1/4 + 1/5 + 1/6 + 1/7 + 1/8 + 1/9)</f>
         <v>0.20321869488536154</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="21">
         <f t="shared" ref="E19:E26" si="0">100*D19</f>
         <v>20.321869488536155</v>
       </c>
@@ -6703,7 +6755,7 @@
       <c r="G19" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="H19" s="23"/>
+      <c r="H19" s="22"/>
       <c r="S19" t="s">
         <v>29</v>
       </c>
@@ -6711,7 +6763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>21</v>
       </c>
@@ -6721,11 +6773,11 @@
       <c r="C20" s="17">
         <v>15</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="24">
         <f>(1/9) * (1/3 + 1/4 + 1/5 + 1/6 + 1/7 + 1/8 + 1/9)</f>
         <v>0.14766313932980599</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="21">
         <f t="shared" si="0"/>
         <v>14.766313932980598</v>
       </c>
@@ -6735,7 +6787,7 @@
       <c r="G20" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="H20" s="23"/>
+      <c r="H20" s="22"/>
       <c r="S20" t="s">
         <v>232</v>
       </c>
@@ -6743,7 +6795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>22</v>
       </c>
@@ -6753,11 +6805,11 @@
       <c r="C21" s="17">
         <v>10</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="24">
         <f>(1/9) * (1/4 + 1/5 + 1/6 + 1/7 + 1/8 + 1/9)</f>
         <v>0.11062610229276895</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="21">
         <f t="shared" si="0"/>
         <v>11.062610229276896</v>
       </c>
@@ -6767,7 +6819,7 @@
       <c r="G21" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="H21" s="23"/>
+      <c r="H21" s="22"/>
       <c r="I21" t="s">
         <v>21</v>
       </c>
@@ -6787,7 +6839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>23</v>
       </c>
@@ -6797,11 +6849,11 @@
       <c r="C22" s="17">
         <v>10</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="24">
         <f>(1/9) * (1/5 + 1/6 + 1/7 + 1/8 + 1/9)</f>
         <v>8.2848324514991176E-2</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="21">
         <f t="shared" si="0"/>
         <v>8.284832451499117</v>
       </c>
@@ -6811,7 +6863,7 @@
       <c r="G22" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="H22" s="23"/>
+      <c r="H22" s="22"/>
       <c r="J22" t="s">
         <v>39</v>
       </c>
@@ -6834,7 +6886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>24</v>
       </c>
@@ -6844,11 +6896,11 @@
       <c r="C23" s="17">
         <v>5</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="24">
         <f>(1/9) * (1/6 + 1/7 + 1/8 + 1/9)</f>
         <v>6.0626102292768963E-2</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="21">
         <f t="shared" si="0"/>
         <v>6.0626102292768964</v>
       </c>
@@ -6858,7 +6910,7 @@
       <c r="G23" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="H23" s="23"/>
+      <c r="H23" s="22"/>
       <c r="J23" t="s">
         <v>275</v>
       </c>
@@ -6875,7 +6927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>25</v>
       </c>
@@ -6885,11 +6937,11 @@
       <c r="C24" s="17">
         <v>5</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="24">
         <f>(1/9) * (1/7 + 1/8 + 1/9)</f>
         <v>4.2107583774250439E-2</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="21">
         <f t="shared" si="0"/>
         <v>4.2107583774250434</v>
       </c>
@@ -6899,7 +6951,7 @@
       <c r="G24" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="H24" s="23"/>
+      <c r="H24" s="22"/>
       <c r="J24" s="3" t="s">
         <v>276</v>
       </c>
@@ -6916,7 +6968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>26</v>
       </c>
@@ -6926,11 +6978,11 @@
       <c r="C25" s="17">
         <v>5</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="24">
         <f>(1/9) * (1/8 + 1/9)</f>
         <v>2.6234567901234566E-2</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="21">
         <f t="shared" si="0"/>
         <v>2.6234567901234565</v>
       </c>
@@ -6940,7 +6992,7 @@
       <c r="G25" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="H25" s="23"/>
+      <c r="H25" s="22"/>
       <c r="J25" s="3" t="s">
         <v>276</v>
       </c>
@@ -6957,7 +7009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="58" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>27</v>
       </c>
@@ -6967,11 +7019,11 @@
       <c r="C26" s="17">
         <v>15</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="24">
         <f>(1/9) * (1/9)</f>
         <v>1.2345679012345678E-2</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="21">
         <f t="shared" si="0"/>
         <v>1.2345679012345678</v>
       </c>
@@ -6981,7 +7033,7 @@
       <c r="G26" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="H26" s="23"/>
+      <c r="H26" s="22"/>
       <c r="J26" s="3" t="s">
         <v>277</v>
       </c>
@@ -6998,18 +7050,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17">
         <f>C18+C19+C20+C21+C22+C23+C24+C25+C26</f>
         <v>100</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="24">
         <f>SUM(D18:D26)</f>
         <v>0.99999999999999978</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27" s="21">
         <f>SUM(E18:E26)</f>
         <v>99.999999999999986</v>
       </c>
@@ -7018,21 +7070,21 @@
         <v>100</v>
       </c>
       <c r="G27" s="9"/>
-      <c r="H27" s="23"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="H27" s="22"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>173</v>
       </c>
@@ -7056,11 +7108,11 @@
       <c r="I32" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="J32" s="24" t="s">
+      <c r="J32" s="23" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>19</v>
       </c>
@@ -7081,16 +7133,16 @@
       <c r="H33" s="9">
         <v>15</v>
       </c>
-      <c r="I33" s="25">
+      <c r="I33" s="24">
         <f>(1/9) * (1/1 + 1/2 + 1/3 + 1/4 + 1/5 + 1/6 + 1/7 + 1/8 + 1/9)</f>
         <v>0.31432980599647259</v>
       </c>
-      <c r="J33" s="22">
+      <c r="J33" s="21">
         <f>100*I33</f>
         <v>31.432980599647259</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>20</v>
       </c>
@@ -7111,16 +7163,16 @@
       <c r="H34" s="9">
         <v>10</v>
       </c>
-      <c r="I34" s="25">
+      <c r="I34" s="24">
         <f>(1/9) * (1/2 + 1/3 + 1/4 + 1/5 + 1/6 + 1/7 + 1/8 + 1/9)</f>
         <v>0.20321869488536154</v>
       </c>
-      <c r="J34" s="22">
+      <c r="J34" s="21">
         <f t="shared" ref="J34:J41" si="1">100*I34</f>
         <v>20.321869488536155</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>21</v>
       </c>
@@ -7131,7 +7183,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="9"/>
-      <c r="E35" s="22"/>
+      <c r="E35" s="21"/>
       <c r="F35" s="9" t="s">
         <v>23</v>
       </c>
@@ -7141,16 +7193,16 @@
       <c r="H35" s="9">
         <v>10</v>
       </c>
-      <c r="I35" s="25">
+      <c r="I35" s="24">
         <f>(1/9) * (1/3 + 1/4 + 1/5 + 1/6 + 1/7 + 1/8 + 1/9)</f>
         <v>0.14766313932980599</v>
       </c>
-      <c r="J35" s="22">
+      <c r="J35" s="21">
         <f t="shared" si="1"/>
         <v>14.766313932980598</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>22</v>
       </c>
@@ -7171,16 +7223,16 @@
       <c r="H36" s="9">
         <v>5</v>
       </c>
-      <c r="I36" s="25">
+      <c r="I36" s="24">
         <f>(1/9) * (1/4 + 1/5 + 1/6 + 1/7 + 1/8 + 1/9)</f>
         <v>0.11062610229276895</v>
       </c>
-      <c r="J36" s="22">
+      <c r="J36" s="21">
         <f t="shared" si="1"/>
         <v>11.062610229276896</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>23</v>
       </c>
@@ -7201,16 +7253,16 @@
       <c r="H37" s="9">
         <v>5</v>
       </c>
-      <c r="I37" s="25">
+      <c r="I37" s="24">
         <f>(1/9) * (1/5 + 1/6 + 1/7 + 1/8 + 1/9)</f>
         <v>8.2848324514991176E-2</v>
       </c>
-      <c r="J37" s="22">
+      <c r="J37" s="21">
         <f t="shared" si="1"/>
         <v>8.284832451499117</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>24</v>
       </c>
@@ -7231,18 +7283,18 @@
       <c r="H38" s="9">
         <v>15</v>
       </c>
-      <c r="I38" s="25">
+      <c r="I38" s="24">
         <f>(1/9) * (1/6 + 1/7 + 1/8 + 1/9)</f>
         <v>6.0626102292768963E-2</v>
       </c>
-      <c r="J38" s="22">
+      <c r="J38" s="21">
         <f t="shared" si="1"/>
         <v>6.0626102292768964</v>
       </c>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>25</v>
       </c>
@@ -7263,18 +7315,18 @@
       <c r="H39" s="9">
         <v>20</v>
       </c>
-      <c r="I39" s="25">
+      <c r="I39" s="24">
         <f>(1/9) * (1/7 + 1/8 + 1/9)</f>
         <v>4.2107583774250439E-2</v>
       </c>
-      <c r="J39" s="22">
+      <c r="J39" s="21">
         <f t="shared" si="1"/>
         <v>4.2107583774250434</v>
       </c>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>26</v>
       </c>
@@ -7295,18 +7347,18 @@
       <c r="H40" s="9">
         <v>5</v>
       </c>
-      <c r="I40" s="25">
+      <c r="I40" s="24">
         <f>(1/9) * (1/8 + 1/9)</f>
         <v>2.6234567901234566E-2</v>
       </c>
-      <c r="J40" s="22">
+      <c r="J40" s="21">
         <f t="shared" si="1"/>
         <v>2.6234567901234565</v>
       </c>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>27</v>
       </c>
@@ -7327,16 +7379,16 @@
       <c r="H41" s="9">
         <v>15</v>
       </c>
-      <c r="I41" s="25">
+      <c r="I41" s="24">
         <f>(1/9) * (1/9)</f>
         <v>1.2345679012345678E-2</v>
       </c>
-      <c r="J41" s="22">
+      <c r="J41" s="21">
         <f t="shared" si="1"/>
         <v>1.2345679012345678</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -7352,20 +7404,20 @@
         <f>SUM(I33:I41)</f>
         <v>0.99999999999999978</v>
       </c>
-      <c r="J42" s="22">
+      <c r="J42" s="21">
         <f>SUM(J33:J41)</f>
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="18"/>
     </row>
-    <row r="48" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
         <v>77</v>
       </c>
@@ -7406,7 +7458,7 @@
       <c r="P48" s="16"/>
       <c r="Q48" s="16"/>
     </row>
-    <row r="49" spans="1:18" ht="58" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49" s="16" t="s">
         <v>193</v>
       </c>
@@ -7447,7 +7499,7 @@
       <c r="P49" s="12"/>
       <c r="Q49" s="12"/>
     </row>
-    <row r="50" spans="1:18" ht="58" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
         <v>194</v>
       </c>
@@ -7488,7 +7540,7 @@
       <c r="P50" s="12"/>
       <c r="Q50" s="12"/>
     </row>
-    <row r="51" spans="1:18" ht="58" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" s="16" t="s">
         <v>195</v>
       </c>
@@ -7529,7 +7581,7 @@
       <c r="P51" s="12"/>
       <c r="Q51" s="12"/>
     </row>
-    <row r="52" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="16" t="s">
         <v>253</v>
       </c>
@@ -7568,7 +7620,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="16" t="s">
         <v>259</v>
       </c>
@@ -7607,7 +7659,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="16" t="s">
         <v>264</v>
       </c>
@@ -7646,7 +7698,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>170</v>
       </c>
@@ -7687,7 +7739,7 @@
       <c r="Q56" s="9"/>
       <c r="R56" s="9"/>
     </row>
-    <row r="57" spans="1:18" ht="58" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>193</v>
       </c>
@@ -7728,7 +7780,7 @@
       <c r="Q57" s="9"/>
       <c r="R57" s="17"/>
     </row>
-    <row r="58" spans="1:18" ht="58" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>194</v>
       </c>
@@ -7769,7 +7821,7 @@
       <c r="Q58" s="9"/>
       <c r="R58" s="17"/>
     </row>
-    <row r="59" spans="1:18" ht="58" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>195</v>
       </c>
@@ -7810,7 +7862,7 @@
       <c r="Q59" s="9"/>
       <c r="R59" s="17"/>
     </row>
-    <row r="60" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>253</v>
       </c>
@@ -7851,7 +7903,7 @@
       <c r="Q60" s="9"/>
       <c r="R60" s="17"/>
     </row>
-    <row r="61" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>259</v>
       </c>
@@ -7892,7 +7944,7 @@
       <c r="Q61" s="9"/>
       <c r="R61" s="17"/>
     </row>
-    <row r="62" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
         <v>264</v>
       </c>
@@ -7933,22 +7985,22 @@
       <c r="Q62" s="9"/>
       <c r="R62" s="17"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="Q63" s="9"/>
       <c r="R63" s="17"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>207</v>
       </c>
       <c r="Q64" s="9"/>
       <c r="R64" s="17"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="Q65" s="9"/>
       <c r="R65" s="17"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>208</v>
       </c>
@@ -7985,7 +8037,7 @@
       </c>
       <c r="O66" s="9"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>193</v>
       </c>
@@ -8022,7 +8074,7 @@
       </c>
       <c r="O67" s="9"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>194</v>
       </c>
@@ -8059,7 +8111,7 @@
       </c>
       <c r="O68" s="9"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>195</v>
       </c>
@@ -8096,7 +8148,7 @@
       </c>
       <c r="O69" s="9"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>253</v>
       </c>
@@ -8133,7 +8185,7 @@
       </c>
       <c r="O70" s="9"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>259</v>
       </c>
@@ -8170,7 +8222,7 @@
       </c>
       <c r="O71" s="9"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>264</v>
       </c>
@@ -8207,15 +8259,15 @@
       </c>
       <c r="O72" s="9"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="N73" s="9"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" s="18" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>213</v>
       </c>
@@ -8226,7 +8278,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>193</v>
       </c>
@@ -8249,7 +8301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>194</v>
       </c>
@@ -8272,7 +8324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>195</v>
       </c>
@@ -8295,7 +8347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>253</v>
       </c>
@@ -8318,7 +8370,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>259</v>
       </c>
@@ -8341,7 +8393,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>264</v>
       </c>
@@ -8364,7 +8416,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>300</v>
       </c>
@@ -8375,7 +8427,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>193</v>
       </c>
@@ -8398,7 +8450,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>194</v>
       </c>
@@ -8421,7 +8473,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>195</v>
       </c>
@@ -8444,7 +8496,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>253</v>
       </c>
@@ -8467,7 +8519,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>259</v>
       </c>
@@ -8490,7 +8542,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>264</v>
       </c>
@@ -8513,7 +8565,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>297</v>
       </c>
@@ -8524,7 +8576,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>193</v>
       </c>
@@ -8543,12 +8595,12 @@
       <c r="N94" t="s">
         <v>193</v>
       </c>
-      <c r="O94" s="23">
+      <c r="O94" s="22">
         <f>2/N67</f>
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>194</v>
       </c>
@@ -8559,7 +8611,7 @@
       <c r="I95" t="s">
         <v>194</v>
       </c>
-      <c r="J95" s="23">
+      <c r="J95" s="22">
         <f>M68/7</f>
         <v>1</v>
       </c>
@@ -8567,12 +8619,12 @@
       <c r="N95" t="s">
         <v>194</v>
       </c>
-      <c r="O95" s="23">
+      <c r="O95" s="22">
         <f>2/N68</f>
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>195</v>
       </c>
@@ -8583,19 +8635,19 @@
       <c r="I96" t="s">
         <v>195</v>
       </c>
-      <c r="J96" s="23">
+      <c r="J96" s="22">
         <f t="shared" ref="J96:J99" si="8">M69/7</f>
         <v>1</v>
       </c>
       <c r="N96" t="s">
         <v>195</v>
       </c>
-      <c r="O96" s="23">
+      <c r="O96" s="22">
         <f t="shared" ref="O96" si="9">2/N69</f>
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>253</v>
       </c>
@@ -8606,7 +8658,7 @@
       <c r="I97" t="s">
         <v>253</v>
       </c>
-      <c r="J97" s="23">
+      <c r="J97" s="22">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -8618,7 +8670,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>259</v>
       </c>
@@ -8629,19 +8681,19 @@
       <c r="I98" t="s">
         <v>259</v>
       </c>
-      <c r="J98" s="23">
+      <c r="J98" s="22">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N98" t="s">
         <v>259</v>
       </c>
-      <c r="O98" s="23">
+      <c r="O98" s="22">
         <f t="shared" ref="O98:O99" si="10">2/N71</f>
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>264</v>
       </c>
@@ -8652,28 +8704,28 @@
       <c r="I99" t="s">
         <v>264</v>
       </c>
-      <c r="J99" s="23">
+      <c r="J99" s="22">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N99" t="s">
         <v>264</v>
       </c>
-      <c r="O99" s="23">
+      <c r="O99" s="22">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J100" s="19"/>
       <c r="O100" s="19"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>208</v>
       </c>
@@ -8710,7 +8762,7 @@
       </c>
       <c r="P103" s="9"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
         <v>193</v>
       </c>
@@ -8756,7 +8808,7 @@
       </c>
       <c r="P104" s="20"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
         <v>194</v>
       </c>
@@ -8802,7 +8854,7 @@
       </c>
       <c r="P105" s="20"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>195</v>
       </c>
@@ -8848,11 +8900,11 @@
       </c>
       <c r="P106" s="9"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="B107" s="22">
+      <c r="B107" s="21">
         <f>B81</f>
         <v>1</v>
       </c>
@@ -8895,7 +8947,7 @@
       <c r="O107" s="9"/>
       <c r="P107" s="9"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
         <v>259</v>
       </c>
@@ -8940,7 +8992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
         <v>264</v>
       </c>
@@ -8985,12 +9037,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
         <v>208</v>
       </c>
@@ -9032,7 +9084,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
         <v>193</v>
       </c>
@@ -9085,7 +9137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
         <v>194</v>
       </c>
@@ -9138,7 +9190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
         <v>195</v>
       </c>
@@ -9191,7 +9243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
         <v>253</v>
       </c>
@@ -9245,7 +9297,7 @@
       </c>
       <c r="R117" s="9"/>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
         <v>259</v>
       </c>
@@ -9298,7 +9350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A119" s="9" t="s">
         <v>264</v>
       </c>
@@ -9368,28 +9420,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BDD87DC-8644-42C8-A7E5-56F463ADE935}">
   <dimension ref="A1:U112"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" zoomScale="88" workbookViewId="0">
-      <selection activeCell="G101" sqref="G101"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" customWidth="1"/>
-    <col min="4" max="4" width="20.453125" customWidth="1"/>
-    <col min="6" max="6" width="27.453125" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" customWidth="1"/>
-    <col min="8" max="8" width="11.08984375" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" customWidth="1"/>
-    <col min="10" max="10" width="15.81640625" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="6" max="6" width="27.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="11.453125" customWidth="1"/>
-    <col min="14" max="14" width="20.1796875" customWidth="1"/>
-    <col min="18" max="18" width="17.453125" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" customWidth="1"/>
+    <col min="14" max="14" width="20.21875" customWidth="1"/>
+    <col min="18" max="18" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>172</v>
       </c>
@@ -9400,12 +9452,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="U2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
@@ -9428,13 +9480,13 @@
         <v>25</v>
       </c>
       <c r="N3" t="s">
-        <v>40</v>
+        <v>354</v>
       </c>
       <c r="U3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
@@ -9463,7 +9515,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
@@ -9477,13 +9529,13 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>363</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
-      <c r="N5">
-        <v>1</v>
+      <c r="N5" t="s">
+        <v>358</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -9492,7 +9544,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
@@ -9506,13 +9558,13 @@
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>364</v>
       </c>
       <c r="K6">
         <v>2</v>
       </c>
-      <c r="N6">
-        <v>2</v>
+      <c r="N6" t="s">
+        <v>359</v>
       </c>
       <c r="O6">
         <v>2</v>
@@ -9521,7 +9573,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
@@ -9535,19 +9587,13 @@
         <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>365</v>
       </c>
       <c r="K7">
         <v>3</v>
       </c>
-      <c r="N7">
-        <v>3</v>
-      </c>
-      <c r="O7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
@@ -9561,27 +9607,21 @@
         <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
+        <v>366</v>
       </c>
       <c r="K8">
         <v>4</v>
       </c>
-      <c r="N8">
-        <v>4</v>
-      </c>
-      <c r="O8">
-        <v>4</v>
-      </c>
       <c r="U8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>6</v>
+        <v>354</v>
       </c>
       <c r="F9" t="s">
         <v>35</v>
@@ -9590,22 +9630,16 @@
         <v>5</v>
       </c>
       <c r="J9" t="s">
-        <v>55</v>
+        <v>153</v>
       </c>
       <c r="K9">
         <v>5</v>
       </c>
-      <c r="N9">
-        <v>5</v>
-      </c>
-      <c r="O9">
-        <v>5</v>
-      </c>
       <c r="U9" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>26</v>
       </c>
@@ -9616,7 +9650,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>27</v>
       </c>
@@ -9641,23 +9675,13 @@
       <c r="N11" t="s">
         <v>41</v>
       </c>
-      <c r="Q11" t="s">
-        <v>28</v>
-      </c>
-      <c r="R11" t="s">
-        <v>43</v>
-      </c>
       <c r="U11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>9</v>
-      </c>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="17"/>
       <c r="F12" t="s">
         <v>29</v>
       </c>
@@ -9676,17 +9700,11 @@
       <c r="O12" t="s">
         <v>11</v>
       </c>
-      <c r="R12" t="s">
-        <v>29</v>
-      </c>
-      <c r="S12" t="s">
-        <v>11</v>
-      </c>
       <c r="U12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B13" s="15"/>
       <c r="F13" t="s">
         <v>140</v>
@@ -9701,22 +9719,16 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>205</v>
+        <v>360</v>
       </c>
       <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="R13" t="s">
-        <v>68</v>
-      </c>
-      <c r="S13">
         <v>1</v>
       </c>
       <c r="U13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B14" s="15"/>
       <c r="F14" t="s">
         <v>209</v>
@@ -9731,22 +9743,16 @@
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>204</v>
+        <v>361</v>
       </c>
       <c r="O14">
         <v>2</v>
       </c>
-      <c r="R14" t="s">
-        <v>69</v>
-      </c>
-      <c r="S14">
-        <v>2</v>
-      </c>
       <c r="U14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>171</v>
       </c>
@@ -9763,23 +9769,11 @@
       <c r="K15">
         <v>3</v>
       </c>
-      <c r="N15" t="s">
-        <v>67</v>
-      </c>
-      <c r="O15">
-        <v>3</v>
-      </c>
-      <c r="R15" t="s">
-        <v>70</v>
-      </c>
-      <c r="S15">
-        <v>3</v>
-      </c>
       <c r="U15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="15"/>
       <c r="F16" t="s">
@@ -9794,17 +9788,11 @@
       <c r="K16">
         <v>4</v>
       </c>
-      <c r="R16" t="s">
-        <v>71</v>
-      </c>
-      <c r="S16">
-        <v>4</v>
-      </c>
       <c r="U16" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>173</v>
       </c>
@@ -9812,7 +9800,7 @@
         <v>174</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>11</v>
+        <v>362</v>
       </c>
       <c r="F17" t="s">
         <v>141</v>
@@ -9830,16 +9818,16 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="C18" s="15">
-        <f>Ressponden!B2</f>
-        <v>18.399999999999999</v>
+      <c r="C18" s="30">
+        <f>(1/9)* (1/1+ 1/2+ 1/3+1/4+1/5+1/6+ 1/7+ 1/8+ 1/9)</f>
+        <v>0.31432980599647259</v>
       </c>
       <c r="M18" t="s">
         <v>27</v>
@@ -9851,16 +9839,16 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="C19" s="15">
-        <f>Ressponden!B3</f>
-        <v>11.2</v>
+      <c r="C19" s="30">
+        <f>(1/9)* (1/2+ 1/3+1/4+1/5+1/6+ 1/7+ 1/8+ 1/9)</f>
+        <v>0.20321869488536154</v>
       </c>
       <c r="N19" t="s">
         <v>29</v>
@@ -9869,16 +9857,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="C20" s="15">
-        <f>Ressponden!B4</f>
-        <v>10.6</v>
+      <c r="C20" s="30">
+        <f>(1/9)* (1/3+1/4+1/5+1/6+ 1/7+ 1/8+ 1/9)</f>
+        <v>0.14766313932980599</v>
       </c>
       <c r="N20" t="s">
         <v>205</v>
@@ -9887,16 +9875,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="C21" s="15">
-        <f>Ressponden!B5</f>
-        <v>11.6</v>
+      <c r="C21" s="30">
+        <f>(1/9)* (1/4+1/5+1/6+ 1/7+ 1/8+ 1/9)</f>
+        <v>0.11062610229276895</v>
       </c>
       <c r="E21" t="s">
         <v>21</v>
@@ -9917,16 +9905,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="C22" s="15">
-        <f>Ressponden!B6</f>
-        <v>14.2</v>
+      <c r="C22" s="30">
+        <f>(1/9)* (1/5+1/6+ 1/7+ 1/8+ 1/9)</f>
+        <v>8.2848324514991176E-2</v>
       </c>
       <c r="F22" t="s">
         <v>39</v>
@@ -9940,23 +9928,17 @@
       <c r="K22" t="s">
         <v>11</v>
       </c>
-      <c r="N22" t="s">
-        <v>67</v>
-      </c>
-      <c r="O22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="C23" s="15">
-        <f>Ressponden!B7</f>
-        <v>7.2</v>
+      <c r="C23" s="30">
+        <f>(1/9)* (1/6+ 1/7+ 1/8+ 1/9)</f>
+        <v>6.0626102292768963E-2</v>
       </c>
       <c r="F23" t="s">
         <v>50</v>
@@ -9971,16 +9953,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="C24" s="15">
-        <f>Ressponden!B8</f>
-        <v>7</v>
+      <c r="C24" s="30">
+        <f>(1/9)* (1/7+ 1/8+ 1/9)</f>
+        <v>4.2107583774250439E-2</v>
       </c>
       <c r="F24" t="s">
         <v>46</v>
@@ -9995,16 +9977,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="C25" s="15">
-        <f>Ressponden!B9</f>
-        <v>6</v>
+      <c r="C25" s="30">
+        <f>(1/9)* (1/8+ 1/9)</f>
+        <v>2.6234567901234566E-2</v>
       </c>
       <c r="F25" t="s">
         <v>47</v>
@@ -10019,16 +10001,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="C26" s="15">
-        <f>Ressponden!B10</f>
-        <v>7</v>
+      <c r="C26" s="30">
+        <f>(1/9)* (1/9)</f>
+        <v>1.2345679012345678E-2</v>
       </c>
       <c r="F26" t="s">
         <v>48</v>
@@ -10043,16 +10025,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A27" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="C27" s="15">
-        <f>Ressponden!B11</f>
-        <v>6.8</v>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" s="9"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="30">
+        <f>SUM(C18:C26)</f>
+        <v>0.99999999999999978</v>
       </c>
       <c r="F27" t="s">
         <v>49</v>
@@ -10067,20 +10045,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="4">
-        <f>Ressponden!B12</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="C28" s="4"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>173</v>
       </c>
@@ -10088,7 +10063,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>19</v>
       </c>
@@ -10096,7 +10071,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>20</v>
       </c>
@@ -10104,7 +10079,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>21</v>
       </c>
@@ -10112,7 +10087,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>22</v>
       </c>
@@ -10120,7 +10095,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>23</v>
       </c>
@@ -10128,7 +10103,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>24</v>
       </c>
@@ -10136,7 +10111,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>25</v>
       </c>
@@ -10144,7 +10119,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>26</v>
       </c>
@@ -10152,7 +10127,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>27</v>
       </c>
@@ -10160,7 +10135,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>28</v>
       </c>
@@ -10168,15 +10143,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="18"/>
     </row>
-    <row r="48" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
         <v>77</v>
       </c>
@@ -10214,7 +10189,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="12">
         <v>1</v>
       </c>
@@ -10230,7 +10205,7 @@
       <c r="K49" s="12"/>
       <c r="L49" s="12"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="12">
         <v>2</v>
       </c>
@@ -10246,7 +10221,7 @@
       <c r="K50" s="12"/>
       <c r="L50" s="12"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="12">
         <v>3</v>
       </c>
@@ -10262,12 +10237,12 @@
       <c r="K51" s="12"/>
       <c r="L51" s="12"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>170</v>
       </c>
@@ -10305,7 +10280,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>193</v>
       </c>
@@ -10321,7 +10296,7 @@
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>194</v>
       </c>
@@ -10337,7 +10312,7 @@
       <c r="K58" s="12"/>
       <c r="L58" s="12"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>195</v>
       </c>
@@ -10353,12 +10328,12 @@
       <c r="K59" s="12"/>
       <c r="L59" s="12"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>208</v>
       </c>
@@ -10393,7 +10368,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>193</v>
       </c>
@@ -10408,7 +10383,7 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>194</v>
       </c>
@@ -10423,7 +10398,7 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>195</v>
       </c>
@@ -10438,12 +10413,12 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="18" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>213</v>
       </c>
@@ -10454,7 +10429,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>193</v>
       </c>
@@ -10477,7 +10452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>194</v>
       </c>
@@ -10500,7 +10475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>195</v>
       </c>
@@ -10523,7 +10498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>216</v>
       </c>
@@ -10534,7 +10509,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>193</v>
       </c>
@@ -10557,7 +10532,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>194</v>
       </c>
@@ -10580,7 +10555,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>195</v>
       </c>
@@ -10603,7 +10578,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>219</v>
       </c>
@@ -10614,7 +10589,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>193</v>
       </c>
@@ -10637,7 +10612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>194</v>
       </c>
@@ -10660,7 +10635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>195</v>
       </c>
@@ -10683,12 +10658,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E91" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E92" t="s">
         <v>193</v>
       </c>
@@ -10697,7 +10672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E93" t="s">
         <v>194</v>
       </c>
@@ -10706,7 +10681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E94" t="s">
         <v>195</v>
       </c>
@@ -10715,12 +10690,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>208</v>
       </c>
@@ -10755,7 +10730,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
         <v>193</v>
       </c>
@@ -10800,7 +10775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
         <v>194</v>
       </c>
@@ -10845,7 +10820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>195</v>
       </c>
@@ -10890,12 +10865,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
         <v>208</v>
       </c>
@@ -10936,7 +10911,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
         <v>193</v>
       </c>
@@ -10989,7 +10964,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
         <v>194</v>
       </c>
@@ -11042,7 +11017,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
         <v>195</v>
       </c>
@@ -11107,368 +11082,98 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1EACA8-BD40-42FD-A8BA-50E7DE06EFB6}">
-  <dimension ref="A1:K7"/>
-  <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="15.54296875" customWidth="1"/>
-    <col min="4" max="4" width="17.90625" customWidth="1"/>
-    <col min="5" max="5" width="23.90625" customWidth="1"/>
-    <col min="7" max="7" width="19.1796875" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" customWidth="1"/>
-    <col min="9" max="9" width="13.90625" customWidth="1"/>
-    <col min="10" max="10" width="21.1796875" customWidth="1"/>
-    <col min="11" max="11" width="26.1796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF27139-216E-4DDF-8D29-4F55B338C4CC}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.08984375" customWidth="1"/>
-    <col min="2" max="2" width="21.1796875" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>315</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>317</v>
       </c>
       <c r="B2" t="s">
         <v>326</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="25">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>318</v>
       </c>
       <c r="B3" t="s">
         <v>327</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="25">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="25">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="25">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="25">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="25">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="27">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="27">
         <v>55</v>
       </c>
     </row>
